--- a/ig/ch-lab-report/StructureDefinition-ch-lab-observation-albumin-creatinine-urine-ratio.xlsx
+++ b/ig/ch-lab-report/StructureDefinition-ch-lab-observation-albumin-creatinine-urine-ratio.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4780" uniqueCount="677">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4707" uniqueCount="661">
   <si>
     <t>Property</t>
   </si>
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.0.0-ballot</t>
+    <t>1.0.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -42,7 +42,7 @@
     <t>Title</t>
   </si>
   <si>
-    <t>CH LAB Observation Results: Albumin/Creatinine Ratio in Urine</t>
+    <t>CH LAB-Report Observation Results: Albumin/Creatinine Ratio in Urine</t>
   </si>
   <si>
     <t>Status</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-05-17T09:40:37+00:00</t>
+    <t>2024-12-18T08:59:06+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -72,7 +72,7 @@
     <t>HL7 Switzerland (https://www.hl7.ch)</t>
   </si>
   <si>
-    <t>Marcel Hanselmann (laborprojektgruppe@gmail.com(WORK))</t>
+    <t>Marcel Hanselmann (laborprojektgruppe@gmail.com(work))</t>
   </si>
   <si>
     <t>Jurisdiction</t>
@@ -930,7 +930,7 @@
     <t>http://hl7.org/fhir/ValueSet/observation-category</t>
   </si>
   <si>
-    <t xml:space="preserve">pattern:$this}
+    <t xml:space="preserve">value:$this}
 </t>
   </si>
   <si>
@@ -1009,7 +1009,7 @@
 </t>
   </si>
   <si>
-    <t>Type of observation (code / type)</t>
+    <t>Albumin/Creatinine (U) [Ratio]</t>
   </si>
   <si>
     <t>Describes what was observed. Sometimes this is called the observation "name".  In this profile this code represents either a simple laboratory test or a laboratory study with multiple child observations</t>
@@ -1025,7 +1025,6 @@
   &lt;coding&gt;
     &lt;system value="http://loinc.org"/&gt;
     &lt;code value="32294-1"/&gt;
-    &lt;display value="Albumin/Creatinine [Ratio] in Urine"/&gt;
   &lt;/coding&gt;
 &lt;/valueCodeableConcept&gt;</t>
   </si>
@@ -1049,67 +1048,6 @@
   </si>
   <si>
     <t>116680003 |Is a|</t>
-  </si>
-  <si>
-    <t>Observation.code.id</t>
-  </si>
-  <si>
-    <t>Observation.code.extension</t>
-  </si>
-  <si>
-    <t>Observation.code.coding</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Coding
-</t>
-  </si>
-  <si>
-    <t>Code defined by a terminology system</t>
-  </si>
-  <si>
-    <t>A reference to a code defined by a terminology system.</t>
-  </si>
-  <si>
-    <t>Codes may be defined very casually in enumerations, or code lists, up to very formal definitions such as SNOMED CT - see the HL7 v3 Core Principles for more information.  Ordering of codings is undefined and SHALL NOT be used to infer meaning. Generally, at most only one of the coding values will be labeled as UserSelected = true.</t>
-  </si>
-  <si>
-    <t>Allows for alternative encodings within a code system, and translations to other code systems.</t>
-  </si>
-  <si>
-    <t>CodeableConcept.coding</t>
-  </si>
-  <si>
-    <t>C*E.1-8, C*E.10-22</t>
-  </si>
-  <si>
-    <t>union(., ./translation)</t>
-  </si>
-  <si>
-    <t>Observation.code.text</t>
-  </si>
-  <si>
-    <t>LOINC Display Name</t>
-  </si>
-  <si>
-    <t>A human language representation of the concept as seen/selected/uttered by the user who entered the data and/or which represents the intended meaning of the user.</t>
-  </si>
-  <si>
-    <t>Very often the text is the same as a displayName of one of the codings.</t>
-  </si>
-  <si>
-    <t>The codes from the terminologies do not always capture the correct meaning with all the nuances of the human using them, or sometimes there is no appropriate code at all. In these cases, the text is used to capture the full meaning of the source.</t>
-  </si>
-  <si>
-    <t>Albumin/Creatinine (U) [Ratio]</t>
-  </si>
-  <si>
-    <t>CodeableConcept.text</t>
-  </si>
-  <si>
-    <t>C*E.9. But note many systems use C*E.2 for this</t>
-  </si>
-  <si>
-    <t>./originalText[mediaType/code="text/plain"]/data</t>
   </si>
   <si>
     <t>Observation.subject</t>
@@ -1478,6 +1416,16 @@
     <t>valueString</t>
   </si>
   <si>
+    <t>Observation.value[x]:valueBoolean</t>
+  </si>
+  <si>
+    <t>valueBoolean</t>
+  </si>
+  <si>
+    <t xml:space="preserve">boolean
+</t>
+  </si>
+  <si>
     <t>Observation.value[x]:valueRange</t>
   </si>
   <si>
@@ -1747,7 +1695,6 @@
   &lt;coding&gt;
     &lt;system value="http://snomed.info/sct"/&gt;
     &lt;code value="271075006"/&gt;
-    &lt;display value="Urine albumin/creatinine ratio measurement (procedure)"/&gt;
   &lt;/coding&gt;
 &lt;/valueCodeableConcept&gt;</t>
   </si>
@@ -2122,6 +2069,9 @@
   </si>
   <si>
     <t>Observation.component.value[x]:valueString</t>
+  </si>
+  <si>
+    <t>Observation.component.value[x]:valueBoolean</t>
   </si>
   <si>
     <t>Observation.component.value[x]:valueRange</t>
@@ -2484,7 +2434,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AP124"/>
+  <dimension ref="A1:AP122"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -8295,7 +8245,7 @@
       </c>
       <c r="E49" s="2"/>
       <c r="F49" t="s" s="2">
-        <v>83</v>
+        <v>96</v>
       </c>
       <c r="G49" t="s" s="2">
         <v>96</v>
@@ -8307,19 +8257,23 @@
         <v>85</v>
       </c>
       <c r="J49" t="s" s="2">
-        <v>85</v>
+        <v>97</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>161</v>
+        <v>325</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>162</v>
+        <v>326</v>
       </c>
       <c r="M49" t="s" s="2">
-        <v>163</v>
-      </c>
-      <c r="N49" s="2"/>
-      <c r="O49" s="2"/>
+        <v>327</v>
+      </c>
+      <c r="N49" t="s" s="2">
+        <v>328</v>
+      </c>
+      <c r="O49" t="s" s="2">
+        <v>329</v>
+      </c>
       <c r="P49" t="s" s="2">
         <v>85</v>
       </c>
@@ -8367,7 +8321,7 @@
         <v>85</v>
       </c>
       <c r="AF49" t="s" s="2">
-        <v>164</v>
+        <v>324</v>
       </c>
       <c r="AG49" t="s" s="2">
         <v>83</v>
@@ -8379,22 +8333,22 @@
         <v>85</v>
       </c>
       <c r="AJ49" t="s" s="2">
-        <v>85</v>
+        <v>108</v>
       </c>
       <c r="AK49" t="s" s="2">
-        <v>85</v>
+        <v>330</v>
       </c>
       <c r="AL49" t="s" s="2">
         <v>85</v>
       </c>
       <c r="AM49" t="s" s="2">
-        <v>85</v>
+        <v>331</v>
       </c>
       <c r="AN49" t="s" s="2">
-        <v>165</v>
+        <v>332</v>
       </c>
       <c r="AO49" t="s" s="2">
-        <v>85</v>
+        <v>333</v>
       </c>
       <c r="AP49" t="s" s="2">
         <v>85</v>
@@ -8402,21 +8356,21 @@
     </row>
     <row r="50">
       <c r="A50" t="s" s="2">
-        <v>325</v>
+        <v>334</v>
       </c>
       <c r="B50" t="s" s="2">
-        <v>325</v>
+        <v>334</v>
       </c>
       <c r="C50" s="2"/>
       <c r="D50" t="s" s="2">
-        <v>168</v>
+        <v>85</v>
       </c>
       <c r="E50" s="2"/>
       <c r="F50" t="s" s="2">
         <v>83</v>
       </c>
       <c r="G50" t="s" s="2">
-        <v>84</v>
+        <v>96</v>
       </c>
       <c r="H50" t="s" s="2">
         <v>85</v>
@@ -8428,17 +8382,15 @@
         <v>85</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>141</v>
+        <v>161</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>169</v>
+        <v>162</v>
       </c>
       <c r="M50" t="s" s="2">
-        <v>170</v>
-      </c>
-      <c r="N50" t="s" s="2">
-        <v>171</v>
-      </c>
+        <v>163</v>
+      </c>
+      <c r="N50" s="2"/>
       <c r="O50" s="2"/>
       <c r="P50" t="s" s="2">
         <v>85</v>
@@ -8475,31 +8427,31 @@
         <v>85</v>
       </c>
       <c r="AB50" t="s" s="2">
-        <v>144</v>
+        <v>85</v>
       </c>
       <c r="AC50" t="s" s="2">
-        <v>172</v>
+        <v>85</v>
       </c>
       <c r="AD50" t="s" s="2">
         <v>85</v>
       </c>
       <c r="AE50" t="s" s="2">
-        <v>145</v>
+        <v>85</v>
       </c>
       <c r="AF50" t="s" s="2">
-        <v>173</v>
+        <v>164</v>
       </c>
       <c r="AG50" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AH50" t="s" s="2">
-        <v>84</v>
+        <v>96</v>
       </c>
       <c r="AI50" t="s" s="2">
         <v>85</v>
       </c>
       <c r="AJ50" t="s" s="2">
-        <v>147</v>
+        <v>85</v>
       </c>
       <c r="AK50" t="s" s="2">
         <v>85</v>
@@ -8522,14 +8474,14 @@
     </row>
     <row r="51">
       <c r="A51" t="s" s="2">
-        <v>326</v>
+        <v>335</v>
       </c>
       <c r="B51" t="s" s="2">
-        <v>326</v>
+        <v>335</v>
       </c>
       <c r="C51" s="2"/>
       <c r="D51" t="s" s="2">
-        <v>85</v>
+        <v>168</v>
       </c>
       <c r="E51" s="2"/>
       <c r="F51" t="s" s="2">
@@ -8545,23 +8497,21 @@
         <v>85</v>
       </c>
       <c r="J51" t="s" s="2">
-        <v>97</v>
+        <v>85</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>327</v>
+        <v>141</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>328</v>
+        <v>169</v>
       </c>
       <c r="M51" t="s" s="2">
-        <v>329</v>
+        <v>170</v>
       </c>
       <c r="N51" t="s" s="2">
-        <v>330</v>
-      </c>
-      <c r="O51" t="s" s="2">
-        <v>331</v>
-      </c>
+        <v>171</v>
+      </c>
+      <c r="O51" s="2"/>
       <c r="P51" t="s" s="2">
         <v>85</v>
       </c>
@@ -8597,19 +8547,19 @@
         <v>85</v>
       </c>
       <c r="AB51" t="s" s="2">
-        <v>85</v>
+        <v>144</v>
       </c>
       <c r="AC51" t="s" s="2">
-        <v>85</v>
+        <v>172</v>
       </c>
       <c r="AD51" t="s" s="2">
         <v>85</v>
       </c>
       <c r="AE51" t="s" s="2">
-        <v>85</v>
+        <v>145</v>
       </c>
       <c r="AF51" t="s" s="2">
-        <v>332</v>
+        <v>173</v>
       </c>
       <c r="AG51" t="s" s="2">
         <v>83</v>
@@ -8621,7 +8571,7 @@
         <v>85</v>
       </c>
       <c r="AJ51" t="s" s="2">
-        <v>108</v>
+        <v>147</v>
       </c>
       <c r="AK51" t="s" s="2">
         <v>85</v>
@@ -8630,10 +8580,10 @@
         <v>85</v>
       </c>
       <c r="AM51" t="s" s="2">
-        <v>333</v>
+        <v>85</v>
       </c>
       <c r="AN51" t="s" s="2">
-        <v>334</v>
+        <v>165</v>
       </c>
       <c r="AO51" t="s" s="2">
         <v>85</v>
@@ -8644,10 +8594,10 @@
     </row>
     <row r="52">
       <c r="A52" t="s" s="2">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="B52" t="s" s="2">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="C52" s="2"/>
       <c r="D52" t="s" s="2">
@@ -8655,7 +8605,7 @@
       </c>
       <c r="E52" s="2"/>
       <c r="F52" t="s" s="2">
-        <v>83</v>
+        <v>96</v>
       </c>
       <c r="G52" t="s" s="2">
         <v>96</v>
@@ -8673,17 +8623,15 @@
         <v>161</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="M52" t="s" s="2">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="N52" t="s" s="2">
-        <v>338</v>
-      </c>
-      <c r="O52" t="s" s="2">
         <v>339</v>
       </c>
+      <c r="O52" s="2"/>
       <c r="P52" t="s" s="2">
         <v>85</v>
       </c>
@@ -8692,55 +8640,55 @@
         <v>85</v>
       </c>
       <c r="S52" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="T52" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="U52" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="V52" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="W52" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="X52" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="Y52" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="Z52" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="AA52" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="AB52" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="AC52" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="AD52" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="AE52" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="AF52" t="s" s="2">
         <v>340</v>
       </c>
-      <c r="T52" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="U52" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="V52" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="W52" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="X52" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="Y52" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="Z52" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="AA52" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="AB52" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="AC52" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="AD52" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="AE52" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="AF52" t="s" s="2">
+      <c r="AG52" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AH52" t="s" s="2">
+        <v>96</v>
+      </c>
+      <c r="AI52" t="s" s="2">
         <v>341</v>
-      </c>
-      <c r="AG52" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AH52" t="s" s="2">
-        <v>96</v>
-      </c>
-      <c r="AI52" t="s" s="2">
-        <v>85</v>
       </c>
       <c r="AJ52" t="s" s="2">
         <v>108</v>
@@ -8752,10 +8700,10 @@
         <v>85</v>
       </c>
       <c r="AM52" t="s" s="2">
-        <v>342</v>
+        <v>85</v>
       </c>
       <c r="AN52" t="s" s="2">
-        <v>343</v>
+        <v>139</v>
       </c>
       <c r="AO52" t="s" s="2">
         <v>85</v>
@@ -8766,10 +8714,10 @@
     </row>
     <row r="53">
       <c r="A53" t="s" s="2">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="B53" t="s" s="2">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="C53" s="2"/>
       <c r="D53" t="s" s="2">
@@ -8777,7 +8725,7 @@
       </c>
       <c r="E53" s="2"/>
       <c r="F53" t="s" s="2">
-        <v>96</v>
+        <v>83</v>
       </c>
       <c r="G53" t="s" s="2">
         <v>96</v>
@@ -8792,20 +8740,18 @@
         <v>97</v>
       </c>
       <c r="K53" t="s" s="2">
+        <v>110</v>
+      </c>
+      <c r="L53" t="s" s="2">
+        <v>343</v>
+      </c>
+      <c r="M53" t="s" s="2">
+        <v>344</v>
+      </c>
+      <c r="N53" t="s" s="2">
         <v>345</v>
       </c>
-      <c r="L53" t="s" s="2">
-        <v>346</v>
-      </c>
-      <c r="M53" t="s" s="2">
-        <v>347</v>
-      </c>
-      <c r="N53" t="s" s="2">
-        <v>348</v>
-      </c>
-      <c r="O53" t="s" s="2">
-        <v>349</v>
-      </c>
+      <c r="O53" s="2"/>
       <c r="P53" t="s" s="2">
         <v>85</v>
       </c>
@@ -8829,13 +8775,13 @@
         <v>85</v>
       </c>
       <c r="X53" t="s" s="2">
-        <v>85</v>
+        <v>346</v>
       </c>
       <c r="Y53" t="s" s="2">
-        <v>85</v>
+        <v>347</v>
       </c>
       <c r="Z53" t="s" s="2">
-        <v>85</v>
+        <v>348</v>
       </c>
       <c r="AA53" t="s" s="2">
         <v>85</v>
@@ -8853,7 +8799,7 @@
         <v>85</v>
       </c>
       <c r="AF53" t="s" s="2">
-        <v>344</v>
+        <v>349</v>
       </c>
       <c r="AG53" t="s" s="2">
         <v>83</v>
@@ -8868,19 +8814,19 @@
         <v>108</v>
       </c>
       <c r="AK53" t="s" s="2">
-        <v>350</v>
+        <v>85</v>
       </c>
       <c r="AL53" t="s" s="2">
         <v>85</v>
       </c>
       <c r="AM53" t="s" s="2">
-        <v>351</v>
+        <v>85</v>
       </c>
       <c r="AN53" t="s" s="2">
-        <v>352</v>
+        <v>139</v>
       </c>
       <c r="AO53" t="s" s="2">
-        <v>353</v>
+        <v>85</v>
       </c>
       <c r="AP53" t="s" s="2">
         <v>85</v>
@@ -8888,10 +8834,10 @@
     </row>
     <row r="54">
       <c r="A54" t="s" s="2">
-        <v>354</v>
+        <v>350</v>
       </c>
       <c r="B54" t="s" s="2">
-        <v>354</v>
+        <v>350</v>
       </c>
       <c r="C54" s="2"/>
       <c r="D54" t="s" s="2">
@@ -8911,18 +8857,20 @@
         <v>85</v>
       </c>
       <c r="J54" t="s" s="2">
-        <v>85</v>
+        <v>97</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>161</v>
+        <v>245</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>162</v>
+        <v>351</v>
       </c>
       <c r="M54" t="s" s="2">
-        <v>163</v>
-      </c>
-      <c r="N54" s="2"/>
+        <v>352</v>
+      </c>
+      <c r="N54" t="s" s="2">
+        <v>353</v>
+      </c>
       <c r="O54" s="2"/>
       <c r="P54" t="s" s="2">
         <v>85</v>
@@ -8971,7 +8919,7 @@
         <v>85</v>
       </c>
       <c r="AF54" t="s" s="2">
-        <v>164</v>
+        <v>354</v>
       </c>
       <c r="AG54" t="s" s="2">
         <v>83</v>
@@ -8983,7 +8931,7 @@
         <v>85</v>
       </c>
       <c r="AJ54" t="s" s="2">
-        <v>85</v>
+        <v>108</v>
       </c>
       <c r="AK54" t="s" s="2">
         <v>85</v>
@@ -8995,7 +8943,7 @@
         <v>85</v>
       </c>
       <c r="AN54" t="s" s="2">
-        <v>165</v>
+        <v>355</v>
       </c>
       <c r="AO54" t="s" s="2">
         <v>85</v>
@@ -9006,21 +8954,21 @@
     </row>
     <row r="55">
       <c r="A55" t="s" s="2">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="B55" t="s" s="2">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="C55" s="2"/>
       <c r="D55" t="s" s="2">
-        <v>168</v>
+        <v>85</v>
       </c>
       <c r="E55" s="2"/>
       <c r="F55" t="s" s="2">
         <v>83</v>
       </c>
       <c r="G55" t="s" s="2">
-        <v>84</v>
+        <v>96</v>
       </c>
       <c r="H55" t="s" s="2">
         <v>85</v>
@@ -9029,19 +8977,19 @@
         <v>85</v>
       </c>
       <c r="J55" t="s" s="2">
-        <v>85</v>
+        <v>97</v>
       </c>
       <c r="K55" t="s" s="2">
-        <v>141</v>
+        <v>161</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>169</v>
+        <v>357</v>
       </c>
       <c r="M55" t="s" s="2">
-        <v>170</v>
+        <v>358</v>
       </c>
       <c r="N55" t="s" s="2">
-        <v>171</v>
+        <v>359</v>
       </c>
       <c r="O55" s="2"/>
       <c r="P55" t="s" s="2">
@@ -9079,31 +9027,31 @@
         <v>85</v>
       </c>
       <c r="AB55" t="s" s="2">
-        <v>144</v>
+        <v>85</v>
       </c>
       <c r="AC55" t="s" s="2">
-        <v>172</v>
+        <v>85</v>
       </c>
       <c r="AD55" t="s" s="2">
         <v>85</v>
       </c>
       <c r="AE55" t="s" s="2">
-        <v>145</v>
+        <v>85</v>
       </c>
       <c r="AF55" t="s" s="2">
-        <v>173</v>
+        <v>360</v>
       </c>
       <c r="AG55" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AH55" t="s" s="2">
-        <v>84</v>
+        <v>96</v>
       </c>
       <c r="AI55" t="s" s="2">
         <v>85</v>
       </c>
       <c r="AJ55" t="s" s="2">
-        <v>147</v>
+        <v>108</v>
       </c>
       <c r="AK55" t="s" s="2">
         <v>85</v>
@@ -9115,7 +9063,7 @@
         <v>85</v>
       </c>
       <c r="AN55" t="s" s="2">
-        <v>165</v>
+        <v>139</v>
       </c>
       <c r="AO55" t="s" s="2">
         <v>85</v>
@@ -9126,10 +9074,10 @@
     </row>
     <row r="56">
       <c r="A56" t="s" s="2">
-        <v>356</v>
+        <v>361</v>
       </c>
       <c r="B56" t="s" s="2">
-        <v>356</v>
+        <v>361</v>
       </c>
       <c r="C56" s="2"/>
       <c r="D56" t="s" s="2">
@@ -9137,10 +9085,10 @@
       </c>
       <c r="E56" s="2"/>
       <c r="F56" t="s" s="2">
-        <v>96</v>
+        <v>83</v>
       </c>
       <c r="G56" t="s" s="2">
-        <v>96</v>
+        <v>84</v>
       </c>
       <c r="H56" t="s" s="2">
         <v>85</v>
@@ -9152,16 +9100,16 @@
         <v>97</v>
       </c>
       <c r="K56" t="s" s="2">
-        <v>161</v>
+        <v>362</v>
       </c>
       <c r="L56" t="s" s="2">
-        <v>357</v>
+        <v>363</v>
       </c>
       <c r="M56" t="s" s="2">
-        <v>358</v>
+        <v>364</v>
       </c>
       <c r="N56" t="s" s="2">
-        <v>359</v>
+        <v>365</v>
       </c>
       <c r="O56" s="2"/>
       <c r="P56" t="s" s="2">
@@ -9211,16 +9159,16 @@
         <v>85</v>
       </c>
       <c r="AF56" t="s" s="2">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="AG56" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AH56" t="s" s="2">
-        <v>96</v>
+        <v>84</v>
       </c>
       <c r="AI56" t="s" s="2">
-        <v>361</v>
+        <v>85</v>
       </c>
       <c r="AJ56" t="s" s="2">
         <v>108</v>
@@ -9232,13 +9180,13 @@
         <v>85</v>
       </c>
       <c r="AM56" t="s" s="2">
-        <v>85</v>
+        <v>320</v>
       </c>
       <c r="AN56" t="s" s="2">
-        <v>139</v>
+        <v>366</v>
       </c>
       <c r="AO56" t="s" s="2">
-        <v>85</v>
+        <v>333</v>
       </c>
       <c r="AP56" t="s" s="2">
         <v>85</v>
@@ -9246,14 +9194,14 @@
     </row>
     <row r="57">
       <c r="A57" t="s" s="2">
-        <v>362</v>
+        <v>367</v>
       </c>
       <c r="B57" t="s" s="2">
-        <v>362</v>
+        <v>367</v>
       </c>
       <c r="C57" s="2"/>
       <c r="D57" t="s" s="2">
-        <v>85</v>
+        <v>368</v>
       </c>
       <c r="E57" s="2"/>
       <c r="F57" t="s" s="2">
@@ -9272,18 +9220,20 @@
         <v>97</v>
       </c>
       <c r="K57" t="s" s="2">
-        <v>110</v>
+        <v>369</v>
       </c>
       <c r="L57" t="s" s="2">
-        <v>363</v>
+        <v>370</v>
       </c>
       <c r="M57" t="s" s="2">
-        <v>364</v>
+        <v>371</v>
       </c>
       <c r="N57" t="s" s="2">
-        <v>365</v>
-      </c>
-      <c r="O57" s="2"/>
+        <v>372</v>
+      </c>
+      <c r="O57" t="s" s="2">
+        <v>373</v>
+      </c>
       <c r="P57" t="s" s="2">
         <v>85</v>
       </c>
@@ -9307,31 +9257,31 @@
         <v>85</v>
       </c>
       <c r="X57" t="s" s="2">
-        <v>366</v>
+        <v>85</v>
       </c>
       <c r="Y57" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="Z57" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="AA57" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="AB57" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="AC57" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="AD57" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="AE57" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="AF57" t="s" s="2">
         <v>367</v>
-      </c>
-      <c r="Z57" t="s" s="2">
-        <v>368</v>
-      </c>
-      <c r="AA57" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="AB57" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="AC57" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="AD57" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="AE57" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="AF57" t="s" s="2">
-        <v>369</v>
       </c>
       <c r="AG57" t="s" s="2">
         <v>83</v>
@@ -9346,19 +9296,19 @@
         <v>108</v>
       </c>
       <c r="AK57" t="s" s="2">
-        <v>85</v>
+        <v>374</v>
       </c>
       <c r="AL57" t="s" s="2">
         <v>85</v>
       </c>
       <c r="AM57" t="s" s="2">
-        <v>85</v>
+        <v>375</v>
       </c>
       <c r="AN57" t="s" s="2">
-        <v>139</v>
+        <v>376</v>
       </c>
       <c r="AO57" t="s" s="2">
-        <v>85</v>
+        <v>377</v>
       </c>
       <c r="AP57" t="s" s="2">
         <v>85</v>
@@ -9366,18 +9316,18 @@
     </row>
     <row r="58">
       <c r="A58" t="s" s="2">
-        <v>370</v>
+        <v>378</v>
       </c>
       <c r="B58" t="s" s="2">
-        <v>370</v>
+        <v>378</v>
       </c>
       <c r="C58" s="2"/>
       <c r="D58" t="s" s="2">
-        <v>85</v>
+        <v>379</v>
       </c>
       <c r="E58" s="2"/>
       <c r="F58" t="s" s="2">
-        <v>83</v>
+        <v>96</v>
       </c>
       <c r="G58" t="s" s="2">
         <v>96</v>
@@ -9392,18 +9342,20 @@
         <v>97</v>
       </c>
       <c r="K58" t="s" s="2">
-        <v>245</v>
+        <v>380</v>
       </c>
       <c r="L58" t="s" s="2">
-        <v>371</v>
+        <v>381</v>
       </c>
       <c r="M58" t="s" s="2">
-        <v>372</v>
+        <v>382</v>
       </c>
       <c r="N58" t="s" s="2">
-        <v>373</v>
-      </c>
-      <c r="O58" s="2"/>
+        <v>383</v>
+      </c>
+      <c r="O58" t="s" s="2">
+        <v>384</v>
+      </c>
       <c r="P58" t="s" s="2">
         <v>85</v>
       </c>
@@ -9451,7 +9403,7 @@
         <v>85</v>
       </c>
       <c r="AF58" t="s" s="2">
-        <v>374</v>
+        <v>378</v>
       </c>
       <c r="AG58" t="s" s="2">
         <v>83</v>
@@ -9466,19 +9418,19 @@
         <v>108</v>
       </c>
       <c r="AK58" t="s" s="2">
-        <v>85</v>
+        <v>385</v>
       </c>
       <c r="AL58" t="s" s="2">
         <v>85</v>
       </c>
       <c r="AM58" t="s" s="2">
-        <v>85</v>
+        <v>386</v>
       </c>
       <c r="AN58" t="s" s="2">
-        <v>375</v>
+        <v>387</v>
       </c>
       <c r="AO58" t="s" s="2">
-        <v>85</v>
+        <v>388</v>
       </c>
       <c r="AP58" t="s" s="2">
         <v>85</v>
@@ -9486,10 +9438,10 @@
     </row>
     <row r="59">
       <c r="A59" t="s" s="2">
-        <v>376</v>
+        <v>389</v>
       </c>
       <c r="B59" t="s" s="2">
-        <v>376</v>
+        <v>389</v>
       </c>
       <c r="C59" s="2"/>
       <c r="D59" t="s" s="2">
@@ -9509,20 +9461,18 @@
         <v>85</v>
       </c>
       <c r="J59" t="s" s="2">
-        <v>97</v>
+        <v>85</v>
       </c>
       <c r="K59" t="s" s="2">
         <v>161</v>
       </c>
       <c r="L59" t="s" s="2">
-        <v>377</v>
+        <v>162</v>
       </c>
       <c r="M59" t="s" s="2">
-        <v>378</v>
-      </c>
-      <c r="N59" t="s" s="2">
-        <v>379</v>
-      </c>
+        <v>163</v>
+      </c>
+      <c r="N59" s="2"/>
       <c r="O59" s="2"/>
       <c r="P59" t="s" s="2">
         <v>85</v>
@@ -9571,7 +9521,7 @@
         <v>85</v>
       </c>
       <c r="AF59" t="s" s="2">
-        <v>380</v>
+        <v>164</v>
       </c>
       <c r="AG59" t="s" s="2">
         <v>83</v>
@@ -9583,7 +9533,7 @@
         <v>85</v>
       </c>
       <c r="AJ59" t="s" s="2">
-        <v>108</v>
+        <v>85</v>
       </c>
       <c r="AK59" t="s" s="2">
         <v>85</v>
@@ -9595,7 +9545,7 @@
         <v>85</v>
       </c>
       <c r="AN59" t="s" s="2">
-        <v>139</v>
+        <v>165</v>
       </c>
       <c r="AO59" t="s" s="2">
         <v>85</v>
@@ -9606,14 +9556,14 @@
     </row>
     <row r="60">
       <c r="A60" t="s" s="2">
-        <v>381</v>
+        <v>390</v>
       </c>
       <c r="B60" t="s" s="2">
-        <v>381</v>
+        <v>390</v>
       </c>
       <c r="C60" s="2"/>
       <c r="D60" t="s" s="2">
-        <v>85</v>
+        <v>168</v>
       </c>
       <c r="E60" s="2"/>
       <c r="F60" t="s" s="2">
@@ -9629,19 +9579,19 @@
         <v>85</v>
       </c>
       <c r="J60" t="s" s="2">
-        <v>97</v>
+        <v>85</v>
       </c>
       <c r="K60" t="s" s="2">
-        <v>382</v>
+        <v>141</v>
       </c>
       <c r="L60" t="s" s="2">
-        <v>383</v>
+        <v>169</v>
       </c>
       <c r="M60" t="s" s="2">
-        <v>384</v>
+        <v>170</v>
       </c>
       <c r="N60" t="s" s="2">
-        <v>385</v>
+        <v>171</v>
       </c>
       <c r="O60" s="2"/>
       <c r="P60" t="s" s="2">
@@ -9679,19 +9629,19 @@
         <v>85</v>
       </c>
       <c r="AB60" t="s" s="2">
-        <v>85</v>
+        <v>144</v>
       </c>
       <c r="AC60" t="s" s="2">
-        <v>85</v>
+        <v>172</v>
       </c>
       <c r="AD60" t="s" s="2">
         <v>85</v>
       </c>
       <c r="AE60" t="s" s="2">
-        <v>85</v>
+        <v>145</v>
       </c>
       <c r="AF60" t="s" s="2">
-        <v>381</v>
+        <v>173</v>
       </c>
       <c r="AG60" t="s" s="2">
         <v>83</v>
@@ -9703,7 +9653,7 @@
         <v>85</v>
       </c>
       <c r="AJ60" t="s" s="2">
-        <v>108</v>
+        <v>147</v>
       </c>
       <c r="AK60" t="s" s="2">
         <v>85</v>
@@ -9712,13 +9662,13 @@
         <v>85</v>
       </c>
       <c r="AM60" t="s" s="2">
-        <v>320</v>
+        <v>85</v>
       </c>
       <c r="AN60" t="s" s="2">
-        <v>386</v>
+        <v>165</v>
       </c>
       <c r="AO60" t="s" s="2">
-        <v>353</v>
+        <v>85</v>
       </c>
       <c r="AP60" t="s" s="2">
         <v>85</v>
@@ -9726,14 +9676,16 @@
     </row>
     <row r="61">
       <c r="A61" t="s" s="2">
-        <v>387</v>
+        <v>391</v>
       </c>
       <c r="B61" t="s" s="2">
-        <v>387</v>
-      </c>
-      <c r="C61" s="2"/>
+        <v>390</v>
+      </c>
+      <c r="C61" t="s" s="2">
+        <v>392</v>
+      </c>
       <c r="D61" t="s" s="2">
-        <v>388</v>
+        <v>85</v>
       </c>
       <c r="E61" s="2"/>
       <c r="F61" t="s" s="2">
@@ -9749,23 +9701,19 @@
         <v>85</v>
       </c>
       <c r="J61" t="s" s="2">
-        <v>97</v>
+        <v>85</v>
       </c>
       <c r="K61" t="s" s="2">
-        <v>389</v>
+        <v>393</v>
       </c>
       <c r="L61" t="s" s="2">
-        <v>390</v>
+        <v>394</v>
       </c>
       <c r="M61" t="s" s="2">
-        <v>391</v>
-      </c>
-      <c r="N61" t="s" s="2">
-        <v>392</v>
-      </c>
-      <c r="O61" t="s" s="2">
-        <v>393</v>
-      </c>
+        <v>395</v>
+      </c>
+      <c r="N61" s="2"/>
+      <c r="O61" s="2"/>
       <c r="P61" t="s" s="2">
         <v>85</v>
       </c>
@@ -9813,34 +9761,34 @@
         <v>85</v>
       </c>
       <c r="AF61" t="s" s="2">
-        <v>387</v>
+        <v>173</v>
       </c>
       <c r="AG61" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AH61" t="s" s="2">
-        <v>96</v>
+        <v>84</v>
       </c>
       <c r="AI61" t="s" s="2">
         <v>85</v>
       </c>
       <c r="AJ61" t="s" s="2">
-        <v>108</v>
+        <v>147</v>
       </c>
       <c r="AK61" t="s" s="2">
-        <v>394</v>
+        <v>85</v>
       </c>
       <c r="AL61" t="s" s="2">
         <v>85</v>
       </c>
       <c r="AM61" t="s" s="2">
-        <v>395</v>
+        <v>85</v>
       </c>
       <c r="AN61" t="s" s="2">
         <v>396</v>
       </c>
       <c r="AO61" t="s" s="2">
-        <v>397</v>
+        <v>85</v>
       </c>
       <c r="AP61" t="s" s="2">
         <v>85</v>
@@ -9848,18 +9796,18 @@
     </row>
     <row r="62">
       <c r="A62" t="s" s="2">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="B62" t="s" s="2">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="C62" s="2"/>
       <c r="D62" t="s" s="2">
-        <v>399</v>
+        <v>85</v>
       </c>
       <c r="E62" s="2"/>
       <c r="F62" t="s" s="2">
-        <v>96</v>
+        <v>83</v>
       </c>
       <c r="G62" t="s" s="2">
         <v>96</v>
@@ -9874,20 +9822,18 @@
         <v>97</v>
       </c>
       <c r="K62" t="s" s="2">
+        <v>398</v>
+      </c>
+      <c r="L62" t="s" s="2">
+        <v>399</v>
+      </c>
+      <c r="M62" t="s" s="2">
         <v>400</v>
       </c>
-      <c r="L62" t="s" s="2">
+      <c r="N62" t="s" s="2">
         <v>401</v>
       </c>
-      <c r="M62" t="s" s="2">
-        <v>402</v>
-      </c>
-      <c r="N62" t="s" s="2">
-        <v>403</v>
-      </c>
-      <c r="O62" t="s" s="2">
-        <v>404</v>
-      </c>
+      <c r="O62" s="2"/>
       <c r="P62" t="s" s="2">
         <v>85</v>
       </c>
@@ -9935,7 +9881,7 @@
         <v>85</v>
       </c>
       <c r="AF62" t="s" s="2">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="AG62" t="s" s="2">
         <v>83</v>
@@ -9950,19 +9896,19 @@
         <v>108</v>
       </c>
       <c r="AK62" t="s" s="2">
-        <v>405</v>
+        <v>85</v>
       </c>
       <c r="AL62" t="s" s="2">
         <v>85</v>
       </c>
       <c r="AM62" t="s" s="2">
-        <v>406</v>
+        <v>402</v>
       </c>
       <c r="AN62" t="s" s="2">
-        <v>407</v>
+        <v>403</v>
       </c>
       <c r="AO62" t="s" s="2">
-        <v>408</v>
+        <v>404</v>
       </c>
       <c r="AP62" t="s" s="2">
         <v>85</v>
@@ -9970,10 +9916,10 @@
     </row>
     <row r="63">
       <c r="A63" t="s" s="2">
-        <v>409</v>
+        <v>405</v>
       </c>
       <c r="B63" t="s" s="2">
-        <v>409</v>
+        <v>405</v>
       </c>
       <c r="C63" s="2"/>
       <c r="D63" t="s" s="2">
@@ -9981,10 +9927,10 @@
       </c>
       <c r="E63" s="2"/>
       <c r="F63" t="s" s="2">
-        <v>83</v>
+        <v>96</v>
       </c>
       <c r="G63" t="s" s="2">
-        <v>96</v>
+        <v>84</v>
       </c>
       <c r="H63" t="s" s="2">
         <v>85</v>
@@ -9993,19 +9939,21 @@
         <v>85</v>
       </c>
       <c r="J63" t="s" s="2">
-        <v>85</v>
+        <v>97</v>
       </c>
       <c r="K63" t="s" s="2">
-        <v>161</v>
+        <v>406</v>
       </c>
       <c r="L63" t="s" s="2">
-        <v>162</v>
+        <v>407</v>
       </c>
       <c r="M63" t="s" s="2">
-        <v>163</v>
+        <v>408</v>
       </c>
       <c r="N63" s="2"/>
-      <c r="O63" s="2"/>
+      <c r="O63" t="s" s="2">
+        <v>409</v>
+      </c>
       <c r="P63" t="s" s="2">
         <v>85</v>
       </c>
@@ -10053,34 +10001,34 @@
         <v>85</v>
       </c>
       <c r="AF63" t="s" s="2">
-        <v>164</v>
+        <v>405</v>
       </c>
       <c r="AG63" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AH63" t="s" s="2">
-        <v>96</v>
+        <v>84</v>
       </c>
       <c r="AI63" t="s" s="2">
         <v>85</v>
       </c>
       <c r="AJ63" t="s" s="2">
-        <v>85</v>
+        <v>108</v>
       </c>
       <c r="AK63" t="s" s="2">
-        <v>85</v>
+        <v>410</v>
       </c>
       <c r="AL63" t="s" s="2">
         <v>85</v>
       </c>
       <c r="AM63" t="s" s="2">
-        <v>85</v>
+        <v>411</v>
       </c>
       <c r="AN63" t="s" s="2">
-        <v>165</v>
+        <v>412</v>
       </c>
       <c r="AO63" t="s" s="2">
-        <v>85</v>
+        <v>413</v>
       </c>
       <c r="AP63" t="s" s="2">
         <v>85</v>
@@ -10088,21 +10036,21 @@
     </row>
     <row r="64">
       <c r="A64" t="s" s="2">
-        <v>410</v>
+        <v>414</v>
       </c>
       <c r="B64" t="s" s="2">
-        <v>410</v>
+        <v>414</v>
       </c>
       <c r="C64" s="2"/>
       <c r="D64" t="s" s="2">
-        <v>168</v>
+        <v>85</v>
       </c>
       <c r="E64" s="2"/>
       <c r="F64" t="s" s="2">
         <v>83</v>
       </c>
       <c r="G64" t="s" s="2">
-        <v>84</v>
+        <v>96</v>
       </c>
       <c r="H64" t="s" s="2">
         <v>85</v>
@@ -10114,17 +10062,15 @@
         <v>85</v>
       </c>
       <c r="K64" t="s" s="2">
-        <v>141</v>
+        <v>161</v>
       </c>
       <c r="L64" t="s" s="2">
-        <v>169</v>
+        <v>162</v>
       </c>
       <c r="M64" t="s" s="2">
-        <v>170</v>
-      </c>
-      <c r="N64" t="s" s="2">
-        <v>171</v>
-      </c>
+        <v>163</v>
+      </c>
+      <c r="N64" s="2"/>
       <c r="O64" s="2"/>
       <c r="P64" t="s" s="2">
         <v>85</v>
@@ -10161,31 +10107,31 @@
         <v>85</v>
       </c>
       <c r="AB64" t="s" s="2">
-        <v>144</v>
+        <v>85</v>
       </c>
       <c r="AC64" t="s" s="2">
-        <v>172</v>
+        <v>85</v>
       </c>
       <c r="AD64" t="s" s="2">
         <v>85</v>
       </c>
       <c r="AE64" t="s" s="2">
-        <v>145</v>
+        <v>85</v>
       </c>
       <c r="AF64" t="s" s="2">
-        <v>173</v>
+        <v>164</v>
       </c>
       <c r="AG64" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AH64" t="s" s="2">
-        <v>84</v>
+        <v>96</v>
       </c>
       <c r="AI64" t="s" s="2">
         <v>85</v>
       </c>
       <c r="AJ64" t="s" s="2">
-        <v>147</v>
+        <v>85</v>
       </c>
       <c r="AK64" t="s" s="2">
         <v>85</v>
@@ -10208,23 +10154,21 @@
     </row>
     <row r="65">
       <c r="A65" t="s" s="2">
-        <v>411</v>
+        <v>415</v>
       </c>
       <c r="B65" t="s" s="2">
-        <v>410</v>
-      </c>
-      <c r="C65" t="s" s="2">
-        <v>412</v>
-      </c>
+        <v>415</v>
+      </c>
+      <c r="C65" s="2"/>
       <c r="D65" t="s" s="2">
-        <v>85</v>
+        <v>168</v>
       </c>
       <c r="E65" s="2"/>
       <c r="F65" t="s" s="2">
         <v>83</v>
       </c>
       <c r="G65" t="s" s="2">
-        <v>96</v>
+        <v>84</v>
       </c>
       <c r="H65" t="s" s="2">
         <v>85</v>
@@ -10236,15 +10180,17 @@
         <v>85</v>
       </c>
       <c r="K65" t="s" s="2">
-        <v>413</v>
+        <v>141</v>
       </c>
       <c r="L65" t="s" s="2">
-        <v>414</v>
+        <v>169</v>
       </c>
       <c r="M65" t="s" s="2">
-        <v>415</v>
-      </c>
-      <c r="N65" s="2"/>
+        <v>170</v>
+      </c>
+      <c r="N65" t="s" s="2">
+        <v>171</v>
+      </c>
       <c r="O65" s="2"/>
       <c r="P65" t="s" s="2">
         <v>85</v>
@@ -10281,16 +10227,16 @@
         <v>85</v>
       </c>
       <c r="AB65" t="s" s="2">
-        <v>85</v>
+        <v>144</v>
       </c>
       <c r="AC65" t="s" s="2">
-        <v>85</v>
+        <v>172</v>
       </c>
       <c r="AD65" t="s" s="2">
         <v>85</v>
       </c>
       <c r="AE65" t="s" s="2">
-        <v>85</v>
+        <v>145</v>
       </c>
       <c r="AF65" t="s" s="2">
         <v>173</v>
@@ -10317,7 +10263,7 @@
         <v>85</v>
       </c>
       <c r="AN65" t="s" s="2">
-        <v>416</v>
+        <v>165</v>
       </c>
       <c r="AO65" t="s" s="2">
         <v>85</v>
@@ -10328,12 +10274,14 @@
     </row>
     <row r="66">
       <c r="A66" t="s" s="2">
+        <v>416</v>
+      </c>
+      <c r="B66" t="s" s="2">
+        <v>415</v>
+      </c>
+      <c r="C66" t="s" s="2">
         <v>417</v>
       </c>
-      <c r="B66" t="s" s="2">
-        <v>417</v>
-      </c>
-      <c r="C66" s="2"/>
       <c r="D66" t="s" s="2">
         <v>85</v>
       </c>
@@ -10342,7 +10290,7 @@
         <v>83</v>
       </c>
       <c r="G66" t="s" s="2">
-        <v>96</v>
+        <v>84</v>
       </c>
       <c r="H66" t="s" s="2">
         <v>85</v>
@@ -10351,7 +10299,7 @@
         <v>85</v>
       </c>
       <c r="J66" t="s" s="2">
-        <v>97</v>
+        <v>85</v>
       </c>
       <c r="K66" t="s" s="2">
         <v>418</v>
@@ -10362,9 +10310,7 @@
       <c r="M66" t="s" s="2">
         <v>420</v>
       </c>
-      <c r="N66" t="s" s="2">
-        <v>421</v>
-      </c>
+      <c r="N66" s="2"/>
       <c r="O66" s="2"/>
       <c r="P66" t="s" s="2">
         <v>85</v>
@@ -10413,34 +10359,34 @@
         <v>85</v>
       </c>
       <c r="AF66" t="s" s="2">
-        <v>417</v>
+        <v>173</v>
       </c>
       <c r="AG66" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AH66" t="s" s="2">
-        <v>96</v>
+        <v>84</v>
       </c>
       <c r="AI66" t="s" s="2">
         <v>85</v>
       </c>
       <c r="AJ66" t="s" s="2">
-        <v>108</v>
+        <v>147</v>
       </c>
       <c r="AK66" t="s" s="2">
-        <v>85</v>
+        <v>421</v>
       </c>
       <c r="AL66" t="s" s="2">
         <v>85</v>
       </c>
       <c r="AM66" t="s" s="2">
-        <v>422</v>
+        <v>85</v>
       </c>
       <c r="AN66" t="s" s="2">
-        <v>423</v>
+        <v>85</v>
       </c>
       <c r="AO66" t="s" s="2">
-        <v>424</v>
+        <v>85</v>
       </c>
       <c r="AP66" t="s" s="2">
         <v>85</v>
@@ -10448,10 +10394,10 @@
     </row>
     <row r="67">
       <c r="A67" t="s" s="2">
-        <v>425</v>
+        <v>422</v>
       </c>
       <c r="B67" t="s" s="2">
-        <v>425</v>
+        <v>422</v>
       </c>
       <c r="C67" s="2"/>
       <c r="D67" t="s" s="2">
@@ -10459,10 +10405,10 @@
       </c>
       <c r="E67" s="2"/>
       <c r="F67" t="s" s="2">
-        <v>96</v>
+        <v>83</v>
       </c>
       <c r="G67" t="s" s="2">
-        <v>84</v>
+        <v>96</v>
       </c>
       <c r="H67" t="s" s="2">
         <v>85</v>
@@ -10474,18 +10420,18 @@
         <v>97</v>
       </c>
       <c r="K67" t="s" s="2">
-        <v>426</v>
+        <v>161</v>
       </c>
       <c r="L67" t="s" s="2">
-        <v>427</v>
+        <v>337</v>
       </c>
       <c r="M67" t="s" s="2">
-        <v>428</v>
-      </c>
-      <c r="N67" s="2"/>
-      <c r="O67" t="s" s="2">
-        <v>429</v>
-      </c>
+        <v>338</v>
+      </c>
+      <c r="N67" t="s" s="2">
+        <v>339</v>
+      </c>
+      <c r="O67" s="2"/>
       <c r="P67" t="s" s="2">
         <v>85</v>
       </c>
@@ -10533,34 +10479,34 @@
         <v>85</v>
       </c>
       <c r="AF67" t="s" s="2">
-        <v>425</v>
+        <v>340</v>
       </c>
       <c r="AG67" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AH67" t="s" s="2">
-        <v>84</v>
+        <v>96</v>
       </c>
       <c r="AI67" t="s" s="2">
-        <v>85</v>
+        <v>341</v>
       </c>
       <c r="AJ67" t="s" s="2">
         <v>108</v>
       </c>
       <c r="AK67" t="s" s="2">
-        <v>430</v>
+        <v>85</v>
       </c>
       <c r="AL67" t="s" s="2">
         <v>85</v>
       </c>
       <c r="AM67" t="s" s="2">
-        <v>431</v>
+        <v>85</v>
       </c>
       <c r="AN67" t="s" s="2">
-        <v>432</v>
+        <v>139</v>
       </c>
       <c r="AO67" t="s" s="2">
-        <v>433</v>
+        <v>85</v>
       </c>
       <c r="AP67" t="s" s="2">
         <v>85</v>
@@ -10568,10 +10514,10 @@
     </row>
     <row r="68">
       <c r="A68" t="s" s="2">
-        <v>434</v>
+        <v>423</v>
       </c>
       <c r="B68" t="s" s="2">
-        <v>434</v>
+        <v>423</v>
       </c>
       <c r="C68" s="2"/>
       <c r="D68" t="s" s="2">
@@ -10591,18 +10537,20 @@
         <v>85</v>
       </c>
       <c r="J68" t="s" s="2">
-        <v>85</v>
+        <v>97</v>
       </c>
       <c r="K68" t="s" s="2">
-        <v>161</v>
+        <v>110</v>
       </c>
       <c r="L68" t="s" s="2">
-        <v>162</v>
+        <v>343</v>
       </c>
       <c r="M68" t="s" s="2">
-        <v>163</v>
-      </c>
-      <c r="N68" s="2"/>
+        <v>344</v>
+      </c>
+      <c r="N68" t="s" s="2">
+        <v>345</v>
+      </c>
       <c r="O68" s="2"/>
       <c r="P68" t="s" s="2">
         <v>85</v>
@@ -10627,13 +10575,13 @@
         <v>85</v>
       </c>
       <c r="X68" t="s" s="2">
-        <v>85</v>
+        <v>346</v>
       </c>
       <c r="Y68" t="s" s="2">
-        <v>85</v>
+        <v>347</v>
       </c>
       <c r="Z68" t="s" s="2">
-        <v>85</v>
+        <v>348</v>
       </c>
       <c r="AA68" t="s" s="2">
         <v>85</v>
@@ -10651,7 +10599,7 @@
         <v>85</v>
       </c>
       <c r="AF68" t="s" s="2">
-        <v>164</v>
+        <v>349</v>
       </c>
       <c r="AG68" t="s" s="2">
         <v>83</v>
@@ -10663,7 +10611,7 @@
         <v>85</v>
       </c>
       <c r="AJ68" t="s" s="2">
-        <v>85</v>
+        <v>108</v>
       </c>
       <c r="AK68" t="s" s="2">
         <v>85</v>
@@ -10675,7 +10623,7 @@
         <v>85</v>
       </c>
       <c r="AN68" t="s" s="2">
-        <v>165</v>
+        <v>139</v>
       </c>
       <c r="AO68" t="s" s="2">
         <v>85</v>
@@ -10686,21 +10634,21 @@
     </row>
     <row r="69">
       <c r="A69" t="s" s="2">
-        <v>435</v>
+        <v>424</v>
       </c>
       <c r="B69" t="s" s="2">
-        <v>435</v>
+        <v>424</v>
       </c>
       <c r="C69" s="2"/>
       <c r="D69" t="s" s="2">
-        <v>168</v>
+        <v>85</v>
       </c>
       <c r="E69" s="2"/>
       <c r="F69" t="s" s="2">
         <v>83</v>
       </c>
       <c r="G69" t="s" s="2">
-        <v>84</v>
+        <v>96</v>
       </c>
       <c r="H69" t="s" s="2">
         <v>85</v>
@@ -10709,19 +10657,19 @@
         <v>85</v>
       </c>
       <c r="J69" t="s" s="2">
-        <v>85</v>
+        <v>97</v>
       </c>
       <c r="K69" t="s" s="2">
-        <v>141</v>
+        <v>245</v>
       </c>
       <c r="L69" t="s" s="2">
-        <v>169</v>
+        <v>351</v>
       </c>
       <c r="M69" t="s" s="2">
-        <v>170</v>
+        <v>352</v>
       </c>
       <c r="N69" t="s" s="2">
-        <v>171</v>
+        <v>353</v>
       </c>
       <c r="O69" s="2"/>
       <c r="P69" t="s" s="2">
@@ -10759,31 +10707,31 @@
         <v>85</v>
       </c>
       <c r="AB69" t="s" s="2">
-        <v>144</v>
+        <v>85</v>
       </c>
       <c r="AC69" t="s" s="2">
-        <v>172</v>
+        <v>85</v>
       </c>
       <c r="AD69" t="s" s="2">
         <v>85</v>
       </c>
       <c r="AE69" t="s" s="2">
-        <v>145</v>
+        <v>85</v>
       </c>
       <c r="AF69" t="s" s="2">
-        <v>173</v>
+        <v>354</v>
       </c>
       <c r="AG69" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AH69" t="s" s="2">
-        <v>84</v>
+        <v>96</v>
       </c>
       <c r="AI69" t="s" s="2">
         <v>85</v>
       </c>
       <c r="AJ69" t="s" s="2">
-        <v>147</v>
+        <v>108</v>
       </c>
       <c r="AK69" t="s" s="2">
         <v>85</v>
@@ -10795,7 +10743,7 @@
         <v>85</v>
       </c>
       <c r="AN69" t="s" s="2">
-        <v>165</v>
+        <v>355</v>
       </c>
       <c r="AO69" t="s" s="2">
         <v>85</v>
@@ -10806,14 +10754,12 @@
     </row>
     <row r="70">
       <c r="A70" t="s" s="2">
-        <v>436</v>
+        <v>425</v>
       </c>
       <c r="B70" t="s" s="2">
-        <v>435</v>
-      </c>
-      <c r="C70" t="s" s="2">
-        <v>437</v>
-      </c>
+        <v>425</v>
+      </c>
+      <c r="C70" s="2"/>
       <c r="D70" t="s" s="2">
         <v>85</v>
       </c>
@@ -10822,7 +10768,7 @@
         <v>83</v>
       </c>
       <c r="G70" t="s" s="2">
-        <v>84</v>
+        <v>96</v>
       </c>
       <c r="H70" t="s" s="2">
         <v>85</v>
@@ -10831,18 +10777,20 @@
         <v>85</v>
       </c>
       <c r="J70" t="s" s="2">
-        <v>85</v>
+        <v>97</v>
       </c>
       <c r="K70" t="s" s="2">
-        <v>438</v>
+        <v>161</v>
       </c>
       <c r="L70" t="s" s="2">
-        <v>439</v>
+        <v>357</v>
       </c>
       <c r="M70" t="s" s="2">
-        <v>440</v>
-      </c>
-      <c r="N70" s="2"/>
+        <v>358</v>
+      </c>
+      <c r="N70" t="s" s="2">
+        <v>359</v>
+      </c>
       <c r="O70" s="2"/>
       <c r="P70" t="s" s="2">
         <v>85</v>
@@ -10891,22 +10839,22 @@
         <v>85</v>
       </c>
       <c r="AF70" t="s" s="2">
-        <v>173</v>
+        <v>360</v>
       </c>
       <c r="AG70" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AH70" t="s" s="2">
-        <v>84</v>
+        <v>96</v>
       </c>
       <c r="AI70" t="s" s="2">
         <v>85</v>
       </c>
       <c r="AJ70" t="s" s="2">
-        <v>147</v>
+        <v>108</v>
       </c>
       <c r="AK70" t="s" s="2">
-        <v>441</v>
+        <v>85</v>
       </c>
       <c r="AL70" t="s" s="2">
         <v>85</v>
@@ -10915,7 +10863,7 @@
         <v>85</v>
       </c>
       <c r="AN70" t="s" s="2">
-        <v>85</v>
+        <v>139</v>
       </c>
       <c r="AO70" t="s" s="2">
         <v>85</v>
@@ -10926,10 +10874,10 @@
     </row>
     <row r="71">
       <c r="A71" t="s" s="2">
-        <v>442</v>
+        <v>426</v>
       </c>
       <c r="B71" t="s" s="2">
-        <v>442</v>
+        <v>426</v>
       </c>
       <c r="C71" s="2"/>
       <c r="D71" t="s" s="2">
@@ -10952,18 +10900,20 @@
         <v>97</v>
       </c>
       <c r="K71" t="s" s="2">
-        <v>161</v>
+        <v>427</v>
       </c>
       <c r="L71" t="s" s="2">
-        <v>357</v>
+        <v>428</v>
       </c>
       <c r="M71" t="s" s="2">
-        <v>358</v>
+        <v>429</v>
       </c>
       <c r="N71" t="s" s="2">
-        <v>359</v>
-      </c>
-      <c r="O71" s="2"/>
+        <v>430</v>
+      </c>
+      <c r="O71" t="s" s="2">
+        <v>431</v>
+      </c>
       <c r="P71" t="s" s="2">
         <v>85</v>
       </c>
@@ -10999,19 +10949,17 @@
         <v>85</v>
       </c>
       <c r="AB71" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="AC71" t="s" s="2">
-        <v>85</v>
-      </c>
+        <v>432</v>
+      </c>
+      <c r="AC71" s="2"/>
       <c r="AD71" t="s" s="2">
         <v>85</v>
       </c>
       <c r="AE71" t="s" s="2">
-        <v>85</v>
+        <v>145</v>
       </c>
       <c r="AF71" t="s" s="2">
-        <v>360</v>
+        <v>426</v>
       </c>
       <c r="AG71" t="s" s="2">
         <v>83</v>
@@ -11020,7 +10968,7 @@
         <v>96</v>
       </c>
       <c r="AI71" t="s" s="2">
-        <v>361</v>
+        <v>433</v>
       </c>
       <c r="AJ71" t="s" s="2">
         <v>108</v>
@@ -11029,29 +10977,31 @@
         <v>85</v>
       </c>
       <c r="AL71" t="s" s="2">
-        <v>85</v>
+        <v>434</v>
       </c>
       <c r="AM71" t="s" s="2">
-        <v>85</v>
+        <v>435</v>
       </c>
       <c r="AN71" t="s" s="2">
-        <v>139</v>
+        <v>436</v>
       </c>
       <c r="AO71" t="s" s="2">
         <v>85</v>
       </c>
       <c r="AP71" t="s" s="2">
-        <v>85</v>
+        <v>437</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="s" s="2">
-        <v>443</v>
+        <v>438</v>
       </c>
       <c r="B72" t="s" s="2">
-        <v>443</v>
-      </c>
-      <c r="C72" s="2"/>
+        <v>426</v>
+      </c>
+      <c r="C72" t="s" s="2">
+        <v>439</v>
+      </c>
       <c r="D72" t="s" s="2">
         <v>85</v>
       </c>
@@ -11072,18 +11022,20 @@
         <v>97</v>
       </c>
       <c r="K72" t="s" s="2">
-        <v>110</v>
+        <v>161</v>
       </c>
       <c r="L72" t="s" s="2">
-        <v>363</v>
+        <v>428</v>
       </c>
       <c r="M72" t="s" s="2">
-        <v>364</v>
+        <v>429</v>
       </c>
       <c r="N72" t="s" s="2">
-        <v>365</v>
-      </c>
-      <c r="O72" s="2"/>
+        <v>430</v>
+      </c>
+      <c r="O72" t="s" s="2">
+        <v>431</v>
+      </c>
       <c r="P72" t="s" s="2">
         <v>85</v>
       </c>
@@ -11107,13 +11059,13 @@
         <v>85</v>
       </c>
       <c r="X72" t="s" s="2">
-        <v>366</v>
+        <v>85</v>
       </c>
       <c r="Y72" t="s" s="2">
-        <v>367</v>
+        <v>85</v>
       </c>
       <c r="Z72" t="s" s="2">
-        <v>368</v>
+        <v>85</v>
       </c>
       <c r="AA72" t="s" s="2">
         <v>85</v>
@@ -11131,7 +11083,7 @@
         <v>85</v>
       </c>
       <c r="AF72" t="s" s="2">
-        <v>369</v>
+        <v>426</v>
       </c>
       <c r="AG72" t="s" s="2">
         <v>83</v>
@@ -11140,7 +11092,7 @@
         <v>96</v>
       </c>
       <c r="AI72" t="s" s="2">
-        <v>85</v>
+        <v>433</v>
       </c>
       <c r="AJ72" t="s" s="2">
         <v>108</v>
@@ -11149,29 +11101,31 @@
         <v>85</v>
       </c>
       <c r="AL72" t="s" s="2">
-        <v>85</v>
+        <v>434</v>
       </c>
       <c r="AM72" t="s" s="2">
-        <v>85</v>
+        <v>435</v>
       </c>
       <c r="AN72" t="s" s="2">
-        <v>139</v>
+        <v>436</v>
       </c>
       <c r="AO72" t="s" s="2">
         <v>85</v>
       </c>
       <c r="AP72" t="s" s="2">
-        <v>85</v>
+        <v>437</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="s" s="2">
-        <v>444</v>
+        <v>440</v>
       </c>
       <c r="B73" t="s" s="2">
-        <v>444</v>
-      </c>
-      <c r="C73" s="2"/>
+        <v>426</v>
+      </c>
+      <c r="C73" t="s" s="2">
+        <v>441</v>
+      </c>
       <c r="D73" t="s" s="2">
         <v>85</v>
       </c>
@@ -11192,18 +11146,20 @@
         <v>97</v>
       </c>
       <c r="K73" t="s" s="2">
-        <v>245</v>
+        <v>442</v>
       </c>
       <c r="L73" t="s" s="2">
-        <v>371</v>
+        <v>428</v>
       </c>
       <c r="M73" t="s" s="2">
-        <v>372</v>
+        <v>429</v>
       </c>
       <c r="N73" t="s" s="2">
-        <v>373</v>
-      </c>
-      <c r="O73" s="2"/>
+        <v>430</v>
+      </c>
+      <c r="O73" t="s" s="2">
+        <v>431</v>
+      </c>
       <c r="P73" t="s" s="2">
         <v>85</v>
       </c>
@@ -11251,7 +11207,7 @@
         <v>85</v>
       </c>
       <c r="AF73" t="s" s="2">
-        <v>374</v>
+        <v>426</v>
       </c>
       <c r="AG73" t="s" s="2">
         <v>83</v>
@@ -11260,7 +11216,7 @@
         <v>96</v>
       </c>
       <c r="AI73" t="s" s="2">
-        <v>85</v>
+        <v>433</v>
       </c>
       <c r="AJ73" t="s" s="2">
         <v>108</v>
@@ -11269,29 +11225,31 @@
         <v>85</v>
       </c>
       <c r="AL73" t="s" s="2">
-        <v>85</v>
+        <v>434</v>
       </c>
       <c r="AM73" t="s" s="2">
-        <v>85</v>
+        <v>435</v>
       </c>
       <c r="AN73" t="s" s="2">
-        <v>375</v>
+        <v>436</v>
       </c>
       <c r="AO73" t="s" s="2">
         <v>85</v>
       </c>
       <c r="AP73" t="s" s="2">
-        <v>85</v>
+        <v>437</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="s" s="2">
-        <v>445</v>
+        <v>443</v>
       </c>
       <c r="B74" t="s" s="2">
-        <v>445</v>
-      </c>
-      <c r="C74" s="2"/>
+        <v>426</v>
+      </c>
+      <c r="C74" t="s" s="2">
+        <v>444</v>
+      </c>
       <c r="D74" t="s" s="2">
         <v>85</v>
       </c>
@@ -11309,21 +11267,23 @@
         <v>85</v>
       </c>
       <c r="J74" t="s" s="2">
-        <v>97</v>
+        <v>85</v>
       </c>
       <c r="K74" t="s" s="2">
-        <v>161</v>
+        <v>445</v>
       </c>
       <c r="L74" t="s" s="2">
-        <v>377</v>
+        <v>446</v>
       </c>
       <c r="M74" t="s" s="2">
-        <v>378</v>
+        <v>447</v>
       </c>
       <c r="N74" t="s" s="2">
-        <v>379</v>
-      </c>
-      <c r="O74" s="2"/>
+        <v>448</v>
+      </c>
+      <c r="O74" t="s" s="2">
+        <v>431</v>
+      </c>
       <c r="P74" t="s" s="2">
         <v>85</v>
       </c>
@@ -11371,7 +11331,7 @@
         <v>85</v>
       </c>
       <c r="AF74" t="s" s="2">
-        <v>380</v>
+        <v>426</v>
       </c>
       <c r="AG74" t="s" s="2">
         <v>83</v>
@@ -11380,10 +11340,10 @@
         <v>96</v>
       </c>
       <c r="AI74" t="s" s="2">
-        <v>85</v>
+        <v>158</v>
       </c>
       <c r="AJ74" t="s" s="2">
-        <v>108</v>
+        <v>449</v>
       </c>
       <c r="AK74" t="s" s="2">
         <v>85</v>
@@ -11392,10 +11352,10 @@
         <v>85</v>
       </c>
       <c r="AM74" t="s" s="2">
-        <v>85</v>
+        <v>450</v>
       </c>
       <c r="AN74" t="s" s="2">
-        <v>139</v>
+        <v>451</v>
       </c>
       <c r="AO74" t="s" s="2">
         <v>85</v>
@@ -11406,12 +11366,14 @@
     </row>
     <row r="75">
       <c r="A75" t="s" s="2">
-        <v>446</v>
+        <v>452</v>
       </c>
       <c r="B75" t="s" s="2">
-        <v>446</v>
-      </c>
-      <c r="C75" s="2"/>
+        <v>426</v>
+      </c>
+      <c r="C75" t="s" s="2">
+        <v>453</v>
+      </c>
       <c r="D75" t="s" s="2">
         <v>85</v>
       </c>
@@ -11429,22 +11391,22 @@
         <v>85</v>
       </c>
       <c r="J75" t="s" s="2">
-        <v>97</v>
+        <v>85</v>
       </c>
       <c r="K75" t="s" s="2">
-        <v>447</v>
+        <v>454</v>
       </c>
       <c r="L75" t="s" s="2">
-        <v>448</v>
+        <v>455</v>
       </c>
       <c r="M75" t="s" s="2">
-        <v>449</v>
+        <v>456</v>
       </c>
       <c r="N75" t="s" s="2">
-        <v>450</v>
+        <v>457</v>
       </c>
       <c r="O75" t="s" s="2">
-        <v>451</v>
+        <v>431</v>
       </c>
       <c r="P75" t="s" s="2">
         <v>85</v>
@@ -11481,17 +11443,19 @@
         <v>85</v>
       </c>
       <c r="AB75" t="s" s="2">
-        <v>452</v>
-      </c>
-      <c r="AC75" s="2"/>
+        <v>85</v>
+      </c>
+      <c r="AC75" t="s" s="2">
+        <v>85</v>
+      </c>
       <c r="AD75" t="s" s="2">
         <v>85</v>
       </c>
       <c r="AE75" t="s" s="2">
-        <v>145</v>
+        <v>85</v>
       </c>
       <c r="AF75" t="s" s="2">
-        <v>446</v>
+        <v>426</v>
       </c>
       <c r="AG75" t="s" s="2">
         <v>83</v>
@@ -11500,39 +11464,39 @@
         <v>96</v>
       </c>
       <c r="AI75" t="s" s="2">
-        <v>453</v>
+        <v>158</v>
       </c>
       <c r="AJ75" t="s" s="2">
-        <v>108</v>
+        <v>458</v>
       </c>
       <c r="AK75" t="s" s="2">
         <v>85</v>
       </c>
       <c r="AL75" t="s" s="2">
-        <v>454</v>
+        <v>85</v>
       </c>
       <c r="AM75" t="s" s="2">
-        <v>455</v>
+        <v>139</v>
       </c>
       <c r="AN75" t="s" s="2">
-        <v>456</v>
+        <v>459</v>
       </c>
       <c r="AO75" t="s" s="2">
         <v>85</v>
       </c>
       <c r="AP75" t="s" s="2">
-        <v>457</v>
+        <v>85</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="s" s="2">
-        <v>458</v>
+        <v>460</v>
       </c>
       <c r="B76" t="s" s="2">
-        <v>446</v>
+        <v>426</v>
       </c>
       <c r="C76" t="s" s="2">
-        <v>459</v>
+        <v>461</v>
       </c>
       <c r="D76" t="s" s="2">
         <v>85</v>
@@ -11554,19 +11518,19 @@
         <v>97</v>
       </c>
       <c r="K76" t="s" s="2">
-        <v>161</v>
+        <v>462</v>
       </c>
       <c r="L76" t="s" s="2">
-        <v>448</v>
+        <v>428</v>
       </c>
       <c r="M76" t="s" s="2">
-        <v>449</v>
+        <v>429</v>
       </c>
       <c r="N76" t="s" s="2">
-        <v>450</v>
+        <v>430</v>
       </c>
       <c r="O76" t="s" s="2">
-        <v>451</v>
+        <v>431</v>
       </c>
       <c r="P76" t="s" s="2">
         <v>85</v>
@@ -11615,7 +11579,7 @@
         <v>85</v>
       </c>
       <c r="AF76" t="s" s="2">
-        <v>446</v>
+        <v>426</v>
       </c>
       <c r="AG76" t="s" s="2">
         <v>83</v>
@@ -11624,7 +11588,7 @@
         <v>96</v>
       </c>
       <c r="AI76" t="s" s="2">
-        <v>453</v>
+        <v>433</v>
       </c>
       <c r="AJ76" t="s" s="2">
         <v>108</v>
@@ -11633,30 +11597,30 @@
         <v>85</v>
       </c>
       <c r="AL76" t="s" s="2">
-        <v>454</v>
+        <v>434</v>
       </c>
       <c r="AM76" t="s" s="2">
-        <v>455</v>
+        <v>435</v>
       </c>
       <c r="AN76" t="s" s="2">
-        <v>456</v>
+        <v>436</v>
       </c>
       <c r="AO76" t="s" s="2">
         <v>85</v>
       </c>
       <c r="AP76" t="s" s="2">
-        <v>457</v>
+        <v>437</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="s" s="2">
-        <v>460</v>
+        <v>463</v>
       </c>
       <c r="B77" t="s" s="2">
-        <v>446</v>
+        <v>426</v>
       </c>
       <c r="C77" t="s" s="2">
-        <v>461</v>
+        <v>464</v>
       </c>
       <c r="D77" t="s" s="2">
         <v>85</v>
@@ -11675,22 +11639,22 @@
         <v>85</v>
       </c>
       <c r="J77" t="s" s="2">
-        <v>85</v>
+        <v>97</v>
       </c>
       <c r="K77" t="s" s="2">
-        <v>462</v>
+        <v>465</v>
       </c>
       <c r="L77" t="s" s="2">
-        <v>463</v>
+        <v>428</v>
       </c>
       <c r="M77" t="s" s="2">
-        <v>464</v>
+        <v>429</v>
       </c>
       <c r="N77" t="s" s="2">
-        <v>465</v>
+        <v>430</v>
       </c>
       <c r="O77" t="s" s="2">
-        <v>451</v>
+        <v>431</v>
       </c>
       <c r="P77" t="s" s="2">
         <v>85</v>
@@ -11739,7 +11703,7 @@
         <v>85</v>
       </c>
       <c r="AF77" t="s" s="2">
-        <v>446</v>
+        <v>426</v>
       </c>
       <c r="AG77" t="s" s="2">
         <v>83</v>
@@ -11748,39 +11712,39 @@
         <v>96</v>
       </c>
       <c r="AI77" t="s" s="2">
-        <v>158</v>
+        <v>433</v>
       </c>
       <c r="AJ77" t="s" s="2">
-        <v>466</v>
+        <v>108</v>
       </c>
       <c r="AK77" t="s" s="2">
         <v>85</v>
       </c>
       <c r="AL77" t="s" s="2">
-        <v>85</v>
+        <v>434</v>
       </c>
       <c r="AM77" t="s" s="2">
-        <v>467</v>
+        <v>435</v>
       </c>
       <c r="AN77" t="s" s="2">
-        <v>468</v>
+        <v>436</v>
       </c>
       <c r="AO77" t="s" s="2">
         <v>85</v>
       </c>
       <c r="AP77" t="s" s="2">
-        <v>85</v>
+        <v>437</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="s" s="2">
-        <v>469</v>
+        <v>466</v>
       </c>
       <c r="B78" t="s" s="2">
-        <v>446</v>
+        <v>426</v>
       </c>
       <c r="C78" t="s" s="2">
-        <v>470</v>
+        <v>467</v>
       </c>
       <c r="D78" t="s" s="2">
         <v>85</v>
@@ -11799,22 +11763,22 @@
         <v>85</v>
       </c>
       <c r="J78" t="s" s="2">
-        <v>85</v>
+        <v>97</v>
       </c>
       <c r="K78" t="s" s="2">
-        <v>471</v>
+        <v>468</v>
       </c>
       <c r="L78" t="s" s="2">
-        <v>472</v>
+        <v>428</v>
       </c>
       <c r="M78" t="s" s="2">
-        <v>473</v>
+        <v>429</v>
       </c>
       <c r="N78" t="s" s="2">
-        <v>474</v>
+        <v>430</v>
       </c>
       <c r="O78" t="s" s="2">
-        <v>451</v>
+        <v>431</v>
       </c>
       <c r="P78" t="s" s="2">
         <v>85</v>
@@ -11863,7 +11827,7 @@
         <v>85</v>
       </c>
       <c r="AF78" t="s" s="2">
-        <v>446</v>
+        <v>426</v>
       </c>
       <c r="AG78" t="s" s="2">
         <v>83</v>
@@ -11872,39 +11836,39 @@
         <v>96</v>
       </c>
       <c r="AI78" t="s" s="2">
-        <v>158</v>
+        <v>433</v>
       </c>
       <c r="AJ78" t="s" s="2">
-        <v>475</v>
+        <v>108</v>
       </c>
       <c r="AK78" t="s" s="2">
         <v>85</v>
       </c>
       <c r="AL78" t="s" s="2">
-        <v>85</v>
+        <v>434</v>
       </c>
       <c r="AM78" t="s" s="2">
-        <v>139</v>
+        <v>435</v>
       </c>
       <c r="AN78" t="s" s="2">
-        <v>476</v>
+        <v>436</v>
       </c>
       <c r="AO78" t="s" s="2">
         <v>85</v>
       </c>
       <c r="AP78" t="s" s="2">
-        <v>85</v>
+        <v>437</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="s" s="2">
-        <v>477</v>
+        <v>469</v>
       </c>
       <c r="B79" t="s" s="2">
-        <v>446</v>
+        <v>426</v>
       </c>
       <c r="C79" t="s" s="2">
-        <v>478</v>
+        <v>470</v>
       </c>
       <c r="D79" t="s" s="2">
         <v>85</v>
@@ -11923,22 +11887,22 @@
         <v>85</v>
       </c>
       <c r="J79" t="s" s="2">
-        <v>97</v>
+        <v>85</v>
       </c>
       <c r="K79" t="s" s="2">
-        <v>479</v>
+        <v>471</v>
       </c>
       <c r="L79" t="s" s="2">
-        <v>448</v>
+        <v>472</v>
       </c>
       <c r="M79" t="s" s="2">
-        <v>449</v>
+        <v>473</v>
       </c>
       <c r="N79" t="s" s="2">
-        <v>450</v>
+        <v>474</v>
       </c>
       <c r="O79" t="s" s="2">
-        <v>451</v>
+        <v>431</v>
       </c>
       <c r="P79" t="s" s="2">
         <v>85</v>
@@ -11987,7 +11951,7 @@
         <v>85</v>
       </c>
       <c r="AF79" t="s" s="2">
-        <v>446</v>
+        <v>426</v>
       </c>
       <c r="AG79" t="s" s="2">
         <v>83</v>
@@ -11996,39 +11960,39 @@
         <v>96</v>
       </c>
       <c r="AI79" t="s" s="2">
-        <v>453</v>
+        <v>158</v>
       </c>
       <c r="AJ79" t="s" s="2">
-        <v>108</v>
+        <v>475</v>
       </c>
       <c r="AK79" t="s" s="2">
         <v>85</v>
       </c>
       <c r="AL79" t="s" s="2">
-        <v>454</v>
+        <v>85</v>
       </c>
       <c r="AM79" t="s" s="2">
-        <v>455</v>
+        <v>476</v>
       </c>
       <c r="AN79" t="s" s="2">
-        <v>456</v>
+        <v>477</v>
       </c>
       <c r="AO79" t="s" s="2">
         <v>85</v>
       </c>
       <c r="AP79" t="s" s="2">
-        <v>457</v>
+        <v>85</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="s" s="2">
-        <v>480</v>
+        <v>478</v>
       </c>
       <c r="B80" t="s" s="2">
-        <v>446</v>
+        <v>426</v>
       </c>
       <c r="C80" t="s" s="2">
-        <v>481</v>
+        <v>479</v>
       </c>
       <c r="D80" t="s" s="2">
         <v>85</v>
@@ -12050,19 +12014,19 @@
         <v>97</v>
       </c>
       <c r="K80" t="s" s="2">
-        <v>482</v>
+        <v>285</v>
       </c>
       <c r="L80" t="s" s="2">
-        <v>448</v>
+        <v>428</v>
       </c>
       <c r="M80" t="s" s="2">
-        <v>449</v>
+        <v>429</v>
       </c>
       <c r="N80" t="s" s="2">
-        <v>450</v>
+        <v>430</v>
       </c>
       <c r="O80" t="s" s="2">
-        <v>451</v>
+        <v>431</v>
       </c>
       <c r="P80" t="s" s="2">
         <v>85</v>
@@ -12087,13 +12051,11 @@
         <v>85</v>
       </c>
       <c r="X80" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="Y80" t="s" s="2">
-        <v>85</v>
-      </c>
+        <v>120</v>
+      </c>
+      <c r="Y80" s="2"/>
       <c r="Z80" t="s" s="2">
-        <v>85</v>
+        <v>480</v>
       </c>
       <c r="AA80" t="s" s="2">
         <v>85</v>
@@ -12111,7 +12073,7 @@
         <v>85</v>
       </c>
       <c r="AF80" t="s" s="2">
-        <v>446</v>
+        <v>426</v>
       </c>
       <c r="AG80" t="s" s="2">
         <v>83</v>
@@ -12120,7 +12082,7 @@
         <v>96</v>
       </c>
       <c r="AI80" t="s" s="2">
-        <v>453</v>
+        <v>433</v>
       </c>
       <c r="AJ80" t="s" s="2">
         <v>108</v>
@@ -12129,31 +12091,29 @@
         <v>85</v>
       </c>
       <c r="AL80" t="s" s="2">
-        <v>454</v>
+        <v>434</v>
       </c>
       <c r="AM80" t="s" s="2">
-        <v>455</v>
+        <v>435</v>
       </c>
       <c r="AN80" t="s" s="2">
-        <v>456</v>
+        <v>436</v>
       </c>
       <c r="AO80" t="s" s="2">
         <v>85</v>
       </c>
       <c r="AP80" t="s" s="2">
-        <v>457</v>
+        <v>437</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="s" s="2">
-        <v>483</v>
+        <v>481</v>
       </c>
       <c r="B81" t="s" s="2">
-        <v>446</v>
-      </c>
-      <c r="C81" t="s" s="2">
-        <v>484</v>
-      </c>
+        <v>481</v>
+      </c>
+      <c r="C81" s="2"/>
       <c r="D81" t="s" s="2">
         <v>85</v>
       </c>
@@ -12171,22 +12131,22 @@
         <v>85</v>
       </c>
       <c r="J81" t="s" s="2">
-        <v>97</v>
+        <v>85</v>
       </c>
       <c r="K81" t="s" s="2">
+        <v>285</v>
+      </c>
+      <c r="L81" t="s" s="2">
+        <v>482</v>
+      </c>
+      <c r="M81" t="s" s="2">
+        <v>483</v>
+      </c>
+      <c r="N81" t="s" s="2">
+        <v>484</v>
+      </c>
+      <c r="O81" t="s" s="2">
         <v>485</v>
-      </c>
-      <c r="L81" t="s" s="2">
-        <v>448</v>
-      </c>
-      <c r="M81" t="s" s="2">
-        <v>449</v>
-      </c>
-      <c r="N81" t="s" s="2">
-        <v>450</v>
-      </c>
-      <c r="O81" t="s" s="2">
-        <v>451</v>
       </c>
       <c r="P81" t="s" s="2">
         <v>85</v>
@@ -12211,13 +12171,13 @@
         <v>85</v>
       </c>
       <c r="X81" t="s" s="2">
-        <v>85</v>
+        <v>346</v>
       </c>
       <c r="Y81" t="s" s="2">
-        <v>85</v>
+        <v>486</v>
       </c>
       <c r="Z81" t="s" s="2">
-        <v>85</v>
+        <v>487</v>
       </c>
       <c r="AA81" t="s" s="2">
         <v>85</v>
@@ -12235,7 +12195,7 @@
         <v>85</v>
       </c>
       <c r="AF81" t="s" s="2">
-        <v>446</v>
+        <v>481</v>
       </c>
       <c r="AG81" t="s" s="2">
         <v>83</v>
@@ -12244,7 +12204,7 @@
         <v>96</v>
       </c>
       <c r="AI81" t="s" s="2">
-        <v>453</v>
+        <v>488</v>
       </c>
       <c r="AJ81" t="s" s="2">
         <v>108</v>
@@ -12253,40 +12213,38 @@
         <v>85</v>
       </c>
       <c r="AL81" t="s" s="2">
-        <v>454</v>
+        <v>85</v>
       </c>
       <c r="AM81" t="s" s="2">
-        <v>455</v>
+        <v>139</v>
       </c>
       <c r="AN81" t="s" s="2">
-        <v>456</v>
+        <v>489</v>
       </c>
       <c r="AO81" t="s" s="2">
         <v>85</v>
       </c>
       <c r="AP81" t="s" s="2">
-        <v>457</v>
+        <v>85</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="s" s="2">
-        <v>486</v>
+        <v>490</v>
       </c>
       <c r="B82" t="s" s="2">
-        <v>446</v>
-      </c>
-      <c r="C82" t="s" s="2">
-        <v>487</v>
-      </c>
+        <v>490</v>
+      </c>
+      <c r="C82" s="2"/>
       <c r="D82" t="s" s="2">
-        <v>85</v>
+        <v>491</v>
       </c>
       <c r="E82" s="2"/>
       <c r="F82" t="s" s="2">
         <v>83</v>
       </c>
       <c r="G82" t="s" s="2">
-        <v>96</v>
+        <v>84</v>
       </c>
       <c r="H82" t="s" s="2">
         <v>85</v>
@@ -12298,19 +12256,19 @@
         <v>85</v>
       </c>
       <c r="K82" t="s" s="2">
-        <v>488</v>
+        <v>285</v>
       </c>
       <c r="L82" t="s" s="2">
-        <v>489</v>
+        <v>492</v>
       </c>
       <c r="M82" t="s" s="2">
-        <v>490</v>
+        <v>493</v>
       </c>
       <c r="N82" t="s" s="2">
-        <v>491</v>
+        <v>494</v>
       </c>
       <c r="O82" t="s" s="2">
-        <v>451</v>
+        <v>495</v>
       </c>
       <c r="P82" t="s" s="2">
         <v>85</v>
@@ -12335,13 +12293,13 @@
         <v>85</v>
       </c>
       <c r="X82" t="s" s="2">
-        <v>85</v>
+        <v>346</v>
       </c>
       <c r="Y82" t="s" s="2">
-        <v>85</v>
+        <v>496</v>
       </c>
       <c r="Z82" t="s" s="2">
-        <v>85</v>
+        <v>497</v>
       </c>
       <c r="AA82" t="s" s="2">
         <v>85</v>
@@ -12359,49 +12317,47 @@
         <v>85</v>
       </c>
       <c r="AF82" t="s" s="2">
-        <v>446</v>
+        <v>490</v>
       </c>
       <c r="AG82" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AH82" t="s" s="2">
-        <v>96</v>
+        <v>84</v>
       </c>
       <c r="AI82" t="s" s="2">
-        <v>158</v>
+        <v>85</v>
       </c>
       <c r="AJ82" t="s" s="2">
-        <v>492</v>
+        <v>108</v>
       </c>
       <c r="AK82" t="s" s="2">
         <v>85</v>
       </c>
       <c r="AL82" t="s" s="2">
-        <v>85</v>
+        <v>498</v>
       </c>
       <c r="AM82" t="s" s="2">
-        <v>493</v>
+        <v>499</v>
       </c>
       <c r="AN82" t="s" s="2">
-        <v>494</v>
+        <v>500</v>
       </c>
       <c r="AO82" t="s" s="2">
         <v>85</v>
       </c>
       <c r="AP82" t="s" s="2">
-        <v>85</v>
+        <v>501</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="s" s="2">
-        <v>495</v>
+        <v>502</v>
       </c>
       <c r="B83" t="s" s="2">
-        <v>446</v>
-      </c>
-      <c r="C83" t="s" s="2">
-        <v>496</v>
-      </c>
+        <v>502</v>
+      </c>
+      <c r="C83" s="2"/>
       <c r="D83" t="s" s="2">
         <v>85</v>
       </c>
@@ -12410,7 +12366,7 @@
         <v>83</v>
       </c>
       <c r="G83" t="s" s="2">
-        <v>96</v>
+        <v>84</v>
       </c>
       <c r="H83" t="s" s="2">
         <v>85</v>
@@ -12419,22 +12375,22 @@
         <v>85</v>
       </c>
       <c r="J83" t="s" s="2">
-        <v>97</v>
+        <v>85</v>
       </c>
       <c r="K83" t="s" s="2">
-        <v>285</v>
+        <v>503</v>
       </c>
       <c r="L83" t="s" s="2">
-        <v>448</v>
+        <v>504</v>
       </c>
       <c r="M83" t="s" s="2">
-        <v>449</v>
+        <v>505</v>
       </c>
       <c r="N83" t="s" s="2">
-        <v>450</v>
+        <v>506</v>
       </c>
       <c r="O83" t="s" s="2">
-        <v>451</v>
+        <v>507</v>
       </c>
       <c r="P83" t="s" s="2">
         <v>85</v>
@@ -12459,11 +12415,13 @@
         <v>85</v>
       </c>
       <c r="X83" t="s" s="2">
-        <v>120</v>
-      </c>
-      <c r="Y83" s="2"/>
+        <v>85</v>
+      </c>
+      <c r="Y83" t="s" s="2">
+        <v>85</v>
+      </c>
       <c r="Z83" t="s" s="2">
-        <v>497</v>
+        <v>85</v>
       </c>
       <c r="AA83" t="s" s="2">
         <v>85</v>
@@ -12481,16 +12439,16 @@
         <v>85</v>
       </c>
       <c r="AF83" t="s" s="2">
-        <v>446</v>
+        <v>502</v>
       </c>
       <c r="AG83" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AH83" t="s" s="2">
-        <v>96</v>
+        <v>84</v>
       </c>
       <c r="AI83" t="s" s="2">
-        <v>453</v>
+        <v>85</v>
       </c>
       <c r="AJ83" t="s" s="2">
         <v>108</v>
@@ -12499,27 +12457,27 @@
         <v>85</v>
       </c>
       <c r="AL83" t="s" s="2">
-        <v>454</v>
+        <v>85</v>
       </c>
       <c r="AM83" t="s" s="2">
-        <v>455</v>
+        <v>508</v>
       </c>
       <c r="AN83" t="s" s="2">
-        <v>456</v>
+        <v>509</v>
       </c>
       <c r="AO83" t="s" s="2">
         <v>85</v>
       </c>
       <c r="AP83" t="s" s="2">
-        <v>457</v>
+        <v>85</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="s" s="2">
-        <v>498</v>
+        <v>510</v>
       </c>
       <c r="B84" t="s" s="2">
-        <v>498</v>
+        <v>510</v>
       </c>
       <c r="C84" s="2"/>
       <c r="D84" t="s" s="2">
@@ -12545,17 +12503,15 @@
         <v>285</v>
       </c>
       <c r="L84" t="s" s="2">
-        <v>499</v>
+        <v>511</v>
       </c>
       <c r="M84" t="s" s="2">
-        <v>500</v>
+        <v>512</v>
       </c>
       <c r="N84" t="s" s="2">
-        <v>501</v>
-      </c>
-      <c r="O84" t="s" s="2">
-        <v>502</v>
-      </c>
+        <v>513</v>
+      </c>
+      <c r="O84" s="2"/>
       <c r="P84" t="s" s="2">
         <v>85</v>
       </c>
@@ -12579,13 +12535,13 @@
         <v>85</v>
       </c>
       <c r="X84" t="s" s="2">
-        <v>366</v>
+        <v>514</v>
       </c>
       <c r="Y84" t="s" s="2">
-        <v>503</v>
+        <v>515</v>
       </c>
       <c r="Z84" t="s" s="2">
-        <v>504</v>
+        <v>516</v>
       </c>
       <c r="AA84" t="s" s="2">
         <v>85</v>
@@ -12603,7 +12559,7 @@
         <v>85</v>
       </c>
       <c r="AF84" t="s" s="2">
-        <v>498</v>
+        <v>510</v>
       </c>
       <c r="AG84" t="s" s="2">
         <v>83</v>
@@ -12612,7 +12568,7 @@
         <v>96</v>
       </c>
       <c r="AI84" t="s" s="2">
-        <v>505</v>
+        <v>85</v>
       </c>
       <c r="AJ84" t="s" s="2">
         <v>108</v>
@@ -12621,38 +12577,38 @@
         <v>85</v>
       </c>
       <c r="AL84" t="s" s="2">
-        <v>85</v>
+        <v>517</v>
       </c>
       <c r="AM84" t="s" s="2">
-        <v>139</v>
+        <v>518</v>
       </c>
       <c r="AN84" t="s" s="2">
-        <v>506</v>
+        <v>519</v>
       </c>
       <c r="AO84" t="s" s="2">
         <v>85</v>
       </c>
       <c r="AP84" t="s" s="2">
-        <v>85</v>
+        <v>520</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="s" s="2">
-        <v>507</v>
+        <v>521</v>
       </c>
       <c r="B85" t="s" s="2">
-        <v>507</v>
+        <v>521</v>
       </c>
       <c r="C85" s="2"/>
       <c r="D85" t="s" s="2">
-        <v>508</v>
+        <v>85</v>
       </c>
       <c r="E85" s="2"/>
       <c r="F85" t="s" s="2">
         <v>83</v>
       </c>
       <c r="G85" t="s" s="2">
-        <v>84</v>
+        <v>96</v>
       </c>
       <c r="H85" t="s" s="2">
         <v>85</v>
@@ -12667,16 +12623,16 @@
         <v>285</v>
       </c>
       <c r="L85" t="s" s="2">
-        <v>509</v>
+        <v>522</v>
       </c>
       <c r="M85" t="s" s="2">
-        <v>510</v>
+        <v>523</v>
       </c>
       <c r="N85" t="s" s="2">
-        <v>511</v>
+        <v>524</v>
       </c>
       <c r="O85" t="s" s="2">
-        <v>512</v>
+        <v>525</v>
       </c>
       <c r="P85" t="s" s="2">
         <v>85</v>
@@ -12686,7 +12642,7 @@
         <v>85</v>
       </c>
       <c r="S85" t="s" s="2">
-        <v>85</v>
+        <v>526</v>
       </c>
       <c r="T85" t="s" s="2">
         <v>85</v>
@@ -12701,13 +12657,11 @@
         <v>85</v>
       </c>
       <c r="X85" t="s" s="2">
-        <v>366</v>
-      </c>
-      <c r="Y85" t="s" s="2">
-        <v>513</v>
-      </c>
+        <v>120</v>
+      </c>
+      <c r="Y85" s="2"/>
       <c r="Z85" t="s" s="2">
-        <v>514</v>
+        <v>527</v>
       </c>
       <c r="AA85" t="s" s="2">
         <v>85</v>
@@ -12725,13 +12679,13 @@
         <v>85</v>
       </c>
       <c r="AF85" t="s" s="2">
-        <v>507</v>
+        <v>521</v>
       </c>
       <c r="AG85" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AH85" t="s" s="2">
-        <v>84</v>
+        <v>96</v>
       </c>
       <c r="AI85" t="s" s="2">
         <v>85</v>
@@ -12743,27 +12697,27 @@
         <v>85</v>
       </c>
       <c r="AL85" t="s" s="2">
-        <v>515</v>
+        <v>85</v>
       </c>
       <c r="AM85" t="s" s="2">
-        <v>516</v>
+        <v>528</v>
       </c>
       <c r="AN85" t="s" s="2">
-        <v>517</v>
+        <v>529</v>
       </c>
       <c r="AO85" t="s" s="2">
         <v>85</v>
       </c>
       <c r="AP85" t="s" s="2">
-        <v>518</v>
+        <v>85</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="s" s="2">
-        <v>519</v>
+        <v>530</v>
       </c>
       <c r="B86" t="s" s="2">
-        <v>519</v>
+        <v>530</v>
       </c>
       <c r="C86" s="2"/>
       <c r="D86" t="s" s="2">
@@ -12774,7 +12728,7 @@
         <v>83</v>
       </c>
       <c r="G86" t="s" s="2">
-        <v>84</v>
+        <v>96</v>
       </c>
       <c r="H86" t="s" s="2">
         <v>85</v>
@@ -12786,20 +12740,18 @@
         <v>85</v>
       </c>
       <c r="K86" t="s" s="2">
-        <v>520</v>
+        <v>531</v>
       </c>
       <c r="L86" t="s" s="2">
-        <v>521</v>
+        <v>532</v>
       </c>
       <c r="M86" t="s" s="2">
-        <v>522</v>
+        <v>533</v>
       </c>
       <c r="N86" t="s" s="2">
-        <v>523</v>
-      </c>
-      <c r="O86" t="s" s="2">
-        <v>524</v>
-      </c>
+        <v>534</v>
+      </c>
+      <c r="O86" s="2"/>
       <c r="P86" t="s" s="2">
         <v>85</v>
       </c>
@@ -12847,13 +12799,13 @@
         <v>85</v>
       </c>
       <c r="AF86" t="s" s="2">
-        <v>519</v>
+        <v>530</v>
       </c>
       <c r="AG86" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AH86" t="s" s="2">
-        <v>84</v>
+        <v>96</v>
       </c>
       <c r="AI86" t="s" s="2">
         <v>85</v>
@@ -12865,27 +12817,27 @@
         <v>85</v>
       </c>
       <c r="AL86" t="s" s="2">
-        <v>85</v>
+        <v>535</v>
       </c>
       <c r="AM86" t="s" s="2">
-        <v>525</v>
+        <v>536</v>
       </c>
       <c r="AN86" t="s" s="2">
-        <v>526</v>
+        <v>537</v>
       </c>
       <c r="AO86" t="s" s="2">
         <v>85</v>
       </c>
       <c r="AP86" t="s" s="2">
-        <v>85</v>
+        <v>538</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="s" s="2">
-        <v>527</v>
+        <v>539</v>
       </c>
       <c r="B87" t="s" s="2">
-        <v>527</v>
+        <v>539</v>
       </c>
       <c r="C87" s="2"/>
       <c r="D87" t="s" s="2">
@@ -12908,16 +12860,16 @@
         <v>85</v>
       </c>
       <c r="K87" t="s" s="2">
-        <v>285</v>
+        <v>540</v>
       </c>
       <c r="L87" t="s" s="2">
-        <v>528</v>
+        <v>541</v>
       </c>
       <c r="M87" t="s" s="2">
-        <v>529</v>
+        <v>542</v>
       </c>
       <c r="N87" t="s" s="2">
-        <v>530</v>
+        <v>543</v>
       </c>
       <c r="O87" s="2"/>
       <c r="P87" t="s" s="2">
@@ -12943,13 +12895,13 @@
         <v>85</v>
       </c>
       <c r="X87" t="s" s="2">
-        <v>531</v>
+        <v>85</v>
       </c>
       <c r="Y87" t="s" s="2">
-        <v>532</v>
+        <v>85</v>
       </c>
       <c r="Z87" t="s" s="2">
-        <v>533</v>
+        <v>85</v>
       </c>
       <c r="AA87" t="s" s="2">
         <v>85</v>
@@ -12967,7 +12919,7 @@
         <v>85</v>
       </c>
       <c r="AF87" t="s" s="2">
-        <v>527</v>
+        <v>539</v>
       </c>
       <c r="AG87" t="s" s="2">
         <v>83</v>
@@ -12985,27 +12937,27 @@
         <v>85</v>
       </c>
       <c r="AL87" t="s" s="2">
-        <v>534</v>
+        <v>544</v>
       </c>
       <c r="AM87" t="s" s="2">
-        <v>535</v>
+        <v>545</v>
       </c>
       <c r="AN87" t="s" s="2">
-        <v>536</v>
+        <v>546</v>
       </c>
       <c r="AO87" t="s" s="2">
         <v>85</v>
       </c>
       <c r="AP87" t="s" s="2">
-        <v>537</v>
+        <v>547</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="s" s="2">
-        <v>538</v>
+        <v>548</v>
       </c>
       <c r="B88" t="s" s="2">
-        <v>538</v>
+        <v>548</v>
       </c>
       <c r="C88" s="2"/>
       <c r="D88" t="s" s="2">
@@ -13016,7 +12968,7 @@
         <v>83</v>
       </c>
       <c r="G88" t="s" s="2">
-        <v>96</v>
+        <v>84</v>
       </c>
       <c r="H88" t="s" s="2">
         <v>85</v>
@@ -13028,19 +12980,19 @@
         <v>85</v>
       </c>
       <c r="K88" t="s" s="2">
-        <v>285</v>
+        <v>549</v>
       </c>
       <c r="L88" t="s" s="2">
-        <v>539</v>
+        <v>550</v>
       </c>
       <c r="M88" t="s" s="2">
-        <v>540</v>
+        <v>551</v>
       </c>
       <c r="N88" t="s" s="2">
-        <v>541</v>
+        <v>552</v>
       </c>
       <c r="O88" t="s" s="2">
-        <v>542</v>
+        <v>553</v>
       </c>
       <c r="P88" t="s" s="2">
         <v>85</v>
@@ -13050,7 +13002,7 @@
         <v>85</v>
       </c>
       <c r="S88" t="s" s="2">
-        <v>543</v>
+        <v>85</v>
       </c>
       <c r="T88" t="s" s="2">
         <v>85</v>
@@ -13065,11 +13017,13 @@
         <v>85</v>
       </c>
       <c r="X88" t="s" s="2">
-        <v>120</v>
-      </c>
-      <c r="Y88" s="2"/>
+        <v>85</v>
+      </c>
+      <c r="Y88" t="s" s="2">
+        <v>85</v>
+      </c>
       <c r="Z88" t="s" s="2">
-        <v>544</v>
+        <v>85</v>
       </c>
       <c r="AA88" t="s" s="2">
         <v>85</v>
@@ -13087,19 +13041,19 @@
         <v>85</v>
       </c>
       <c r="AF88" t="s" s="2">
-        <v>538</v>
+        <v>548</v>
       </c>
       <c r="AG88" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AH88" t="s" s="2">
-        <v>96</v>
+        <v>84</v>
       </c>
       <c r="AI88" t="s" s="2">
         <v>85</v>
       </c>
       <c r="AJ88" t="s" s="2">
-        <v>108</v>
+        <v>554</v>
       </c>
       <c r="AK88" t="s" s="2">
         <v>85</v>
@@ -13108,10 +13062,10 @@
         <v>85</v>
       </c>
       <c r="AM88" t="s" s="2">
-        <v>545</v>
+        <v>555</v>
       </c>
       <c r="AN88" t="s" s="2">
-        <v>546</v>
+        <v>556</v>
       </c>
       <c r="AO88" t="s" s="2">
         <v>85</v>
@@ -13122,10 +13076,10 @@
     </row>
     <row r="89">
       <c r="A89" t="s" s="2">
-        <v>547</v>
+        <v>557</v>
       </c>
       <c r="B89" t="s" s="2">
-        <v>547</v>
+        <v>557</v>
       </c>
       <c r="C89" s="2"/>
       <c r="D89" t="s" s="2">
@@ -13148,17 +13102,15 @@
         <v>85</v>
       </c>
       <c r="K89" t="s" s="2">
-        <v>548</v>
+        <v>161</v>
       </c>
       <c r="L89" t="s" s="2">
-        <v>549</v>
+        <v>162</v>
       </c>
       <c r="M89" t="s" s="2">
-        <v>550</v>
-      </c>
-      <c r="N89" t="s" s="2">
-        <v>551</v>
-      </c>
+        <v>163</v>
+      </c>
+      <c r="N89" s="2"/>
       <c r="O89" s="2"/>
       <c r="P89" t="s" s="2">
         <v>85</v>
@@ -13207,7 +13159,7 @@
         <v>85</v>
       </c>
       <c r="AF89" t="s" s="2">
-        <v>547</v>
+        <v>164</v>
       </c>
       <c r="AG89" t="s" s="2">
         <v>83</v>
@@ -13219,44 +13171,44 @@
         <v>85</v>
       </c>
       <c r="AJ89" t="s" s="2">
-        <v>108</v>
+        <v>85</v>
       </c>
       <c r="AK89" t="s" s="2">
         <v>85</v>
       </c>
       <c r="AL89" t="s" s="2">
-        <v>552</v>
+        <v>85</v>
       </c>
       <c r="AM89" t="s" s="2">
-        <v>553</v>
+        <v>85</v>
       </c>
       <c r="AN89" t="s" s="2">
-        <v>554</v>
+        <v>165</v>
       </c>
       <c r="AO89" t="s" s="2">
         <v>85</v>
       </c>
       <c r="AP89" t="s" s="2">
-        <v>555</v>
+        <v>85</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="s" s="2">
-        <v>556</v>
+        <v>558</v>
       </c>
       <c r="B90" t="s" s="2">
-        <v>556</v>
+        <v>558</v>
       </c>
       <c r="C90" s="2"/>
       <c r="D90" t="s" s="2">
-        <v>85</v>
+        <v>168</v>
       </c>
       <c r="E90" s="2"/>
       <c r="F90" t="s" s="2">
         <v>83</v>
       </c>
       <c r="G90" t="s" s="2">
-        <v>96</v>
+        <v>84</v>
       </c>
       <c r="H90" t="s" s="2">
         <v>85</v>
@@ -13268,16 +13220,16 @@
         <v>85</v>
       </c>
       <c r="K90" t="s" s="2">
-        <v>557</v>
+        <v>141</v>
       </c>
       <c r="L90" t="s" s="2">
-        <v>558</v>
+        <v>169</v>
       </c>
       <c r="M90" t="s" s="2">
-        <v>559</v>
+        <v>170</v>
       </c>
       <c r="N90" t="s" s="2">
-        <v>560</v>
+        <v>171</v>
       </c>
       <c r="O90" s="2"/>
       <c r="P90" t="s" s="2">
@@ -13327,49 +13279,49 @@
         <v>85</v>
       </c>
       <c r="AF90" t="s" s="2">
-        <v>556</v>
+        <v>173</v>
       </c>
       <c r="AG90" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AH90" t="s" s="2">
-        <v>96</v>
+        <v>84</v>
       </c>
       <c r="AI90" t="s" s="2">
         <v>85</v>
       </c>
       <c r="AJ90" t="s" s="2">
-        <v>108</v>
+        <v>147</v>
       </c>
       <c r="AK90" t="s" s="2">
         <v>85</v>
       </c>
       <c r="AL90" t="s" s="2">
-        <v>561</v>
+        <v>85</v>
       </c>
       <c r="AM90" t="s" s="2">
-        <v>562</v>
+        <v>85</v>
       </c>
       <c r="AN90" t="s" s="2">
-        <v>563</v>
+        <v>165</v>
       </c>
       <c r="AO90" t="s" s="2">
         <v>85</v>
       </c>
       <c r="AP90" t="s" s="2">
-        <v>564</v>
+        <v>85</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="s" s="2">
-        <v>565</v>
+        <v>559</v>
       </c>
       <c r="B91" t="s" s="2">
-        <v>565</v>
+        <v>559</v>
       </c>
       <c r="C91" s="2"/>
       <c r="D91" t="s" s="2">
-        <v>85</v>
+        <v>560</v>
       </c>
       <c r="E91" s="2"/>
       <c r="F91" t="s" s="2">
@@ -13382,25 +13334,25 @@
         <v>85</v>
       </c>
       <c r="I91" t="s" s="2">
-        <v>85</v>
+        <v>97</v>
       </c>
       <c r="J91" t="s" s="2">
-        <v>85</v>
+        <v>97</v>
       </c>
       <c r="K91" t="s" s="2">
-        <v>566</v>
+        <v>141</v>
       </c>
       <c r="L91" t="s" s="2">
-        <v>567</v>
+        <v>561</v>
       </c>
       <c r="M91" t="s" s="2">
-        <v>568</v>
+        <v>562</v>
       </c>
       <c r="N91" t="s" s="2">
-        <v>569</v>
+        <v>171</v>
       </c>
       <c r="O91" t="s" s="2">
-        <v>570</v>
+        <v>242</v>
       </c>
       <c r="P91" t="s" s="2">
         <v>85</v>
@@ -13449,7 +13401,7 @@
         <v>85</v>
       </c>
       <c r="AF91" t="s" s="2">
-        <v>565</v>
+        <v>563</v>
       </c>
       <c r="AG91" t="s" s="2">
         <v>83</v>
@@ -13461,7 +13413,7 @@
         <v>85</v>
       </c>
       <c r="AJ91" t="s" s="2">
-        <v>571</v>
+        <v>147</v>
       </c>
       <c r="AK91" t="s" s="2">
         <v>85</v>
@@ -13470,10 +13422,10 @@
         <v>85</v>
       </c>
       <c r="AM91" t="s" s="2">
-        <v>572</v>
+        <v>85</v>
       </c>
       <c r="AN91" t="s" s="2">
-        <v>573</v>
+        <v>139</v>
       </c>
       <c r="AO91" t="s" s="2">
         <v>85</v>
@@ -13484,10 +13436,10 @@
     </row>
     <row r="92">
       <c r="A92" t="s" s="2">
-        <v>574</v>
+        <v>564</v>
       </c>
       <c r="B92" t="s" s="2">
-        <v>574</v>
+        <v>564</v>
       </c>
       <c r="C92" s="2"/>
       <c r="D92" t="s" s="2">
@@ -13510,13 +13462,13 @@
         <v>85</v>
       </c>
       <c r="K92" t="s" s="2">
-        <v>161</v>
+        <v>565</v>
       </c>
       <c r="L92" t="s" s="2">
-        <v>162</v>
+        <v>566</v>
       </c>
       <c r="M92" t="s" s="2">
-        <v>163</v>
+        <v>567</v>
       </c>
       <c r="N92" s="2"/>
       <c r="O92" s="2"/>
@@ -13567,7 +13519,7 @@
         <v>85</v>
       </c>
       <c r="AF92" t="s" s="2">
-        <v>164</v>
+        <v>564</v>
       </c>
       <c r="AG92" t="s" s="2">
         <v>83</v>
@@ -13576,10 +13528,10 @@
         <v>96</v>
       </c>
       <c r="AI92" t="s" s="2">
-        <v>85</v>
+        <v>568</v>
       </c>
       <c r="AJ92" t="s" s="2">
-        <v>85</v>
+        <v>108</v>
       </c>
       <c r="AK92" t="s" s="2">
         <v>85</v>
@@ -13588,10 +13540,10 @@
         <v>85</v>
       </c>
       <c r="AM92" t="s" s="2">
-        <v>85</v>
+        <v>569</v>
       </c>
       <c r="AN92" t="s" s="2">
-        <v>165</v>
+        <v>570</v>
       </c>
       <c r="AO92" t="s" s="2">
         <v>85</v>
@@ -13602,21 +13554,21 @@
     </row>
     <row r="93">
       <c r="A93" t="s" s="2">
-        <v>575</v>
+        <v>571</v>
       </c>
       <c r="B93" t="s" s="2">
-        <v>575</v>
+        <v>571</v>
       </c>
       <c r="C93" s="2"/>
       <c r="D93" t="s" s="2">
-        <v>168</v>
+        <v>85</v>
       </c>
       <c r="E93" s="2"/>
       <c r="F93" t="s" s="2">
         <v>83</v>
       </c>
       <c r="G93" t="s" s="2">
-        <v>84</v>
+        <v>96</v>
       </c>
       <c r="H93" t="s" s="2">
         <v>85</v>
@@ -13628,17 +13580,15 @@
         <v>85</v>
       </c>
       <c r="K93" t="s" s="2">
-        <v>141</v>
+        <v>565</v>
       </c>
       <c r="L93" t="s" s="2">
-        <v>169</v>
+        <v>572</v>
       </c>
       <c r="M93" t="s" s="2">
-        <v>170</v>
-      </c>
-      <c r="N93" t="s" s="2">
-        <v>171</v>
-      </c>
+        <v>573</v>
+      </c>
+      <c r="N93" s="2"/>
       <c r="O93" s="2"/>
       <c r="P93" t="s" s="2">
         <v>85</v>
@@ -13687,19 +13637,19 @@
         <v>85</v>
       </c>
       <c r="AF93" t="s" s="2">
-        <v>173</v>
+        <v>571</v>
       </c>
       <c r="AG93" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AH93" t="s" s="2">
-        <v>84</v>
+        <v>96</v>
       </c>
       <c r="AI93" t="s" s="2">
-        <v>85</v>
+        <v>568</v>
       </c>
       <c r="AJ93" t="s" s="2">
-        <v>147</v>
+        <v>108</v>
       </c>
       <c r="AK93" t="s" s="2">
         <v>85</v>
@@ -13708,10 +13658,10 @@
         <v>85</v>
       </c>
       <c r="AM93" t="s" s="2">
-        <v>85</v>
+        <v>569</v>
       </c>
       <c r="AN93" t="s" s="2">
-        <v>165</v>
+        <v>574</v>
       </c>
       <c r="AO93" t="s" s="2">
         <v>85</v>
@@ -13722,45 +13672,45 @@
     </row>
     <row r="94">
       <c r="A94" t="s" s="2">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="B94" t="s" s="2">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="C94" s="2"/>
       <c r="D94" t="s" s="2">
-        <v>577</v>
+        <v>85</v>
       </c>
       <c r="E94" s="2"/>
       <c r="F94" t="s" s="2">
         <v>83</v>
       </c>
       <c r="G94" t="s" s="2">
-        <v>84</v>
+        <v>96</v>
       </c>
       <c r="H94" t="s" s="2">
         <v>85</v>
       </c>
       <c r="I94" t="s" s="2">
-        <v>97</v>
+        <v>85</v>
       </c>
       <c r="J94" t="s" s="2">
-        <v>97</v>
+        <v>85</v>
       </c>
       <c r="K94" t="s" s="2">
-        <v>141</v>
+        <v>285</v>
       </c>
       <c r="L94" t="s" s="2">
+        <v>576</v>
+      </c>
+      <c r="M94" t="s" s="2">
+        <v>577</v>
+      </c>
+      <c r="N94" t="s" s="2">
         <v>578</v>
       </c>
-      <c r="M94" t="s" s="2">
+      <c r="O94" t="s" s="2">
         <v>579</v>
-      </c>
-      <c r="N94" t="s" s="2">
-        <v>171</v>
-      </c>
-      <c r="O94" t="s" s="2">
-        <v>242</v>
       </c>
       <c r="P94" t="s" s="2">
         <v>85</v>
@@ -13785,13 +13735,13 @@
         <v>85</v>
       </c>
       <c r="X94" t="s" s="2">
-        <v>85</v>
+        <v>120</v>
       </c>
       <c r="Y94" t="s" s="2">
-        <v>85</v>
+        <v>580</v>
       </c>
       <c r="Z94" t="s" s="2">
-        <v>85</v>
+        <v>581</v>
       </c>
       <c r="AA94" t="s" s="2">
         <v>85</v>
@@ -13809,31 +13759,31 @@
         <v>85</v>
       </c>
       <c r="AF94" t="s" s="2">
-        <v>580</v>
+        <v>575</v>
       </c>
       <c r="AG94" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AH94" t="s" s="2">
-        <v>84</v>
+        <v>96</v>
       </c>
       <c r="AI94" t="s" s="2">
         <v>85</v>
       </c>
       <c r="AJ94" t="s" s="2">
-        <v>147</v>
+        <v>108</v>
       </c>
       <c r="AK94" t="s" s="2">
         <v>85</v>
       </c>
       <c r="AL94" t="s" s="2">
-        <v>85</v>
+        <v>582</v>
       </c>
       <c r="AM94" t="s" s="2">
-        <v>85</v>
+        <v>583</v>
       </c>
       <c r="AN94" t="s" s="2">
-        <v>139</v>
+        <v>500</v>
       </c>
       <c r="AO94" t="s" s="2">
         <v>85</v>
@@ -13844,10 +13794,10 @@
     </row>
     <row r="95">
       <c r="A95" t="s" s="2">
-        <v>581</v>
+        <v>584</v>
       </c>
       <c r="B95" t="s" s="2">
-        <v>581</v>
+        <v>584</v>
       </c>
       <c r="C95" s="2"/>
       <c r="D95" t="s" s="2">
@@ -13858,7 +13808,7 @@
         <v>83</v>
       </c>
       <c r="G95" t="s" s="2">
-        <v>96</v>
+        <v>84</v>
       </c>
       <c r="H95" t="s" s="2">
         <v>85</v>
@@ -13870,16 +13820,20 @@
         <v>85</v>
       </c>
       <c r="K95" t="s" s="2">
-        <v>582</v>
+        <v>285</v>
       </c>
       <c r="L95" t="s" s="2">
-        <v>583</v>
+        <v>585</v>
       </c>
       <c r="M95" t="s" s="2">
-        <v>584</v>
-      </c>
-      <c r="N95" s="2"/>
-      <c r="O95" s="2"/>
+        <v>586</v>
+      </c>
+      <c r="N95" t="s" s="2">
+        <v>587</v>
+      </c>
+      <c r="O95" t="s" s="2">
+        <v>588</v>
+      </c>
       <c r="P95" t="s" s="2">
         <v>85</v>
       </c>
@@ -13903,13 +13857,13 @@
         <v>85</v>
       </c>
       <c r="X95" t="s" s="2">
-        <v>85</v>
+        <v>514</v>
       </c>
       <c r="Y95" t="s" s="2">
-        <v>85</v>
+        <v>589</v>
       </c>
       <c r="Z95" t="s" s="2">
-        <v>85</v>
+        <v>590</v>
       </c>
       <c r="AA95" t="s" s="2">
         <v>85</v>
@@ -13927,16 +13881,16 @@
         <v>85</v>
       </c>
       <c r="AF95" t="s" s="2">
-        <v>581</v>
+        <v>584</v>
       </c>
       <c r="AG95" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AH95" t="s" s="2">
-        <v>96</v>
+        <v>84</v>
       </c>
       <c r="AI95" t="s" s="2">
-        <v>585</v>
+        <v>85</v>
       </c>
       <c r="AJ95" t="s" s="2">
         <v>108</v>
@@ -13945,13 +13899,13 @@
         <v>85</v>
       </c>
       <c r="AL95" t="s" s="2">
-        <v>85</v>
+        <v>582</v>
       </c>
       <c r="AM95" t="s" s="2">
-        <v>586</v>
+        <v>583</v>
       </c>
       <c r="AN95" t="s" s="2">
-        <v>587</v>
+        <v>500</v>
       </c>
       <c r="AO95" t="s" s="2">
         <v>85</v>
@@ -13962,10 +13916,10 @@
     </row>
     <row r="96">
       <c r="A96" t="s" s="2">
-        <v>588</v>
+        <v>591</v>
       </c>
       <c r="B96" t="s" s="2">
-        <v>588</v>
+        <v>591</v>
       </c>
       <c r="C96" s="2"/>
       <c r="D96" t="s" s="2">
@@ -13988,16 +13942,18 @@
         <v>85</v>
       </c>
       <c r="K96" t="s" s="2">
-        <v>582</v>
+        <v>592</v>
       </c>
       <c r="L96" t="s" s="2">
-        <v>589</v>
+        <v>593</v>
       </c>
       <c r="M96" t="s" s="2">
-        <v>590</v>
+        <v>594</v>
       </c>
       <c r="N96" s="2"/>
-      <c r="O96" s="2"/>
+      <c r="O96" t="s" s="2">
+        <v>595</v>
+      </c>
       <c r="P96" t="s" s="2">
         <v>85</v>
       </c>
@@ -14045,7 +14001,7 @@
         <v>85</v>
       </c>
       <c r="AF96" t="s" s="2">
-        <v>588</v>
+        <v>591</v>
       </c>
       <c r="AG96" t="s" s="2">
         <v>83</v>
@@ -14054,7 +14010,7 @@
         <v>96</v>
       </c>
       <c r="AI96" t="s" s="2">
-        <v>585</v>
+        <v>85</v>
       </c>
       <c r="AJ96" t="s" s="2">
         <v>108</v>
@@ -14066,10 +14022,10 @@
         <v>85</v>
       </c>
       <c r="AM96" t="s" s="2">
-        <v>586</v>
+        <v>85</v>
       </c>
       <c r="AN96" t="s" s="2">
-        <v>591</v>
+        <v>596</v>
       </c>
       <c r="AO96" t="s" s="2">
         <v>85</v>
@@ -14080,10 +14036,10 @@
     </row>
     <row r="97">
       <c r="A97" t="s" s="2">
-        <v>592</v>
+        <v>597</v>
       </c>
       <c r="B97" t="s" s="2">
-        <v>592</v>
+        <v>597</v>
       </c>
       <c r="C97" s="2"/>
       <c r="D97" t="s" s="2">
@@ -14106,20 +14062,16 @@
         <v>85</v>
       </c>
       <c r="K97" t="s" s="2">
-        <v>285</v>
+        <v>161</v>
       </c>
       <c r="L97" t="s" s="2">
-        <v>593</v>
+        <v>598</v>
       </c>
       <c r="M97" t="s" s="2">
-        <v>594</v>
-      </c>
-      <c r="N97" t="s" s="2">
-        <v>595</v>
-      </c>
-      <c r="O97" t="s" s="2">
-        <v>596</v>
-      </c>
+        <v>599</v>
+      </c>
+      <c r="N97" s="2"/>
+      <c r="O97" s="2"/>
       <c r="P97" t="s" s="2">
         <v>85</v>
       </c>
@@ -14143,31 +14095,31 @@
         <v>85</v>
       </c>
       <c r="X97" t="s" s="2">
-        <v>120</v>
+        <v>85</v>
       </c>
       <c r="Y97" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="Z97" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="AA97" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="AB97" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="AC97" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="AD97" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="AE97" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="AF97" t="s" s="2">
         <v>597</v>
-      </c>
-      <c r="Z97" t="s" s="2">
-        <v>598</v>
-      </c>
-      <c r="AA97" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="AB97" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="AC97" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="AD97" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="AE97" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="AF97" t="s" s="2">
-        <v>592</v>
       </c>
       <c r="AG97" t="s" s="2">
         <v>83</v>
@@ -14185,13 +14137,13 @@
         <v>85</v>
       </c>
       <c r="AL97" t="s" s="2">
-        <v>599</v>
+        <v>85</v>
       </c>
       <c r="AM97" t="s" s="2">
+        <v>569</v>
+      </c>
+      <c r="AN97" t="s" s="2">
         <v>600</v>
-      </c>
-      <c r="AN97" t="s" s="2">
-        <v>517</v>
       </c>
       <c r="AO97" t="s" s="2">
         <v>85</v>
@@ -14216,7 +14168,7 @@
         <v>83</v>
       </c>
       <c r="G98" t="s" s="2">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="H98" t="s" s="2">
         <v>85</v>
@@ -14225,23 +14177,21 @@
         <v>85</v>
       </c>
       <c r="J98" t="s" s="2">
-        <v>85</v>
+        <v>97</v>
       </c>
       <c r="K98" t="s" s="2">
-        <v>285</v>
+        <v>602</v>
       </c>
       <c r="L98" t="s" s="2">
-        <v>602</v>
+        <v>603</v>
       </c>
       <c r="M98" t="s" s="2">
-        <v>603</v>
+        <v>604</v>
       </c>
       <c r="N98" t="s" s="2">
-        <v>604</v>
-      </c>
-      <c r="O98" t="s" s="2">
         <v>605</v>
       </c>
+      <c r="O98" s="2"/>
       <c r="P98" t="s" s="2">
         <v>85</v>
       </c>
@@ -14265,13 +14215,13 @@
         <v>85</v>
       </c>
       <c r="X98" t="s" s="2">
-        <v>531</v>
+        <v>85</v>
       </c>
       <c r="Y98" t="s" s="2">
-        <v>606</v>
+        <v>85</v>
       </c>
       <c r="Z98" t="s" s="2">
-        <v>607</v>
+        <v>85</v>
       </c>
       <c r="AA98" t="s" s="2">
         <v>85</v>
@@ -14307,13 +14257,13 @@
         <v>85</v>
       </c>
       <c r="AL98" t="s" s="2">
-        <v>599</v>
+        <v>85</v>
       </c>
       <c r="AM98" t="s" s="2">
-        <v>600</v>
+        <v>606</v>
       </c>
       <c r="AN98" t="s" s="2">
-        <v>517</v>
+        <v>607</v>
       </c>
       <c r="AO98" t="s" s="2">
         <v>85</v>
@@ -14338,7 +14288,7 @@
         <v>83</v>
       </c>
       <c r="G99" t="s" s="2">
-        <v>96</v>
+        <v>84</v>
       </c>
       <c r="H99" t="s" s="2">
         <v>85</v>
@@ -14347,7 +14297,7 @@
         <v>85</v>
       </c>
       <c r="J99" t="s" s="2">
-        <v>85</v>
+        <v>97</v>
       </c>
       <c r="K99" t="s" s="2">
         <v>609</v>
@@ -14358,10 +14308,10 @@
       <c r="M99" t="s" s="2">
         <v>611</v>
       </c>
-      <c r="N99" s="2"/>
-      <c r="O99" t="s" s="2">
+      <c r="N99" t="s" s="2">
         <v>612</v>
       </c>
+      <c r="O99" s="2"/>
       <c r="P99" t="s" s="2">
         <v>85</v>
       </c>
@@ -14415,7 +14365,7 @@
         <v>83</v>
       </c>
       <c r="AH99" t="s" s="2">
-        <v>96</v>
+        <v>84</v>
       </c>
       <c r="AI99" t="s" s="2">
         <v>85</v>
@@ -14430,7 +14380,7 @@
         <v>85</v>
       </c>
       <c r="AM99" t="s" s="2">
-        <v>85</v>
+        <v>606</v>
       </c>
       <c r="AN99" t="s" s="2">
         <v>613</v>
@@ -14458,7 +14408,7 @@
         <v>83</v>
       </c>
       <c r="G100" t="s" s="2">
-        <v>96</v>
+        <v>84</v>
       </c>
       <c r="H100" t="s" s="2">
         <v>85</v>
@@ -14467,10 +14417,10 @@
         <v>85</v>
       </c>
       <c r="J100" t="s" s="2">
-        <v>85</v>
+        <v>97</v>
       </c>
       <c r="K100" t="s" s="2">
-        <v>161</v>
+        <v>549</v>
       </c>
       <c r="L100" t="s" s="2">
         <v>615</v>
@@ -14478,8 +14428,12 @@
       <c r="M100" t="s" s="2">
         <v>616</v>
       </c>
-      <c r="N100" s="2"/>
-      <c r="O100" s="2"/>
+      <c r="N100" t="s" s="2">
+        <v>617</v>
+      </c>
+      <c r="O100" t="s" s="2">
+        <v>618</v>
+      </c>
       <c r="P100" t="s" s="2">
         <v>85</v>
       </c>
@@ -14533,7 +14487,7 @@
         <v>83</v>
       </c>
       <c r="AH100" t="s" s="2">
-        <v>96</v>
+        <v>84</v>
       </c>
       <c r="AI100" t="s" s="2">
         <v>85</v>
@@ -14548,10 +14502,10 @@
         <v>85</v>
       </c>
       <c r="AM100" t="s" s="2">
-        <v>586</v>
+        <v>619</v>
       </c>
       <c r="AN100" t="s" s="2">
-        <v>617</v>
+        <v>620</v>
       </c>
       <c r="AO100" t="s" s="2">
         <v>85</v>
@@ -14562,10 +14516,10 @@
     </row>
     <row r="101">
       <c r="A101" t="s" s="2">
-        <v>618</v>
+        <v>621</v>
       </c>
       <c r="B101" t="s" s="2">
-        <v>618</v>
+        <v>621</v>
       </c>
       <c r="C101" s="2"/>
       <c r="D101" t="s" s="2">
@@ -14576,7 +14530,7 @@
         <v>83</v>
       </c>
       <c r="G101" t="s" s="2">
-        <v>83</v>
+        <v>96</v>
       </c>
       <c r="H101" t="s" s="2">
         <v>85</v>
@@ -14585,20 +14539,18 @@
         <v>85</v>
       </c>
       <c r="J101" t="s" s="2">
-        <v>97</v>
+        <v>85</v>
       </c>
       <c r="K101" t="s" s="2">
-        <v>619</v>
+        <v>161</v>
       </c>
       <c r="L101" t="s" s="2">
-        <v>620</v>
+        <v>162</v>
       </c>
       <c r="M101" t="s" s="2">
-        <v>621</v>
-      </c>
-      <c r="N101" t="s" s="2">
-        <v>622</v>
-      </c>
+        <v>163</v>
+      </c>
+      <c r="N101" s="2"/>
       <c r="O101" s="2"/>
       <c r="P101" t="s" s="2">
         <v>85</v>
@@ -14647,19 +14599,19 @@
         <v>85</v>
       </c>
       <c r="AF101" t="s" s="2">
-        <v>618</v>
+        <v>164</v>
       </c>
       <c r="AG101" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AH101" t="s" s="2">
-        <v>84</v>
+        <v>96</v>
       </c>
       <c r="AI101" t="s" s="2">
         <v>85</v>
       </c>
       <c r="AJ101" t="s" s="2">
-        <v>108</v>
+        <v>85</v>
       </c>
       <c r="AK101" t="s" s="2">
         <v>85</v>
@@ -14668,10 +14620,10 @@
         <v>85</v>
       </c>
       <c r="AM101" t="s" s="2">
-        <v>623</v>
+        <v>85</v>
       </c>
       <c r="AN101" t="s" s="2">
-        <v>624</v>
+        <v>165</v>
       </c>
       <c r="AO101" t="s" s="2">
         <v>85</v>
@@ -14682,10 +14634,10 @@
     </row>
     <row r="102">
       <c r="A102" t="s" s="2">
-        <v>625</v>
+        <v>622</v>
       </c>
       <c r="B102" t="s" s="2">
-        <v>625</v>
+        <v>622</v>
       </c>
       <c r="C102" s="2"/>
       <c r="D102" t="s" s="2">
@@ -14705,20 +14657,18 @@
         <v>85</v>
       </c>
       <c r="J102" t="s" s="2">
-        <v>97</v>
+        <v>85</v>
       </c>
       <c r="K102" t="s" s="2">
-        <v>626</v>
+        <v>141</v>
       </c>
       <c r="L102" t="s" s="2">
-        <v>627</v>
+        <v>182</v>
       </c>
       <c r="M102" t="s" s="2">
-        <v>628</v>
-      </c>
-      <c r="N102" t="s" s="2">
-        <v>629</v>
-      </c>
+        <v>177</v>
+      </c>
+      <c r="N102" s="2"/>
       <c r="O102" s="2"/>
       <c r="P102" t="s" s="2">
         <v>85</v>
@@ -14755,19 +14705,17 @@
         <v>85</v>
       </c>
       <c r="AB102" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="AC102" t="s" s="2">
-        <v>85</v>
-      </c>
+        <v>144</v>
+      </c>
+      <c r="AC102" s="2"/>
       <c r="AD102" t="s" s="2">
         <v>85</v>
       </c>
       <c r="AE102" t="s" s="2">
-        <v>85</v>
+        <v>145</v>
       </c>
       <c r="AF102" t="s" s="2">
-        <v>625</v>
+        <v>173</v>
       </c>
       <c r="AG102" t="s" s="2">
         <v>83</v>
@@ -14779,7 +14727,7 @@
         <v>85</v>
       </c>
       <c r="AJ102" t="s" s="2">
-        <v>108</v>
+        <v>147</v>
       </c>
       <c r="AK102" t="s" s="2">
         <v>85</v>
@@ -14788,10 +14736,10 @@
         <v>85</v>
       </c>
       <c r="AM102" t="s" s="2">
-        <v>623</v>
+        <v>85</v>
       </c>
       <c r="AN102" t="s" s="2">
-        <v>630</v>
+        <v>85</v>
       </c>
       <c r="AO102" t="s" s="2">
         <v>85</v>
@@ -14802,12 +14750,14 @@
     </row>
     <row r="103">
       <c r="A103" t="s" s="2">
-        <v>631</v>
+        <v>623</v>
       </c>
       <c r="B103" t="s" s="2">
-        <v>631</v>
-      </c>
-      <c r="C103" s="2"/>
+        <v>622</v>
+      </c>
+      <c r="C103" t="s" s="2">
+        <v>230</v>
+      </c>
       <c r="D103" t="s" s="2">
         <v>85</v>
       </c>
@@ -14816,7 +14766,7 @@
         <v>83</v>
       </c>
       <c r="G103" t="s" s="2">
-        <v>84</v>
+        <v>96</v>
       </c>
       <c r="H103" t="s" s="2">
         <v>85</v>
@@ -14825,23 +14775,19 @@
         <v>85</v>
       </c>
       <c r="J103" t="s" s="2">
-        <v>97</v>
+        <v>85</v>
       </c>
       <c r="K103" t="s" s="2">
-        <v>566</v>
+        <v>231</v>
       </c>
       <c r="L103" t="s" s="2">
-        <v>632</v>
+        <v>232</v>
       </c>
       <c r="M103" t="s" s="2">
-        <v>633</v>
-      </c>
-      <c r="N103" t="s" s="2">
-        <v>634</v>
-      </c>
-      <c r="O103" t="s" s="2">
-        <v>635</v>
-      </c>
+        <v>157</v>
+      </c>
+      <c r="N103" s="2"/>
+      <c r="O103" s="2"/>
       <c r="P103" t="s" s="2">
         <v>85</v>
       </c>
@@ -14889,7 +14835,7 @@
         <v>85</v>
       </c>
       <c r="AF103" t="s" s="2">
-        <v>631</v>
+        <v>173</v>
       </c>
       <c r="AG103" t="s" s="2">
         <v>83</v>
@@ -14898,10 +14844,10 @@
         <v>84</v>
       </c>
       <c r="AI103" t="s" s="2">
-        <v>85</v>
+        <v>158</v>
       </c>
       <c r="AJ103" t="s" s="2">
-        <v>108</v>
+        <v>147</v>
       </c>
       <c r="AK103" t="s" s="2">
         <v>85</v>
@@ -14910,10 +14856,10 @@
         <v>85</v>
       </c>
       <c r="AM103" t="s" s="2">
-        <v>636</v>
+        <v>85</v>
       </c>
       <c r="AN103" t="s" s="2">
-        <v>637</v>
+        <v>139</v>
       </c>
       <c r="AO103" t="s" s="2">
         <v>85</v>
@@ -14924,10 +14870,10 @@
     </row>
     <row r="104">
       <c r="A104" t="s" s="2">
-        <v>638</v>
+        <v>624</v>
       </c>
       <c r="B104" t="s" s="2">
-        <v>638</v>
+        <v>625</v>
       </c>
       <c r="C104" s="2"/>
       <c r="D104" t="s" s="2">
@@ -15042,10 +14988,10 @@
     </row>
     <row r="105">
       <c r="A105" t="s" s="2">
-        <v>639</v>
+        <v>626</v>
       </c>
       <c r="B105" t="s" s="2">
-        <v>639</v>
+        <v>627</v>
       </c>
       <c r="C105" s="2"/>
       <c r="D105" t="s" s="2">
@@ -15056,7 +15002,7 @@
         <v>83</v>
       </c>
       <c r="G105" t="s" s="2">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="H105" t="s" s="2">
         <v>85</v>
@@ -15115,7 +15061,9 @@
       <c r="AB105" t="s" s="2">
         <v>144</v>
       </c>
-      <c r="AC105" s="2"/>
+      <c r="AC105" t="s" s="2">
+        <v>172</v>
+      </c>
       <c r="AD105" t="s" s="2">
         <v>85</v>
       </c>
@@ -15158,20 +15106,18 @@
     </row>
     <row r="106">
       <c r="A106" t="s" s="2">
-        <v>640</v>
+        <v>628</v>
       </c>
       <c r="B106" t="s" s="2">
-        <v>639</v>
-      </c>
-      <c r="C106" t="s" s="2">
-        <v>230</v>
-      </c>
+        <v>629</v>
+      </c>
+      <c r="C106" s="2"/>
       <c r="D106" t="s" s="2">
         <v>85</v>
       </c>
       <c r="E106" s="2"/>
       <c r="F106" t="s" s="2">
-        <v>83</v>
+        <v>96</v>
       </c>
       <c r="G106" t="s" s="2">
         <v>96</v>
@@ -15186,22 +15132,24 @@
         <v>85</v>
       </c>
       <c r="K106" t="s" s="2">
-        <v>231</v>
+        <v>110</v>
       </c>
       <c r="L106" t="s" s="2">
-        <v>232</v>
+        <v>185</v>
       </c>
       <c r="M106" t="s" s="2">
-        <v>157</v>
-      </c>
-      <c r="N106" s="2"/>
+        <v>186</v>
+      </c>
+      <c r="N106" t="s" s="2">
+        <v>187</v>
+      </c>
       <c r="O106" s="2"/>
       <c r="P106" t="s" s="2">
         <v>85</v>
       </c>
       <c r="Q106" s="2"/>
       <c r="R106" t="s" s="2">
-        <v>85</v>
+        <v>236</v>
       </c>
       <c r="S106" t="s" s="2">
         <v>85</v>
@@ -15243,19 +15191,19 @@
         <v>85</v>
       </c>
       <c r="AF106" t="s" s="2">
-        <v>173</v>
+        <v>188</v>
       </c>
       <c r="AG106" t="s" s="2">
-        <v>83</v>
+        <v>96</v>
       </c>
       <c r="AH106" t="s" s="2">
-        <v>84</v>
+        <v>96</v>
       </c>
       <c r="AI106" t="s" s="2">
-        <v>158</v>
+        <v>85</v>
       </c>
       <c r="AJ106" t="s" s="2">
-        <v>147</v>
+        <v>85</v>
       </c>
       <c r="AK106" t="s" s="2">
         <v>85</v>
@@ -15278,10 +15226,10 @@
     </row>
     <row r="107">
       <c r="A107" t="s" s="2">
-        <v>641</v>
+        <v>630</v>
       </c>
       <c r="B107" t="s" s="2">
-        <v>642</v>
+        <v>631</v>
       </c>
       <c r="C107" s="2"/>
       <c r="D107" t="s" s="2">
@@ -15289,7 +15237,7 @@
       </c>
       <c r="E107" s="2"/>
       <c r="F107" t="s" s="2">
-        <v>83</v>
+        <v>96</v>
       </c>
       <c r="G107" t="s" s="2">
         <v>96</v>
@@ -15304,13 +15252,13 @@
         <v>85</v>
       </c>
       <c r="K107" t="s" s="2">
-        <v>161</v>
+        <v>238</v>
       </c>
       <c r="L107" t="s" s="2">
-        <v>162</v>
+        <v>192</v>
       </c>
       <c r="M107" t="s" s="2">
-        <v>163</v>
+        <v>193</v>
       </c>
       <c r="N107" s="2"/>
       <c r="O107" s="2"/>
@@ -15361,7 +15309,7 @@
         <v>85</v>
       </c>
       <c r="AF107" t="s" s="2">
-        <v>164</v>
+        <v>194</v>
       </c>
       <c r="AG107" t="s" s="2">
         <v>83</v>
@@ -15373,7 +15321,7 @@
         <v>85</v>
       </c>
       <c r="AJ107" t="s" s="2">
-        <v>85</v>
+        <v>108</v>
       </c>
       <c r="AK107" t="s" s="2">
         <v>85</v>
@@ -15385,7 +15333,7 @@
         <v>85</v>
       </c>
       <c r="AN107" t="s" s="2">
-        <v>165</v>
+        <v>139</v>
       </c>
       <c r="AO107" t="s" s="2">
         <v>85</v>
@@ -15396,42 +15344,46 @@
     </row>
     <row r="108">
       <c r="A108" t="s" s="2">
-        <v>643</v>
+        <v>632</v>
       </c>
       <c r="B108" t="s" s="2">
-        <v>644</v>
+        <v>632</v>
       </c>
       <c r="C108" s="2"/>
       <c r="D108" t="s" s="2">
-        <v>85</v>
+        <v>560</v>
       </c>
       <c r="E108" s="2"/>
       <c r="F108" t="s" s="2">
         <v>83</v>
       </c>
       <c r="G108" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="H108" t="s" s="2">
         <v>85</v>
       </c>
       <c r="I108" t="s" s="2">
-        <v>85</v>
+        <v>97</v>
       </c>
       <c r="J108" t="s" s="2">
-        <v>85</v>
+        <v>97</v>
       </c>
       <c r="K108" t="s" s="2">
         <v>141</v>
       </c>
       <c r="L108" t="s" s="2">
-        <v>182</v>
+        <v>561</v>
       </c>
       <c r="M108" t="s" s="2">
-        <v>177</v>
-      </c>
-      <c r="N108" s="2"/>
-      <c r="O108" s="2"/>
+        <v>562</v>
+      </c>
+      <c r="N108" t="s" s="2">
+        <v>171</v>
+      </c>
+      <c r="O108" t="s" s="2">
+        <v>242</v>
+      </c>
       <c r="P108" t="s" s="2">
         <v>85</v>
       </c>
@@ -15467,19 +15419,19 @@
         <v>85</v>
       </c>
       <c r="AB108" t="s" s="2">
-        <v>144</v>
+        <v>85</v>
       </c>
       <c r="AC108" t="s" s="2">
-        <v>172</v>
+        <v>85</v>
       </c>
       <c r="AD108" t="s" s="2">
         <v>85</v>
       </c>
       <c r="AE108" t="s" s="2">
-        <v>145</v>
+        <v>85</v>
       </c>
       <c r="AF108" t="s" s="2">
-        <v>173</v>
+        <v>563</v>
       </c>
       <c r="AG108" t="s" s="2">
         <v>83</v>
@@ -15503,7 +15455,7 @@
         <v>85</v>
       </c>
       <c r="AN108" t="s" s="2">
-        <v>85</v>
+        <v>139</v>
       </c>
       <c r="AO108" t="s" s="2">
         <v>85</v>
@@ -15514,10 +15466,10 @@
     </row>
     <row r="109">
       <c r="A109" t="s" s="2">
-        <v>645</v>
+        <v>633</v>
       </c>
       <c r="B109" t="s" s="2">
-        <v>646</v>
+        <v>633</v>
       </c>
       <c r="C109" s="2"/>
       <c r="D109" t="s" s="2">
@@ -15537,27 +15489,29 @@
         <v>85</v>
       </c>
       <c r="J109" t="s" s="2">
-        <v>85</v>
+        <v>97</v>
       </c>
       <c r="K109" t="s" s="2">
-        <v>110</v>
+        <v>285</v>
       </c>
       <c r="L109" t="s" s="2">
-        <v>185</v>
+        <v>634</v>
       </c>
       <c r="M109" t="s" s="2">
-        <v>186</v>
+        <v>635</v>
       </c>
       <c r="N109" t="s" s="2">
-        <v>187</v>
-      </c>
-      <c r="O109" s="2"/>
+        <v>636</v>
+      </c>
+      <c r="O109" t="s" s="2">
+        <v>315</v>
+      </c>
       <c r="P109" t="s" s="2">
         <v>85</v>
       </c>
       <c r="Q109" s="2"/>
       <c r="R109" t="s" s="2">
-        <v>236</v>
+        <v>85</v>
       </c>
       <c r="S109" t="s" s="2">
         <v>85</v>
@@ -15575,13 +15529,13 @@
         <v>85</v>
       </c>
       <c r="X109" t="s" s="2">
-        <v>85</v>
+        <v>514</v>
       </c>
       <c r="Y109" t="s" s="2">
-        <v>85</v>
+        <v>637</v>
       </c>
       <c r="Z109" t="s" s="2">
-        <v>85</v>
+        <v>638</v>
       </c>
       <c r="AA109" t="s" s="2">
         <v>85</v>
@@ -15599,7 +15553,7 @@
         <v>85</v>
       </c>
       <c r="AF109" t="s" s="2">
-        <v>188</v>
+        <v>633</v>
       </c>
       <c r="AG109" t="s" s="2">
         <v>96</v>
@@ -15611,22 +15565,22 @@
         <v>85</v>
       </c>
       <c r="AJ109" t="s" s="2">
-        <v>85</v>
+        <v>108</v>
       </c>
       <c r="AK109" t="s" s="2">
         <v>85</v>
       </c>
       <c r="AL109" t="s" s="2">
-        <v>85</v>
+        <v>639</v>
       </c>
       <c r="AM109" t="s" s="2">
-        <v>85</v>
+        <v>320</v>
       </c>
       <c r="AN109" t="s" s="2">
-        <v>139</v>
+        <v>321</v>
       </c>
       <c r="AO109" t="s" s="2">
-        <v>85</v>
+        <v>322</v>
       </c>
       <c r="AP109" t="s" s="2">
         <v>85</v>
@@ -15634,10 +15588,10 @@
     </row>
     <row r="110">
       <c r="A110" t="s" s="2">
-        <v>647</v>
+        <v>640</v>
       </c>
       <c r="B110" t="s" s="2">
-        <v>648</v>
+        <v>640</v>
       </c>
       <c r="C110" s="2"/>
       <c r="D110" t="s" s="2">
@@ -15645,7 +15599,7 @@
       </c>
       <c r="E110" s="2"/>
       <c r="F110" t="s" s="2">
-        <v>96</v>
+        <v>83</v>
       </c>
       <c r="G110" t="s" s="2">
         <v>96</v>
@@ -15657,19 +15611,23 @@
         <v>85</v>
       </c>
       <c r="J110" t="s" s="2">
-        <v>85</v>
+        <v>97</v>
       </c>
       <c r="K110" t="s" s="2">
-        <v>238</v>
+        <v>427</v>
       </c>
       <c r="L110" t="s" s="2">
-        <v>192</v>
+        <v>641</v>
       </c>
       <c r="M110" t="s" s="2">
-        <v>193</v>
-      </c>
-      <c r="N110" s="2"/>
-      <c r="O110" s="2"/>
+        <v>429</v>
+      </c>
+      <c r="N110" t="s" s="2">
+        <v>642</v>
+      </c>
+      <c r="O110" t="s" s="2">
+        <v>431</v>
+      </c>
       <c r="P110" t="s" s="2">
         <v>85</v>
       </c>
@@ -15705,19 +15663,17 @@
         <v>85</v>
       </c>
       <c r="AB110" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="AC110" t="s" s="2">
-        <v>85</v>
-      </c>
+        <v>432</v>
+      </c>
+      <c r="AC110" s="2"/>
       <c r="AD110" t="s" s="2">
         <v>85</v>
       </c>
       <c r="AE110" t="s" s="2">
-        <v>85</v>
+        <v>145</v>
       </c>
       <c r="AF110" t="s" s="2">
-        <v>194</v>
+        <v>640</v>
       </c>
       <c r="AG110" t="s" s="2">
         <v>83</v>
@@ -15735,62 +15691,64 @@
         <v>85</v>
       </c>
       <c r="AL110" t="s" s="2">
-        <v>85</v>
+        <v>643</v>
       </c>
       <c r="AM110" t="s" s="2">
-        <v>85</v>
+        <v>435</v>
       </c>
       <c r="AN110" t="s" s="2">
-        <v>139</v>
+        <v>436</v>
       </c>
       <c r="AO110" t="s" s="2">
         <v>85</v>
       </c>
       <c r="AP110" t="s" s="2">
-        <v>85</v>
+        <v>437</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="s" s="2">
-        <v>649</v>
+        <v>644</v>
       </c>
       <c r="B111" t="s" s="2">
-        <v>649</v>
-      </c>
-      <c r="C111" s="2"/>
+        <v>640</v>
+      </c>
+      <c r="C111" t="s" s="2">
+        <v>439</v>
+      </c>
       <c r="D111" t="s" s="2">
-        <v>577</v>
+        <v>85</v>
       </c>
       <c r="E111" s="2"/>
       <c r="F111" t="s" s="2">
         <v>83</v>
       </c>
       <c r="G111" t="s" s="2">
-        <v>84</v>
+        <v>96</v>
       </c>
       <c r="H111" t="s" s="2">
         <v>85</v>
       </c>
       <c r="I111" t="s" s="2">
-        <v>97</v>
+        <v>85</v>
       </c>
       <c r="J111" t="s" s="2">
         <v>97</v>
       </c>
       <c r="K111" t="s" s="2">
-        <v>141</v>
+        <v>161</v>
       </c>
       <c r="L111" t="s" s="2">
-        <v>578</v>
+        <v>641</v>
       </c>
       <c r="M111" t="s" s="2">
-        <v>579</v>
+        <v>429</v>
       </c>
       <c r="N111" t="s" s="2">
-        <v>171</v>
+        <v>642</v>
       </c>
       <c r="O111" t="s" s="2">
-        <v>242</v>
+        <v>431</v>
       </c>
       <c r="P111" t="s" s="2">
         <v>85</v>
@@ -15839,53 +15797,55 @@
         <v>85</v>
       </c>
       <c r="AF111" t="s" s="2">
-        <v>580</v>
+        <v>640</v>
       </c>
       <c r="AG111" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AH111" t="s" s="2">
-        <v>84</v>
+        <v>96</v>
       </c>
       <c r="AI111" t="s" s="2">
         <v>85</v>
       </c>
       <c r="AJ111" t="s" s="2">
-        <v>147</v>
+        <v>108</v>
       </c>
       <c r="AK111" t="s" s="2">
         <v>85</v>
       </c>
       <c r="AL111" t="s" s="2">
-        <v>85</v>
+        <v>643</v>
       </c>
       <c r="AM111" t="s" s="2">
-        <v>85</v>
+        <v>435</v>
       </c>
       <c r="AN111" t="s" s="2">
-        <v>139</v>
+        <v>436</v>
       </c>
       <c r="AO111" t="s" s="2">
         <v>85</v>
       </c>
       <c r="AP111" t="s" s="2">
-        <v>85</v>
+        <v>437</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="s" s="2">
-        <v>650</v>
+        <v>645</v>
       </c>
       <c r="B112" t="s" s="2">
-        <v>650</v>
-      </c>
-      <c r="C112" s="2"/>
+        <v>640</v>
+      </c>
+      <c r="C112" t="s" s="2">
+        <v>441</v>
+      </c>
       <c r="D112" t="s" s="2">
         <v>85</v>
       </c>
       <c r="E112" s="2"/>
       <c r="F112" t="s" s="2">
-        <v>96</v>
+        <v>83</v>
       </c>
       <c r="G112" t="s" s="2">
         <v>96</v>
@@ -15900,19 +15860,19 @@
         <v>97</v>
       </c>
       <c r="K112" t="s" s="2">
-        <v>285</v>
+        <v>442</v>
       </c>
       <c r="L112" t="s" s="2">
-        <v>651</v>
+        <v>641</v>
       </c>
       <c r="M112" t="s" s="2">
-        <v>652</v>
+        <v>429</v>
       </c>
       <c r="N112" t="s" s="2">
-        <v>653</v>
+        <v>642</v>
       </c>
       <c r="O112" t="s" s="2">
-        <v>315</v>
+        <v>431</v>
       </c>
       <c r="P112" t="s" s="2">
         <v>85</v>
@@ -15937,13 +15897,13 @@
         <v>85</v>
       </c>
       <c r="X112" t="s" s="2">
-        <v>531</v>
+        <v>85</v>
       </c>
       <c r="Y112" t="s" s="2">
-        <v>654</v>
+        <v>85</v>
       </c>
       <c r="Z112" t="s" s="2">
-        <v>655</v>
+        <v>85</v>
       </c>
       <c r="AA112" t="s" s="2">
         <v>85</v>
@@ -15961,10 +15921,10 @@
         <v>85</v>
       </c>
       <c r="AF112" t="s" s="2">
-        <v>650</v>
+        <v>640</v>
       </c>
       <c r="AG112" t="s" s="2">
-        <v>96</v>
+        <v>83</v>
       </c>
       <c r="AH112" t="s" s="2">
         <v>96</v>
@@ -15979,29 +15939,31 @@
         <v>85</v>
       </c>
       <c r="AL112" t="s" s="2">
-        <v>656</v>
+        <v>643</v>
       </c>
       <c r="AM112" t="s" s="2">
-        <v>320</v>
+        <v>435</v>
       </c>
       <c r="AN112" t="s" s="2">
-        <v>321</v>
+        <v>436</v>
       </c>
       <c r="AO112" t="s" s="2">
-        <v>322</v>
+        <v>85</v>
       </c>
       <c r="AP112" t="s" s="2">
-        <v>85</v>
+        <v>437</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="s" s="2">
-        <v>657</v>
+        <v>646</v>
       </c>
       <c r="B113" t="s" s="2">
-        <v>657</v>
-      </c>
-      <c r="C113" s="2"/>
+        <v>640</v>
+      </c>
+      <c r="C113" t="s" s="2">
+        <v>444</v>
+      </c>
       <c r="D113" t="s" s="2">
         <v>85</v>
       </c>
@@ -16019,22 +15981,22 @@
         <v>85</v>
       </c>
       <c r="J113" t="s" s="2">
-        <v>97</v>
+        <v>85</v>
       </c>
       <c r="K113" t="s" s="2">
+        <v>445</v>
+      </c>
+      <c r="L113" t="s" s="2">
+        <v>446</v>
+      </c>
+      <c r="M113" t="s" s="2">
         <v>447</v>
       </c>
-      <c r="L113" t="s" s="2">
-        <v>658</v>
-      </c>
-      <c r="M113" t="s" s="2">
-        <v>449</v>
-      </c>
       <c r="N113" t="s" s="2">
-        <v>659</v>
+        <v>448</v>
       </c>
       <c r="O113" t="s" s="2">
-        <v>451</v>
+        <v>431</v>
       </c>
       <c r="P113" t="s" s="2">
         <v>85</v>
@@ -16071,17 +16033,19 @@
         <v>85</v>
       </c>
       <c r="AB113" t="s" s="2">
-        <v>452</v>
-      </c>
-      <c r="AC113" s="2"/>
+        <v>85</v>
+      </c>
+      <c r="AC113" t="s" s="2">
+        <v>85</v>
+      </c>
       <c r="AD113" t="s" s="2">
         <v>85</v>
       </c>
       <c r="AE113" t="s" s="2">
-        <v>145</v>
+        <v>85</v>
       </c>
       <c r="AF113" t="s" s="2">
-        <v>657</v>
+        <v>640</v>
       </c>
       <c r="AG113" t="s" s="2">
         <v>83</v>
@@ -16090,39 +16054,39 @@
         <v>96</v>
       </c>
       <c r="AI113" t="s" s="2">
-        <v>85</v>
+        <v>158</v>
       </c>
       <c r="AJ113" t="s" s="2">
-        <v>108</v>
+        <v>449</v>
       </c>
       <c r="AK113" t="s" s="2">
         <v>85</v>
       </c>
       <c r="AL113" t="s" s="2">
-        <v>660</v>
+        <v>85</v>
       </c>
       <c r="AM113" t="s" s="2">
-        <v>455</v>
+        <v>450</v>
       </c>
       <c r="AN113" t="s" s="2">
-        <v>456</v>
+        <v>451</v>
       </c>
       <c r="AO113" t="s" s="2">
         <v>85</v>
       </c>
       <c r="AP113" t="s" s="2">
-        <v>457</v>
+        <v>85</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="s" s="2">
-        <v>661</v>
+        <v>647</v>
       </c>
       <c r="B114" t="s" s="2">
-        <v>657</v>
+        <v>640</v>
       </c>
       <c r="C114" t="s" s="2">
-        <v>459</v>
+        <v>453</v>
       </c>
       <c r="D114" t="s" s="2">
         <v>85</v>
@@ -16141,22 +16105,22 @@
         <v>85</v>
       </c>
       <c r="J114" t="s" s="2">
-        <v>97</v>
+        <v>85</v>
       </c>
       <c r="K114" t="s" s="2">
-        <v>161</v>
+        <v>454</v>
       </c>
       <c r="L114" t="s" s="2">
-        <v>658</v>
+        <v>455</v>
       </c>
       <c r="M114" t="s" s="2">
-        <v>449</v>
+        <v>456</v>
       </c>
       <c r="N114" t="s" s="2">
-        <v>659</v>
+        <v>457</v>
       </c>
       <c r="O114" t="s" s="2">
-        <v>451</v>
+        <v>431</v>
       </c>
       <c r="P114" t="s" s="2">
         <v>85</v>
@@ -16205,7 +16169,7 @@
         <v>85</v>
       </c>
       <c r="AF114" t="s" s="2">
-        <v>657</v>
+        <v>640</v>
       </c>
       <c r="AG114" t="s" s="2">
         <v>83</v>
@@ -16214,36 +16178,36 @@
         <v>96</v>
       </c>
       <c r="AI114" t="s" s="2">
-        <v>85</v>
+        <v>158</v>
       </c>
       <c r="AJ114" t="s" s="2">
-        <v>108</v>
+        <v>458</v>
       </c>
       <c r="AK114" t="s" s="2">
         <v>85</v>
       </c>
       <c r="AL114" t="s" s="2">
-        <v>660</v>
+        <v>85</v>
       </c>
       <c r="AM114" t="s" s="2">
-        <v>455</v>
+        <v>139</v>
       </c>
       <c r="AN114" t="s" s="2">
-        <v>456</v>
+        <v>459</v>
       </c>
       <c r="AO114" t="s" s="2">
         <v>85</v>
       </c>
       <c r="AP114" t="s" s="2">
-        <v>457</v>
+        <v>85</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="s" s="2">
-        <v>662</v>
+        <v>648</v>
       </c>
       <c r="B115" t="s" s="2">
-        <v>657</v>
+        <v>640</v>
       </c>
       <c r="C115" t="s" s="2">
         <v>461</v>
@@ -16265,22 +16229,22 @@
         <v>85</v>
       </c>
       <c r="J115" t="s" s="2">
-        <v>85</v>
+        <v>97</v>
       </c>
       <c r="K115" t="s" s="2">
         <v>462</v>
       </c>
       <c r="L115" t="s" s="2">
-        <v>463</v>
+        <v>641</v>
       </c>
       <c r="M115" t="s" s="2">
-        <v>464</v>
+        <v>429</v>
       </c>
       <c r="N115" t="s" s="2">
-        <v>465</v>
+        <v>642</v>
       </c>
       <c r="O115" t="s" s="2">
-        <v>451</v>
+        <v>431</v>
       </c>
       <c r="P115" t="s" s="2">
         <v>85</v>
@@ -16329,7 +16293,7 @@
         <v>85</v>
       </c>
       <c r="AF115" t="s" s="2">
-        <v>657</v>
+        <v>640</v>
       </c>
       <c r="AG115" t="s" s="2">
         <v>83</v>
@@ -16338,39 +16302,39 @@
         <v>96</v>
       </c>
       <c r="AI115" t="s" s="2">
-        <v>158</v>
+        <v>85</v>
       </c>
       <c r="AJ115" t="s" s="2">
-        <v>466</v>
+        <v>108</v>
       </c>
       <c r="AK115" t="s" s="2">
         <v>85</v>
       </c>
       <c r="AL115" t="s" s="2">
-        <v>85</v>
+        <v>643</v>
       </c>
       <c r="AM115" t="s" s="2">
-        <v>467</v>
+        <v>435</v>
       </c>
       <c r="AN115" t="s" s="2">
-        <v>468</v>
+        <v>436</v>
       </c>
       <c r="AO115" t="s" s="2">
         <v>85</v>
       </c>
       <c r="AP115" t="s" s="2">
-        <v>85</v>
+        <v>437</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="s" s="2">
-        <v>663</v>
+        <v>649</v>
       </c>
       <c r="B116" t="s" s="2">
-        <v>657</v>
+        <v>640</v>
       </c>
       <c r="C116" t="s" s="2">
-        <v>470</v>
+        <v>464</v>
       </c>
       <c r="D116" t="s" s="2">
         <v>85</v>
@@ -16389,22 +16353,22 @@
         <v>85</v>
       </c>
       <c r="J116" t="s" s="2">
-        <v>85</v>
+        <v>97</v>
       </c>
       <c r="K116" t="s" s="2">
-        <v>471</v>
+        <v>465</v>
       </c>
       <c r="L116" t="s" s="2">
-        <v>472</v>
+        <v>641</v>
       </c>
       <c r="M116" t="s" s="2">
-        <v>473</v>
+        <v>429</v>
       </c>
       <c r="N116" t="s" s="2">
-        <v>474</v>
+        <v>642</v>
       </c>
       <c r="O116" t="s" s="2">
-        <v>451</v>
+        <v>431</v>
       </c>
       <c r="P116" t="s" s="2">
         <v>85</v>
@@ -16453,7 +16417,7 @@
         <v>85</v>
       </c>
       <c r="AF116" t="s" s="2">
-        <v>657</v>
+        <v>640</v>
       </c>
       <c r="AG116" t="s" s="2">
         <v>83</v>
@@ -16462,39 +16426,39 @@
         <v>96</v>
       </c>
       <c r="AI116" t="s" s="2">
-        <v>158</v>
+        <v>85</v>
       </c>
       <c r="AJ116" t="s" s="2">
-        <v>475</v>
+        <v>108</v>
       </c>
       <c r="AK116" t="s" s="2">
         <v>85</v>
       </c>
       <c r="AL116" t="s" s="2">
-        <v>85</v>
+        <v>643</v>
       </c>
       <c r="AM116" t="s" s="2">
-        <v>139</v>
+        <v>435</v>
       </c>
       <c r="AN116" t="s" s="2">
-        <v>476</v>
+        <v>436</v>
       </c>
       <c r="AO116" t="s" s="2">
         <v>85</v>
       </c>
       <c r="AP116" t="s" s="2">
-        <v>85</v>
+        <v>437</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="s" s="2">
-        <v>664</v>
+        <v>650</v>
       </c>
       <c r="B117" t="s" s="2">
-        <v>657</v>
+        <v>640</v>
       </c>
       <c r="C117" t="s" s="2">
-        <v>478</v>
+        <v>467</v>
       </c>
       <c r="D117" t="s" s="2">
         <v>85</v>
@@ -16516,19 +16480,19 @@
         <v>97</v>
       </c>
       <c r="K117" t="s" s="2">
-        <v>479</v>
+        <v>468</v>
       </c>
       <c r="L117" t="s" s="2">
-        <v>658</v>
+        <v>641</v>
       </c>
       <c r="M117" t="s" s="2">
-        <v>449</v>
+        <v>429</v>
       </c>
       <c r="N117" t="s" s="2">
-        <v>659</v>
+        <v>642</v>
       </c>
       <c r="O117" t="s" s="2">
-        <v>451</v>
+        <v>431</v>
       </c>
       <c r="P117" t="s" s="2">
         <v>85</v>
@@ -16577,7 +16541,7 @@
         <v>85</v>
       </c>
       <c r="AF117" t="s" s="2">
-        <v>657</v>
+        <v>640</v>
       </c>
       <c r="AG117" t="s" s="2">
         <v>83</v>
@@ -16595,30 +16559,30 @@
         <v>85</v>
       </c>
       <c r="AL117" t="s" s="2">
-        <v>660</v>
+        <v>643</v>
       </c>
       <c r="AM117" t="s" s="2">
-        <v>455</v>
+        <v>435</v>
       </c>
       <c r="AN117" t="s" s="2">
-        <v>456</v>
+        <v>436</v>
       </c>
       <c r="AO117" t="s" s="2">
         <v>85</v>
       </c>
       <c r="AP117" t="s" s="2">
-        <v>457</v>
+        <v>437</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="s" s="2">
-        <v>665</v>
+        <v>651</v>
       </c>
       <c r="B118" t="s" s="2">
-        <v>657</v>
+        <v>640</v>
       </c>
       <c r="C118" t="s" s="2">
-        <v>481</v>
+        <v>470</v>
       </c>
       <c r="D118" t="s" s="2">
         <v>85</v>
@@ -16637,22 +16601,22 @@
         <v>85</v>
       </c>
       <c r="J118" t="s" s="2">
-        <v>97</v>
+        <v>85</v>
       </c>
       <c r="K118" t="s" s="2">
-        <v>482</v>
+        <v>471</v>
       </c>
       <c r="L118" t="s" s="2">
-        <v>658</v>
+        <v>472</v>
       </c>
       <c r="M118" t="s" s="2">
-        <v>449</v>
+        <v>473</v>
       </c>
       <c r="N118" t="s" s="2">
-        <v>659</v>
+        <v>474</v>
       </c>
       <c r="O118" t="s" s="2">
-        <v>451</v>
+        <v>431</v>
       </c>
       <c r="P118" t="s" s="2">
         <v>85</v>
@@ -16701,7 +16665,7 @@
         <v>85</v>
       </c>
       <c r="AF118" t="s" s="2">
-        <v>657</v>
+        <v>640</v>
       </c>
       <c r="AG118" t="s" s="2">
         <v>83</v>
@@ -16710,39 +16674,39 @@
         <v>96</v>
       </c>
       <c r="AI118" t="s" s="2">
-        <v>85</v>
+        <v>158</v>
       </c>
       <c r="AJ118" t="s" s="2">
-        <v>108</v>
+        <v>475</v>
       </c>
       <c r="AK118" t="s" s="2">
         <v>85</v>
       </c>
       <c r="AL118" t="s" s="2">
-        <v>660</v>
+        <v>85</v>
       </c>
       <c r="AM118" t="s" s="2">
-        <v>455</v>
+        <v>476</v>
       </c>
       <c r="AN118" t="s" s="2">
-        <v>456</v>
+        <v>477</v>
       </c>
       <c r="AO118" t="s" s="2">
         <v>85</v>
       </c>
       <c r="AP118" t="s" s="2">
-        <v>457</v>
+        <v>85</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="s" s="2">
-        <v>666</v>
+        <v>652</v>
       </c>
       <c r="B119" t="s" s="2">
-        <v>657</v>
+        <v>640</v>
       </c>
       <c r="C119" t="s" s="2">
-        <v>484</v>
+        <v>479</v>
       </c>
       <c r="D119" t="s" s="2">
         <v>85</v>
@@ -16764,19 +16728,19 @@
         <v>97</v>
       </c>
       <c r="K119" t="s" s="2">
-        <v>485</v>
+        <v>285</v>
       </c>
       <c r="L119" t="s" s="2">
-        <v>658</v>
+        <v>641</v>
       </c>
       <c r="M119" t="s" s="2">
-        <v>449</v>
+        <v>429</v>
       </c>
       <c r="N119" t="s" s="2">
-        <v>659</v>
+        <v>642</v>
       </c>
       <c r="O119" t="s" s="2">
-        <v>451</v>
+        <v>431</v>
       </c>
       <c r="P119" t="s" s="2">
         <v>85</v>
@@ -16801,13 +16765,11 @@
         <v>85</v>
       </c>
       <c r="X119" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="Y119" t="s" s="2">
-        <v>85</v>
-      </c>
+        <v>120</v>
+      </c>
+      <c r="Y119" s="2"/>
       <c r="Z119" t="s" s="2">
-        <v>85</v>
+        <v>480</v>
       </c>
       <c r="AA119" t="s" s="2">
         <v>85</v>
@@ -16825,7 +16787,7 @@
         <v>85</v>
       </c>
       <c r="AF119" t="s" s="2">
-        <v>657</v>
+        <v>640</v>
       </c>
       <c r="AG119" t="s" s="2">
         <v>83</v>
@@ -16843,31 +16805,29 @@
         <v>85</v>
       </c>
       <c r="AL119" t="s" s="2">
-        <v>660</v>
+        <v>643</v>
       </c>
       <c r="AM119" t="s" s="2">
-        <v>455</v>
+        <v>435</v>
       </c>
       <c r="AN119" t="s" s="2">
-        <v>456</v>
+        <v>436</v>
       </c>
       <c r="AO119" t="s" s="2">
         <v>85</v>
       </c>
       <c r="AP119" t="s" s="2">
-        <v>457</v>
+        <v>437</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="s" s="2">
-        <v>667</v>
+        <v>653</v>
       </c>
       <c r="B120" t="s" s="2">
-        <v>657</v>
-      </c>
-      <c r="C120" t="s" s="2">
-        <v>487</v>
-      </c>
+        <v>653</v>
+      </c>
+      <c r="C120" s="2"/>
       <c r="D120" t="s" s="2">
         <v>85</v>
       </c>
@@ -16888,19 +16848,19 @@
         <v>85</v>
       </c>
       <c r="K120" t="s" s="2">
-        <v>488</v>
+        <v>285</v>
       </c>
       <c r="L120" t="s" s="2">
-        <v>489</v>
+        <v>654</v>
       </c>
       <c r="M120" t="s" s="2">
-        <v>490</v>
+        <v>655</v>
       </c>
       <c r="N120" t="s" s="2">
-        <v>491</v>
+        <v>656</v>
       </c>
       <c r="O120" t="s" s="2">
-        <v>451</v>
+        <v>485</v>
       </c>
       <c r="P120" t="s" s="2">
         <v>85</v>
@@ -16925,13 +16885,13 @@
         <v>85</v>
       </c>
       <c r="X120" t="s" s="2">
-        <v>85</v>
+        <v>346</v>
       </c>
       <c r="Y120" t="s" s="2">
-        <v>85</v>
+        <v>486</v>
       </c>
       <c r="Z120" t="s" s="2">
-        <v>85</v>
+        <v>487</v>
       </c>
       <c r="AA120" t="s" s="2">
         <v>85</v>
@@ -16949,7 +16909,7 @@
         <v>85</v>
       </c>
       <c r="AF120" t="s" s="2">
-        <v>657</v>
+        <v>653</v>
       </c>
       <c r="AG120" t="s" s="2">
         <v>83</v>
@@ -16958,10 +16918,10 @@
         <v>96</v>
       </c>
       <c r="AI120" t="s" s="2">
-        <v>158</v>
+        <v>488</v>
       </c>
       <c r="AJ120" t="s" s="2">
-        <v>492</v>
+        <v>108</v>
       </c>
       <c r="AK120" t="s" s="2">
         <v>85</v>
@@ -16970,10 +16930,10 @@
         <v>85</v>
       </c>
       <c r="AM120" t="s" s="2">
-        <v>493</v>
+        <v>139</v>
       </c>
       <c r="AN120" t="s" s="2">
-        <v>494</v>
+        <v>489</v>
       </c>
       <c r="AO120" t="s" s="2">
         <v>85</v>
@@ -16984,23 +16944,21 @@
     </row>
     <row r="121">
       <c r="A121" t="s" s="2">
-        <v>668</v>
+        <v>657</v>
       </c>
       <c r="B121" t="s" s="2">
         <v>657</v>
       </c>
-      <c r="C121" t="s" s="2">
-        <v>496</v>
-      </c>
+      <c r="C121" s="2"/>
       <c r="D121" t="s" s="2">
-        <v>85</v>
+        <v>491</v>
       </c>
       <c r="E121" s="2"/>
       <c r="F121" t="s" s="2">
         <v>83</v>
       </c>
       <c r="G121" t="s" s="2">
-        <v>96</v>
+        <v>84</v>
       </c>
       <c r="H121" t="s" s="2">
         <v>85</v>
@@ -17009,22 +16967,22 @@
         <v>85</v>
       </c>
       <c r="J121" t="s" s="2">
-        <v>97</v>
+        <v>85</v>
       </c>
       <c r="K121" t="s" s="2">
         <v>285</v>
       </c>
       <c r="L121" t="s" s="2">
-        <v>658</v>
+        <v>492</v>
       </c>
       <c r="M121" t="s" s="2">
-        <v>449</v>
+        <v>493</v>
       </c>
       <c r="N121" t="s" s="2">
-        <v>659</v>
+        <v>494</v>
       </c>
       <c r="O121" t="s" s="2">
-        <v>451</v>
+        <v>495</v>
       </c>
       <c r="P121" t="s" s="2">
         <v>85</v>
@@ -17049,9 +17007,11 @@
         <v>85</v>
       </c>
       <c r="X121" t="s" s="2">
-        <v>120</v>
-      </c>
-      <c r="Y121" s="2"/>
+        <v>346</v>
+      </c>
+      <c r="Y121" t="s" s="2">
+        <v>496</v>
+      </c>
       <c r="Z121" t="s" s="2">
         <v>497</v>
       </c>
@@ -17077,7 +17037,7 @@
         <v>83</v>
       </c>
       <c r="AH121" t="s" s="2">
-        <v>96</v>
+        <v>84</v>
       </c>
       <c r="AI121" t="s" s="2">
         <v>85</v>
@@ -17089,27 +17049,27 @@
         <v>85</v>
       </c>
       <c r="AL121" t="s" s="2">
-        <v>660</v>
+        <v>498</v>
       </c>
       <c r="AM121" t="s" s="2">
-        <v>455</v>
+        <v>499</v>
       </c>
       <c r="AN121" t="s" s="2">
-        <v>456</v>
+        <v>500</v>
       </c>
       <c r="AO121" t="s" s="2">
         <v>85</v>
       </c>
       <c r="AP121" t="s" s="2">
-        <v>457</v>
+        <v>501</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="s" s="2">
-        <v>669</v>
+        <v>658</v>
       </c>
       <c r="B122" t="s" s="2">
-        <v>669</v>
+        <v>658</v>
       </c>
       <c r="C122" s="2"/>
       <c r="D122" t="s" s="2">
@@ -17120,7 +17080,7 @@
         <v>83</v>
       </c>
       <c r="G122" t="s" s="2">
-        <v>96</v>
+        <v>84</v>
       </c>
       <c r="H122" t="s" s="2">
         <v>85</v>
@@ -17132,19 +17092,19 @@
         <v>85</v>
       </c>
       <c r="K122" t="s" s="2">
-        <v>285</v>
+        <v>86</v>
       </c>
       <c r="L122" t="s" s="2">
-        <v>670</v>
+        <v>659</v>
       </c>
       <c r="M122" t="s" s="2">
-        <v>671</v>
+        <v>660</v>
       </c>
       <c r="N122" t="s" s="2">
-        <v>672</v>
+        <v>552</v>
       </c>
       <c r="O122" t="s" s="2">
-        <v>502</v>
+        <v>553</v>
       </c>
       <c r="P122" t="s" s="2">
         <v>85</v>
@@ -17169,13 +17129,13 @@
         <v>85</v>
       </c>
       <c r="X122" t="s" s="2">
-        <v>366</v>
+        <v>85</v>
       </c>
       <c r="Y122" t="s" s="2">
-        <v>503</v>
+        <v>85</v>
       </c>
       <c r="Z122" t="s" s="2">
-        <v>504</v>
+        <v>85</v>
       </c>
       <c r="AA122" t="s" s="2">
         <v>85</v>
@@ -17193,16 +17153,16 @@
         <v>85</v>
       </c>
       <c r="AF122" t="s" s="2">
-        <v>669</v>
+        <v>658</v>
       </c>
       <c r="AG122" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AH122" t="s" s="2">
-        <v>96</v>
+        <v>84</v>
       </c>
       <c r="AI122" t="s" s="2">
-        <v>505</v>
+        <v>85</v>
       </c>
       <c r="AJ122" t="s" s="2">
         <v>108</v>
@@ -17214,259 +17174,15 @@
         <v>85</v>
       </c>
       <c r="AM122" t="s" s="2">
-        <v>139</v>
+        <v>555</v>
       </c>
       <c r="AN122" t="s" s="2">
-        <v>506</v>
+        <v>556</v>
       </c>
       <c r="AO122" t="s" s="2">
         <v>85</v>
       </c>
       <c r="AP122" t="s" s="2">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="123">
-      <c r="A123" t="s" s="2">
-        <v>673</v>
-      </c>
-      <c r="B123" t="s" s="2">
-        <v>673</v>
-      </c>
-      <c r="C123" s="2"/>
-      <c r="D123" t="s" s="2">
-        <v>508</v>
-      </c>
-      <c r="E123" s="2"/>
-      <c r="F123" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="G123" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="H123" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="I123" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="J123" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="K123" t="s" s="2">
-        <v>285</v>
-      </c>
-      <c r="L123" t="s" s="2">
-        <v>509</v>
-      </c>
-      <c r="M123" t="s" s="2">
-        <v>510</v>
-      </c>
-      <c r="N123" t="s" s="2">
-        <v>511</v>
-      </c>
-      <c r="O123" t="s" s="2">
-        <v>512</v>
-      </c>
-      <c r="P123" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="Q123" s="2"/>
-      <c r="R123" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="S123" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="T123" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="U123" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="V123" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="W123" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="X123" t="s" s="2">
-        <v>366</v>
-      </c>
-      <c r="Y123" t="s" s="2">
-        <v>513</v>
-      </c>
-      <c r="Z123" t="s" s="2">
-        <v>514</v>
-      </c>
-      <c r="AA123" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="AB123" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="AC123" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="AD123" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="AE123" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="AF123" t="s" s="2">
-        <v>673</v>
-      </c>
-      <c r="AG123" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AH123" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="AI123" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="AJ123" t="s" s="2">
-        <v>108</v>
-      </c>
-      <c r="AK123" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="AL123" t="s" s="2">
-        <v>515</v>
-      </c>
-      <c r="AM123" t="s" s="2">
-        <v>516</v>
-      </c>
-      <c r="AN123" t="s" s="2">
-        <v>517</v>
-      </c>
-      <c r="AO123" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="AP123" t="s" s="2">
-        <v>518</v>
-      </c>
-    </row>
-    <row r="124">
-      <c r="A124" t="s" s="2">
-        <v>674</v>
-      </c>
-      <c r="B124" t="s" s="2">
-        <v>674</v>
-      </c>
-      <c r="C124" s="2"/>
-      <c r="D124" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="E124" s="2"/>
-      <c r="F124" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="G124" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="H124" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="I124" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="J124" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="K124" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="L124" t="s" s="2">
-        <v>675</v>
-      </c>
-      <c r="M124" t="s" s="2">
-        <v>676</v>
-      </c>
-      <c r="N124" t="s" s="2">
-        <v>569</v>
-      </c>
-      <c r="O124" t="s" s="2">
-        <v>570</v>
-      </c>
-      <c r="P124" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="Q124" s="2"/>
-      <c r="R124" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="S124" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="T124" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="U124" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="V124" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="W124" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="X124" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="Y124" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="Z124" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="AA124" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="AB124" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="AC124" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="AD124" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="AE124" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="AF124" t="s" s="2">
-        <v>674</v>
-      </c>
-      <c r="AG124" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AH124" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="AI124" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="AJ124" t="s" s="2">
-        <v>108</v>
-      </c>
-      <c r="AK124" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="AL124" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="AM124" t="s" s="2">
-        <v>572</v>
-      </c>
-      <c r="AN124" t="s" s="2">
-        <v>573</v>
-      </c>
-      <c r="AO124" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="AP124" t="s" s="2">
         <v>85</v>
       </c>
     </row>

--- a/ig/ch-lab-report/StructureDefinition-ch-lab-observation-albumin-creatinine-urine-ratio.xlsx
+++ b/ig/ch-lab-report/StructureDefinition-ch-lab-observation-albumin-creatinine-urine-ratio.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4707" uniqueCount="661">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4707" uniqueCount="645">
   <si>
     <t>Property</t>
   </si>
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.0.0</t>
+    <t>2.0.0-ballot</t>
   </si>
   <si>
     <t>Name</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-12-18T08:59:06+00:00</t>
+    <t>2025-05-22T14:17:25+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -72,7 +72,7 @@
     <t>HL7 Switzerland (https://www.hl7.ch)</t>
   </si>
   <si>
-    <t>Marcel Hanselmann (laborprojektgruppe@gmail.com(work))</t>
+    <t>Marcel Hanselmann (laborprojektgruppe@gmail.com(Work))</t>
   </si>
   <si>
     <t>Jurisdiction</t>
@@ -480,7 +480,7 @@
     <t>supportingInfo</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {workflow-supportingInfo}
+    <t xml:space="preserve">Extension {workflow-supportingInfo|4.0.1}
 </t>
   </si>
   <si>
@@ -488,6 +488,10 @@
   </si>
   <si>
     <t>Other resources *from the patient record* that may be relevant to the event.  The information from these resources was either used to create the instance or is provided to help with its interpretation.  This extension **should not** be used if more specific  inline elements  or extensions are available.  For example, use `Observation.hasMember`  instead of supportingInformation for  representing the members of an Observation panel.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ele-1
+</t>
   </si>
   <si>
     <t>Observation.extension:triggeredBy-r5</t>
@@ -504,10 +508,6 @@
   </si>
   <si>
     <t>Optional Extension Element - found in all resources.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ele-1
-</t>
   </si>
   <si>
     <t>Observation.extension:triggeredBy-r5.id</t>
@@ -738,7 +738,7 @@
     <t>value-r5</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-Observation.value[x]}
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-Observation.value%5Bx%5D}
 </t>
   </si>
   <si>
@@ -1268,7 +1268,7 @@
     <t>data-absent-reason</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {data-absent-reason}
+    <t xml:space="preserve">Extension {data-absent-reason|4.0.1}
 </t>
   </si>
   <si>
@@ -1346,7 +1346,7 @@
     <t>performerFunction</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {event-performerFunction}
+    <t xml:space="preserve">Extension {event-performerFunction|4.0.1}
 </t>
   </si>
   <si>
@@ -1436,25 +1436,6 @@
 </t>
   </si>
   <si>
-    <t>Set of values bounded by low and high</t>
-  </si>
-  <si>
-    <t>A set of ordered Quantities defined by a low and high limit.</t>
-  </si>
-  <si>
-    <t>The stated low and high value are assumed to have arbitrarily high precision when it comes to determining which values are in the range. I.e. 1.99 is not in the range 2 -&gt; 3.</t>
-  </si>
-  <si>
-    <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
-rng-2:If present, low SHALL have a lower value than high {low.empty() or high.empty() or (low &lt;= high)}</t>
-  </si>
-  <si>
-    <t>NR and also possibly SN (but see also quantity)</t>
-  </si>
-  <si>
-    <t>IVL&lt;QTY[not(type="TS")]&gt; [lowClosed="true" and highClosed="true"]or URG&lt;QTY[not(type="TS")]&gt;</t>
-  </si>
-  <si>
     <t>Observation.value[x]:valueRatio</t>
   </si>
   <si>
@@ -1465,22 +1446,6 @@
 </t>
   </si>
   <si>
-    <t>A measured ratio using UCUM</t>
-  </si>
-  <si>
-    <t>A measured ratio (or a ratio that can potentially be measured) and uncertainty of the measurement. This profile imposes that the code system for units be UCUM.</t>
-  </si>
-  <si>
-    <t>The Ratio datatype should only be used to express a relationship of two numbers if the relationship cannot be suitably expressed using a Quantity and a common unit.  Where the denominator value is known to be fixed to "1", Quantity should be used instead of Ratio.</t>
-  </si>
-  <si>
-    <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
-rat-1:Numerator and denominator SHALL both be present, or both are absent. If both are absent, there SHALL be some extension present {(numerator.empty() xor denominator.exists()) and (numerator.exists() or extension.exists())}</t>
-  </si>
-  <si>
-    <t>RTO</t>
-  </si>
-  <si>
     <t>Observation.value[x]:valueTime</t>
   </si>
   <si>
@@ -1521,30 +1486,14 @@
 </t>
   </si>
   <si>
-    <t>A measured amount using UCUM</t>
-  </si>
-  <si>
-    <t>A measured amount (or an amount that can potentially be measured) and uncertainty of the measurement. Note that measured amounts include amounts that are not precisely quantified, including amounts involving arbitrary units and floating currencies.
-This profile imposes that the code system for units be UCUM.</t>
-  </si>
-  <si>
-    <t>The context of use may frequently define what kind of quantity this is and therefore what kind of units can be used. The context of use may also restrict the values for the comparator.</t>
-  </si>
-  <si>
-    <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
-qty-3:If a code for the unit is present, the system SHALL also be present {code.empty() or system.exists()}</t>
-  </si>
-  <si>
-    <t>SN (see also Range) or CQ</t>
-  </si>
-  <si>
-    <t>PQ, IVL&lt;PQ&gt;, MO, CO, depending on the values</t>
-  </si>
-  <si>
     <t>Observation.value[x]:valueCodeableConcept</t>
   </si>
   <si>
     <t>valueCodeableConcept</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CodeableConcept {http://hl7.org/fhir/uv/ips/StructureDefinition/CodeableConcept-uv-ips}
+</t>
   </si>
   <si>
     <t>http://hl7.org/fhir/uv/ips/ValueSet/results-coded-values-laboratory-uv-ips</t>
@@ -2443,15 +2392,15 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="66.3515625" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="44.67578125" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="27.72265625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="4" max="4" width="39.9140625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="5" max="5" width="6.77734375" customWidth="true" bestFit="true"/>
-    <col min="6" max="6" width="4.9453125" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="5.4296875" customWidth="true" bestFit="true"/>
-    <col min="8" max="8" width="16.27734375" customWidth="true" bestFit="true"/>
-    <col min="9" max="9" width="13.26171875" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="56.8828125" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="38.30078125" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="23.765625" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="4" max="4" width="34.21875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="5" max="5" width="5.80859375" customWidth="true" bestFit="true"/>
+    <col min="6" max="6" width="4.23828125" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="4.65625" customWidth="true" bestFit="true"/>
+    <col min="8" max="8" width="13.953125" customWidth="true" bestFit="true"/>
+    <col min="9" max="9" width="11.3671875" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="11" max="11" width="255.0" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
@@ -2462,28 +2411,28 @@
     <col min="17" max="17" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="18" max="18" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="19" max="19" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="20" max="20" width="9.953125" customWidth="true" bestFit="true"/>
-    <col min="21" max="21" width="17.171875" customWidth="true" bestFit="true"/>
-    <col min="22" max="22" width="17.65625" customWidth="true" bestFit="true"/>
-    <col min="23" max="23" width="19.03515625" customWidth="true" bestFit="true"/>
-    <col min="24" max="24" width="18.859375" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="63.70703125" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="67.73046875" customWidth="true" bestFit="true"/>
-    <col min="27" max="27" width="6.34765625" customWidth="true" bestFit="true"/>
-    <col min="28" max="28" width="22.71875" customWidth="true" bestFit="true"/>
-    <col min="29" max="29" width="42.03515625" customWidth="true" bestFit="true"/>
-    <col min="30" max="30" width="17.21484375" customWidth="true" bestFit="true"/>
-    <col min="31" max="31" width="14.4140625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="32" max="32" width="41.01953125" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="33" max="33" width="10.5546875" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="34" max="34" width="11.0390625" customWidth="true" bestFit="true"/>
+    <col min="20" max="20" width="8.53515625" customWidth="true" bestFit="true"/>
+    <col min="21" max="21" width="14.72265625" customWidth="true" bestFit="true"/>
+    <col min="22" max="22" width="15.13671875" customWidth="true" bestFit="true"/>
+    <col min="23" max="23" width="16.3203125" customWidth="true" bestFit="true"/>
+    <col min="24" max="24" width="16.16796875" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="54.6171875" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="58.06640625" customWidth="true" bestFit="true"/>
+    <col min="27" max="27" width="5.44140625" customWidth="true" bestFit="true"/>
+    <col min="28" max="28" width="19.4765625" customWidth="true" bestFit="true"/>
+    <col min="29" max="29" width="36.0390625" customWidth="true" bestFit="true"/>
+    <col min="30" max="30" width="14.7578125" customWidth="true" bestFit="true"/>
+    <col min="31" max="31" width="12.359375" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="32" max="32" width="35.16796875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="33" max="33" width="9.046875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="34" max="34" width="9.46484375" customWidth="true" bestFit="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
-    <col min="37" max="37" width="29.69921875" customWidth="true" bestFit="true"/>
-    <col min="38" max="38" width="247.40625" customWidth="true" bestFit="true"/>
+    <col min="37" max="37" width="25.4609375" customWidth="true" bestFit="true"/>
+    <col min="38" max="38" width="212.10546875" customWidth="true" bestFit="true"/>
     <col min="39" max="39" width="255.0" customWidth="true" bestFit="true"/>
-    <col min="40" max="40" width="107.01953125" customWidth="true" bestFit="true"/>
-    <col min="41" max="41" width="36.91796875" customWidth="true" bestFit="true"/>
-    <col min="42" max="42" width="42.34375" customWidth="true" bestFit="true"/>
+    <col min="40" max="40" width="91.75" customWidth="true" bestFit="true"/>
+    <col min="41" max="41" width="31.65234375" customWidth="true" bestFit="true"/>
+    <col min="42" max="42" width="36.3046875" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -3664,7 +3613,7 @@
         <v>84</v>
       </c>
       <c r="AI10" t="s" s="2">
-        <v>85</v>
+        <v>153</v>
       </c>
       <c r="AJ10" t="s" s="2">
         <v>147</v>
@@ -3690,13 +3639,13 @@
     </row>
     <row r="11">
       <c r="A11" t="s" s="2">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="B11" t="s" s="2">
         <v>140</v>
       </c>
       <c r="C11" t="s" s="2">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="D11" t="s" s="2">
         <v>85</v>
@@ -3718,13 +3667,13 @@
         <v>85</v>
       </c>
       <c r="K11" t="s" s="2">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="L11" t="s" s="2">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="M11" t="s" s="2">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="N11" s="2"/>
       <c r="O11" s="2"/>
@@ -3784,7 +3733,7 @@
         <v>84</v>
       </c>
       <c r="AI11" t="s" s="2">
-        <v>158</v>
+        <v>153</v>
       </c>
       <c r="AJ11" t="s" s="2">
         <v>147</v>
@@ -6162,7 +6111,7 @@
         <v>84</v>
       </c>
       <c r="AI31" t="s" s="2">
-        <v>158</v>
+        <v>153</v>
       </c>
       <c r="AJ31" t="s" s="2">
         <v>147</v>
@@ -6282,7 +6231,7 @@
         <v>84</v>
       </c>
       <c r="AI32" t="s" s="2">
-        <v>158</v>
+        <v>153</v>
       </c>
       <c r="AJ32" t="s" s="2">
         <v>147</v>
@@ -6402,7 +6351,7 @@
         <v>84</v>
       </c>
       <c r="AI33" t="s" s="2">
-        <v>158</v>
+        <v>153</v>
       </c>
       <c r="AJ33" t="s" s="2">
         <v>147</v>
@@ -6462,7 +6411,7 @@
         <v>232</v>
       </c>
       <c r="M34" t="s" s="2">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="N34" s="2"/>
       <c r="O34" s="2"/>
@@ -6522,7 +6471,7 @@
         <v>84</v>
       </c>
       <c r="AI34" t="s" s="2">
-        <v>158</v>
+        <v>153</v>
       </c>
       <c r="AJ34" t="s" s="2">
         <v>147</v>
@@ -10290,7 +10239,7 @@
         <v>83</v>
       </c>
       <c r="G66" t="s" s="2">
-        <v>84</v>
+        <v>96</v>
       </c>
       <c r="H66" t="s" s="2">
         <v>85</v>
@@ -11267,19 +11216,19 @@
         <v>85</v>
       </c>
       <c r="J74" t="s" s="2">
-        <v>85</v>
+        <v>97</v>
       </c>
       <c r="K74" t="s" s="2">
         <v>445</v>
       </c>
       <c r="L74" t="s" s="2">
-        <v>446</v>
+        <v>428</v>
       </c>
       <c r="M74" t="s" s="2">
-        <v>447</v>
+        <v>429</v>
       </c>
       <c r="N74" t="s" s="2">
-        <v>448</v>
+        <v>430</v>
       </c>
       <c r="O74" t="s" s="2">
         <v>431</v>
@@ -11340,39 +11289,39 @@
         <v>96</v>
       </c>
       <c r="AI74" t="s" s="2">
-        <v>158</v>
+        <v>433</v>
       </c>
       <c r="AJ74" t="s" s="2">
-        <v>449</v>
+        <v>108</v>
       </c>
       <c r="AK74" t="s" s="2">
         <v>85</v>
       </c>
       <c r="AL74" t="s" s="2">
-        <v>85</v>
+        <v>434</v>
       </c>
       <c r="AM74" t="s" s="2">
-        <v>450</v>
+        <v>435</v>
       </c>
       <c r="AN74" t="s" s="2">
-        <v>451</v>
+        <v>436</v>
       </c>
       <c r="AO74" t="s" s="2">
         <v>85</v>
       </c>
       <c r="AP74" t="s" s="2">
-        <v>85</v>
+        <v>437</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="s" s="2">
-        <v>452</v>
+        <v>446</v>
       </c>
       <c r="B75" t="s" s="2">
         <v>426</v>
       </c>
       <c r="C75" t="s" s="2">
-        <v>453</v>
+        <v>447</v>
       </c>
       <c r="D75" t="s" s="2">
         <v>85</v>
@@ -11391,19 +11340,19 @@
         <v>85</v>
       </c>
       <c r="J75" t="s" s="2">
-        <v>85</v>
+        <v>97</v>
       </c>
       <c r="K75" t="s" s="2">
-        <v>454</v>
+        <v>448</v>
       </c>
       <c r="L75" t="s" s="2">
-        <v>455</v>
+        <v>428</v>
       </c>
       <c r="M75" t="s" s="2">
-        <v>456</v>
+        <v>429</v>
       </c>
       <c r="N75" t="s" s="2">
-        <v>457</v>
+        <v>430</v>
       </c>
       <c r="O75" t="s" s="2">
         <v>431</v>
@@ -11464,39 +11413,39 @@
         <v>96</v>
       </c>
       <c r="AI75" t="s" s="2">
-        <v>158</v>
+        <v>433</v>
       </c>
       <c r="AJ75" t="s" s="2">
-        <v>458</v>
+        <v>108</v>
       </c>
       <c r="AK75" t="s" s="2">
         <v>85</v>
       </c>
       <c r="AL75" t="s" s="2">
-        <v>85</v>
+        <v>434</v>
       </c>
       <c r="AM75" t="s" s="2">
-        <v>139</v>
+        <v>435</v>
       </c>
       <c r="AN75" t="s" s="2">
-        <v>459</v>
+        <v>436</v>
       </c>
       <c r="AO75" t="s" s="2">
         <v>85</v>
       </c>
       <c r="AP75" t="s" s="2">
-        <v>85</v>
+        <v>437</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="s" s="2">
-        <v>460</v>
+        <v>449</v>
       </c>
       <c r="B76" t="s" s="2">
         <v>426</v>
       </c>
       <c r="C76" t="s" s="2">
-        <v>461</v>
+        <v>450</v>
       </c>
       <c r="D76" t="s" s="2">
         <v>85</v>
@@ -11518,7 +11467,7 @@
         <v>97</v>
       </c>
       <c r="K76" t="s" s="2">
-        <v>462</v>
+        <v>451</v>
       </c>
       <c r="L76" t="s" s="2">
         <v>428</v>
@@ -11614,13 +11563,13 @@
     </row>
     <row r="77">
       <c r="A77" t="s" s="2">
-        <v>463</v>
+        <v>452</v>
       </c>
       <c r="B77" t="s" s="2">
         <v>426</v>
       </c>
       <c r="C77" t="s" s="2">
-        <v>464</v>
+        <v>453</v>
       </c>
       <c r="D77" t="s" s="2">
         <v>85</v>
@@ -11642,7 +11591,7 @@
         <v>97</v>
       </c>
       <c r="K77" t="s" s="2">
-        <v>465</v>
+        <v>454</v>
       </c>
       <c r="L77" t="s" s="2">
         <v>428</v>
@@ -11738,13 +11687,13 @@
     </row>
     <row r="78">
       <c r="A78" t="s" s="2">
-        <v>466</v>
+        <v>455</v>
       </c>
       <c r="B78" t="s" s="2">
         <v>426</v>
       </c>
       <c r="C78" t="s" s="2">
-        <v>467</v>
+        <v>456</v>
       </c>
       <c r="D78" t="s" s="2">
         <v>85</v>
@@ -11766,7 +11715,7 @@
         <v>97</v>
       </c>
       <c r="K78" t="s" s="2">
-        <v>468</v>
+        <v>457</v>
       </c>
       <c r="L78" t="s" s="2">
         <v>428</v>
@@ -11862,13 +11811,13 @@
     </row>
     <row r="79">
       <c r="A79" t="s" s="2">
-        <v>469</v>
+        <v>458</v>
       </c>
       <c r="B79" t="s" s="2">
         <v>426</v>
       </c>
       <c r="C79" t="s" s="2">
-        <v>470</v>
+        <v>459</v>
       </c>
       <c r="D79" t="s" s="2">
         <v>85</v>
@@ -11887,19 +11836,19 @@
         <v>85</v>
       </c>
       <c r="J79" t="s" s="2">
-        <v>85</v>
+        <v>97</v>
       </c>
       <c r="K79" t="s" s="2">
-        <v>471</v>
+        <v>460</v>
       </c>
       <c r="L79" t="s" s="2">
-        <v>472</v>
+        <v>428</v>
       </c>
       <c r="M79" t="s" s="2">
-        <v>473</v>
+        <v>429</v>
       </c>
       <c r="N79" t="s" s="2">
-        <v>474</v>
+        <v>430</v>
       </c>
       <c r="O79" t="s" s="2">
         <v>431</v>
@@ -11960,39 +11909,39 @@
         <v>96</v>
       </c>
       <c r="AI79" t="s" s="2">
-        <v>158</v>
+        <v>433</v>
       </c>
       <c r="AJ79" t="s" s="2">
-        <v>475</v>
+        <v>108</v>
       </c>
       <c r="AK79" t="s" s="2">
         <v>85</v>
       </c>
       <c r="AL79" t="s" s="2">
-        <v>85</v>
+        <v>434</v>
       </c>
       <c r="AM79" t="s" s="2">
-        <v>476</v>
+        <v>435</v>
       </c>
       <c r="AN79" t="s" s="2">
-        <v>477</v>
+        <v>436</v>
       </c>
       <c r="AO79" t="s" s="2">
         <v>85</v>
       </c>
       <c r="AP79" t="s" s="2">
-        <v>85</v>
+        <v>437</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="s" s="2">
-        <v>478</v>
+        <v>461</v>
       </c>
       <c r="B80" t="s" s="2">
         <v>426</v>
       </c>
       <c r="C80" t="s" s="2">
-        <v>479</v>
+        <v>462</v>
       </c>
       <c r="D80" t="s" s="2">
         <v>85</v>
@@ -12014,7 +11963,7 @@
         <v>97</v>
       </c>
       <c r="K80" t="s" s="2">
-        <v>285</v>
+        <v>463</v>
       </c>
       <c r="L80" t="s" s="2">
         <v>428</v>
@@ -12055,7 +12004,7 @@
       </c>
       <c r="Y80" s="2"/>
       <c r="Z80" t="s" s="2">
-        <v>480</v>
+        <v>464</v>
       </c>
       <c r="AA80" t="s" s="2">
         <v>85</v>
@@ -12108,10 +12057,10 @@
     </row>
     <row r="81">
       <c r="A81" t="s" s="2">
-        <v>481</v>
+        <v>465</v>
       </c>
       <c r="B81" t="s" s="2">
-        <v>481</v>
+        <v>465</v>
       </c>
       <c r="C81" s="2"/>
       <c r="D81" t="s" s="2">
@@ -12137,16 +12086,16 @@
         <v>285</v>
       </c>
       <c r="L81" t="s" s="2">
-        <v>482</v>
+        <v>466</v>
       </c>
       <c r="M81" t="s" s="2">
-        <v>483</v>
+        <v>467</v>
       </c>
       <c r="N81" t="s" s="2">
-        <v>484</v>
+        <v>468</v>
       </c>
       <c r="O81" t="s" s="2">
-        <v>485</v>
+        <v>469</v>
       </c>
       <c r="P81" t="s" s="2">
         <v>85</v>
@@ -12174,10 +12123,10 @@
         <v>346</v>
       </c>
       <c r="Y81" t="s" s="2">
-        <v>486</v>
+        <v>470</v>
       </c>
       <c r="Z81" t="s" s="2">
-        <v>487</v>
+        <v>471</v>
       </c>
       <c r="AA81" t="s" s="2">
         <v>85</v>
@@ -12195,7 +12144,7 @@
         <v>85</v>
       </c>
       <c r="AF81" t="s" s="2">
-        <v>481</v>
+        <v>465</v>
       </c>
       <c r="AG81" t="s" s="2">
         <v>83</v>
@@ -12204,7 +12153,7 @@
         <v>96</v>
       </c>
       <c r="AI81" t="s" s="2">
-        <v>488</v>
+        <v>472</v>
       </c>
       <c r="AJ81" t="s" s="2">
         <v>108</v>
@@ -12219,7 +12168,7 @@
         <v>139</v>
       </c>
       <c r="AN81" t="s" s="2">
-        <v>489</v>
+        <v>473</v>
       </c>
       <c r="AO81" t="s" s="2">
         <v>85</v>
@@ -12230,14 +12179,14 @@
     </row>
     <row r="82">
       <c r="A82" t="s" s="2">
-        <v>490</v>
+        <v>474</v>
       </c>
       <c r="B82" t="s" s="2">
-        <v>490</v>
+        <v>474</v>
       </c>
       <c r="C82" s="2"/>
       <c r="D82" t="s" s="2">
-        <v>491</v>
+        <v>475</v>
       </c>
       <c r="E82" s="2"/>
       <c r="F82" t="s" s="2">
@@ -12259,16 +12208,16 @@
         <v>285</v>
       </c>
       <c r="L82" t="s" s="2">
-        <v>492</v>
+        <v>476</v>
       </c>
       <c r="M82" t="s" s="2">
-        <v>493</v>
+        <v>477</v>
       </c>
       <c r="N82" t="s" s="2">
-        <v>494</v>
+        <v>478</v>
       </c>
       <c r="O82" t="s" s="2">
-        <v>495</v>
+        <v>479</v>
       </c>
       <c r="P82" t="s" s="2">
         <v>85</v>
@@ -12296,10 +12245,10 @@
         <v>346</v>
       </c>
       <c r="Y82" t="s" s="2">
-        <v>496</v>
+        <v>480</v>
       </c>
       <c r="Z82" t="s" s="2">
-        <v>497</v>
+        <v>481</v>
       </c>
       <c r="AA82" t="s" s="2">
         <v>85</v>
@@ -12317,7 +12266,7 @@
         <v>85</v>
       </c>
       <c r="AF82" t="s" s="2">
-        <v>490</v>
+        <v>474</v>
       </c>
       <c r="AG82" t="s" s="2">
         <v>83</v>
@@ -12335,27 +12284,27 @@
         <v>85</v>
       </c>
       <c r="AL82" t="s" s="2">
-        <v>498</v>
+        <v>482</v>
       </c>
       <c r="AM82" t="s" s="2">
-        <v>499</v>
+        <v>483</v>
       </c>
       <c r="AN82" t="s" s="2">
-        <v>500</v>
+        <v>484</v>
       </c>
       <c r="AO82" t="s" s="2">
         <v>85</v>
       </c>
       <c r="AP82" t="s" s="2">
-        <v>501</v>
+        <v>485</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="s" s="2">
-        <v>502</v>
+        <v>486</v>
       </c>
       <c r="B83" t="s" s="2">
-        <v>502</v>
+        <v>486</v>
       </c>
       <c r="C83" s="2"/>
       <c r="D83" t="s" s="2">
@@ -12378,19 +12327,19 @@
         <v>85</v>
       </c>
       <c r="K83" t="s" s="2">
-        <v>503</v>
+        <v>487</v>
       </c>
       <c r="L83" t="s" s="2">
-        <v>504</v>
+        <v>488</v>
       </c>
       <c r="M83" t="s" s="2">
-        <v>505</v>
+        <v>489</v>
       </c>
       <c r="N83" t="s" s="2">
-        <v>506</v>
+        <v>490</v>
       </c>
       <c r="O83" t="s" s="2">
-        <v>507</v>
+        <v>491</v>
       </c>
       <c r="P83" t="s" s="2">
         <v>85</v>
@@ -12439,7 +12388,7 @@
         <v>85</v>
       </c>
       <c r="AF83" t="s" s="2">
-        <v>502</v>
+        <v>486</v>
       </c>
       <c r="AG83" t="s" s="2">
         <v>83</v>
@@ -12460,10 +12409,10 @@
         <v>85</v>
       </c>
       <c r="AM83" t="s" s="2">
-        <v>508</v>
+        <v>492</v>
       </c>
       <c r="AN83" t="s" s="2">
-        <v>509</v>
+        <v>493</v>
       </c>
       <c r="AO83" t="s" s="2">
         <v>85</v>
@@ -12474,10 +12423,10 @@
     </row>
     <row r="84">
       <c r="A84" t="s" s="2">
-        <v>510</v>
+        <v>494</v>
       </c>
       <c r="B84" t="s" s="2">
-        <v>510</v>
+        <v>494</v>
       </c>
       <c r="C84" s="2"/>
       <c r="D84" t="s" s="2">
@@ -12503,13 +12452,13 @@
         <v>285</v>
       </c>
       <c r="L84" t="s" s="2">
-        <v>511</v>
+        <v>495</v>
       </c>
       <c r="M84" t="s" s="2">
-        <v>512</v>
+        <v>496</v>
       </c>
       <c r="N84" t="s" s="2">
-        <v>513</v>
+        <v>497</v>
       </c>
       <c r="O84" s="2"/>
       <c r="P84" t="s" s="2">
@@ -12535,13 +12484,13 @@
         <v>85</v>
       </c>
       <c r="X84" t="s" s="2">
-        <v>514</v>
+        <v>498</v>
       </c>
       <c r="Y84" t="s" s="2">
-        <v>515</v>
+        <v>499</v>
       </c>
       <c r="Z84" t="s" s="2">
-        <v>516</v>
+        <v>500</v>
       </c>
       <c r="AA84" t="s" s="2">
         <v>85</v>
@@ -12559,7 +12508,7 @@
         <v>85</v>
       </c>
       <c r="AF84" t="s" s="2">
-        <v>510</v>
+        <v>494</v>
       </c>
       <c r="AG84" t="s" s="2">
         <v>83</v>
@@ -12577,27 +12526,27 @@
         <v>85</v>
       </c>
       <c r="AL84" t="s" s="2">
-        <v>517</v>
+        <v>501</v>
       </c>
       <c r="AM84" t="s" s="2">
-        <v>518</v>
+        <v>502</v>
       </c>
       <c r="AN84" t="s" s="2">
-        <v>519</v>
+        <v>503</v>
       </c>
       <c r="AO84" t="s" s="2">
         <v>85</v>
       </c>
       <c r="AP84" t="s" s="2">
-        <v>520</v>
+        <v>504</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="s" s="2">
-        <v>521</v>
+        <v>505</v>
       </c>
       <c r="B85" t="s" s="2">
-        <v>521</v>
+        <v>505</v>
       </c>
       <c r="C85" s="2"/>
       <c r="D85" t="s" s="2">
@@ -12623,16 +12572,16 @@
         <v>285</v>
       </c>
       <c r="L85" t="s" s="2">
-        <v>522</v>
+        <v>506</v>
       </c>
       <c r="M85" t="s" s="2">
-        <v>523</v>
+        <v>507</v>
       </c>
       <c r="N85" t="s" s="2">
-        <v>524</v>
+        <v>508</v>
       </c>
       <c r="O85" t="s" s="2">
-        <v>525</v>
+        <v>509</v>
       </c>
       <c r="P85" t="s" s="2">
         <v>85</v>
@@ -12642,7 +12591,7 @@
         <v>85</v>
       </c>
       <c r="S85" t="s" s="2">
-        <v>526</v>
+        <v>510</v>
       </c>
       <c r="T85" t="s" s="2">
         <v>85</v>
@@ -12661,7 +12610,7 @@
       </c>
       <c r="Y85" s="2"/>
       <c r="Z85" t="s" s="2">
-        <v>527</v>
+        <v>511</v>
       </c>
       <c r="AA85" t="s" s="2">
         <v>85</v>
@@ -12679,7 +12628,7 @@
         <v>85</v>
       </c>
       <c r="AF85" t="s" s="2">
-        <v>521</v>
+        <v>505</v>
       </c>
       <c r="AG85" t="s" s="2">
         <v>83</v>
@@ -12700,10 +12649,10 @@
         <v>85</v>
       </c>
       <c r="AM85" t="s" s="2">
-        <v>528</v>
+        <v>512</v>
       </c>
       <c r="AN85" t="s" s="2">
-        <v>529</v>
+        <v>513</v>
       </c>
       <c r="AO85" t="s" s="2">
         <v>85</v>
@@ -12714,10 +12663,10 @@
     </row>
     <row r="86">
       <c r="A86" t="s" s="2">
-        <v>530</v>
+        <v>514</v>
       </c>
       <c r="B86" t="s" s="2">
-        <v>530</v>
+        <v>514</v>
       </c>
       <c r="C86" s="2"/>
       <c r="D86" t="s" s="2">
@@ -12740,16 +12689,16 @@
         <v>85</v>
       </c>
       <c r="K86" t="s" s="2">
-        <v>531</v>
+        <v>515</v>
       </c>
       <c r="L86" t="s" s="2">
-        <v>532</v>
+        <v>516</v>
       </c>
       <c r="M86" t="s" s="2">
-        <v>533</v>
+        <v>517</v>
       </c>
       <c r="N86" t="s" s="2">
-        <v>534</v>
+        <v>518</v>
       </c>
       <c r="O86" s="2"/>
       <c r="P86" t="s" s="2">
@@ -12799,7 +12748,7 @@
         <v>85</v>
       </c>
       <c r="AF86" t="s" s="2">
-        <v>530</v>
+        <v>514</v>
       </c>
       <c r="AG86" t="s" s="2">
         <v>83</v>
@@ -12817,27 +12766,27 @@
         <v>85</v>
       </c>
       <c r="AL86" t="s" s="2">
-        <v>535</v>
+        <v>519</v>
       </c>
       <c r="AM86" t="s" s="2">
-        <v>536</v>
+        <v>520</v>
       </c>
       <c r="AN86" t="s" s="2">
-        <v>537</v>
+        <v>521</v>
       </c>
       <c r="AO86" t="s" s="2">
         <v>85</v>
       </c>
       <c r="AP86" t="s" s="2">
-        <v>538</v>
+        <v>522</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="s" s="2">
-        <v>539</v>
+        <v>523</v>
       </c>
       <c r="B87" t="s" s="2">
-        <v>539</v>
+        <v>523</v>
       </c>
       <c r="C87" s="2"/>
       <c r="D87" t="s" s="2">
@@ -12860,16 +12809,16 @@
         <v>85</v>
       </c>
       <c r="K87" t="s" s="2">
-        <v>540</v>
+        <v>524</v>
       </c>
       <c r="L87" t="s" s="2">
-        <v>541</v>
+        <v>525</v>
       </c>
       <c r="M87" t="s" s="2">
-        <v>542</v>
+        <v>526</v>
       </c>
       <c r="N87" t="s" s="2">
-        <v>543</v>
+        <v>527</v>
       </c>
       <c r="O87" s="2"/>
       <c r="P87" t="s" s="2">
@@ -12919,7 +12868,7 @@
         <v>85</v>
       </c>
       <c r="AF87" t="s" s="2">
-        <v>539</v>
+        <v>523</v>
       </c>
       <c r="AG87" t="s" s="2">
         <v>83</v>
@@ -12937,27 +12886,27 @@
         <v>85</v>
       </c>
       <c r="AL87" t="s" s="2">
-        <v>544</v>
+        <v>528</v>
       </c>
       <c r="AM87" t="s" s="2">
-        <v>545</v>
+        <v>529</v>
       </c>
       <c r="AN87" t="s" s="2">
-        <v>546</v>
+        <v>530</v>
       </c>
       <c r="AO87" t="s" s="2">
         <v>85</v>
       </c>
       <c r="AP87" t="s" s="2">
-        <v>547</v>
+        <v>531</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="s" s="2">
-        <v>548</v>
+        <v>532</v>
       </c>
       <c r="B88" t="s" s="2">
-        <v>548</v>
+        <v>532</v>
       </c>
       <c r="C88" s="2"/>
       <c r="D88" t="s" s="2">
@@ -12980,19 +12929,19 @@
         <v>85</v>
       </c>
       <c r="K88" t="s" s="2">
-        <v>549</v>
+        <v>533</v>
       </c>
       <c r="L88" t="s" s="2">
-        <v>550</v>
+        <v>534</v>
       </c>
       <c r="M88" t="s" s="2">
-        <v>551</v>
+        <v>535</v>
       </c>
       <c r="N88" t="s" s="2">
-        <v>552</v>
+        <v>536</v>
       </c>
       <c r="O88" t="s" s="2">
-        <v>553</v>
+        <v>537</v>
       </c>
       <c r="P88" t="s" s="2">
         <v>85</v>
@@ -13041,7 +12990,7 @@
         <v>85</v>
       </c>
       <c r="AF88" t="s" s="2">
-        <v>548</v>
+        <v>532</v>
       </c>
       <c r="AG88" t="s" s="2">
         <v>83</v>
@@ -13053,7 +13002,7 @@
         <v>85</v>
       </c>
       <c r="AJ88" t="s" s="2">
-        <v>554</v>
+        <v>538</v>
       </c>
       <c r="AK88" t="s" s="2">
         <v>85</v>
@@ -13062,10 +13011,10 @@
         <v>85</v>
       </c>
       <c r="AM88" t="s" s="2">
-        <v>555</v>
+        <v>539</v>
       </c>
       <c r="AN88" t="s" s="2">
-        <v>556</v>
+        <v>540</v>
       </c>
       <c r="AO88" t="s" s="2">
         <v>85</v>
@@ -13076,10 +13025,10 @@
     </row>
     <row r="89">
       <c r="A89" t="s" s="2">
-        <v>557</v>
+        <v>541</v>
       </c>
       <c r="B89" t="s" s="2">
-        <v>557</v>
+        <v>541</v>
       </c>
       <c r="C89" s="2"/>
       <c r="D89" t="s" s="2">
@@ -13194,10 +13143,10 @@
     </row>
     <row r="90">
       <c r="A90" t="s" s="2">
-        <v>558</v>
+        <v>542</v>
       </c>
       <c r="B90" t="s" s="2">
-        <v>558</v>
+        <v>542</v>
       </c>
       <c r="C90" s="2"/>
       <c r="D90" t="s" s="2">
@@ -13314,14 +13263,14 @@
     </row>
     <row r="91">
       <c r="A91" t="s" s="2">
-        <v>559</v>
+        <v>543</v>
       </c>
       <c r="B91" t="s" s="2">
-        <v>559</v>
+        <v>543</v>
       </c>
       <c r="C91" s="2"/>
       <c r="D91" t="s" s="2">
-        <v>560</v>
+        <v>544</v>
       </c>
       <c r="E91" s="2"/>
       <c r="F91" t="s" s="2">
@@ -13343,10 +13292,10 @@
         <v>141</v>
       </c>
       <c r="L91" t="s" s="2">
-        <v>561</v>
+        <v>545</v>
       </c>
       <c r="M91" t="s" s="2">
-        <v>562</v>
+        <v>546</v>
       </c>
       <c r="N91" t="s" s="2">
         <v>171</v>
@@ -13401,7 +13350,7 @@
         <v>85</v>
       </c>
       <c r="AF91" t="s" s="2">
-        <v>563</v>
+        <v>547</v>
       </c>
       <c r="AG91" t="s" s="2">
         <v>83</v>
@@ -13436,10 +13385,10 @@
     </row>
     <row r="92">
       <c r="A92" t="s" s="2">
-        <v>564</v>
+        <v>548</v>
       </c>
       <c r="B92" t="s" s="2">
-        <v>564</v>
+        <v>548</v>
       </c>
       <c r="C92" s="2"/>
       <c r="D92" t="s" s="2">
@@ -13462,13 +13411,13 @@
         <v>85</v>
       </c>
       <c r="K92" t="s" s="2">
-        <v>565</v>
+        <v>549</v>
       </c>
       <c r="L92" t="s" s="2">
-        <v>566</v>
+        <v>550</v>
       </c>
       <c r="M92" t="s" s="2">
-        <v>567</v>
+        <v>551</v>
       </c>
       <c r="N92" s="2"/>
       <c r="O92" s="2"/>
@@ -13519,7 +13468,7 @@
         <v>85</v>
       </c>
       <c r="AF92" t="s" s="2">
-        <v>564</v>
+        <v>548</v>
       </c>
       <c r="AG92" t="s" s="2">
         <v>83</v>
@@ -13528,7 +13477,7 @@
         <v>96</v>
       </c>
       <c r="AI92" t="s" s="2">
-        <v>568</v>
+        <v>552</v>
       </c>
       <c r="AJ92" t="s" s="2">
         <v>108</v>
@@ -13540,10 +13489,10 @@
         <v>85</v>
       </c>
       <c r="AM92" t="s" s="2">
-        <v>569</v>
+        <v>553</v>
       </c>
       <c r="AN92" t="s" s="2">
-        <v>570</v>
+        <v>554</v>
       </c>
       <c r="AO92" t="s" s="2">
         <v>85</v>
@@ -13554,10 +13503,10 @@
     </row>
     <row r="93">
       <c r="A93" t="s" s="2">
-        <v>571</v>
+        <v>555</v>
       </c>
       <c r="B93" t="s" s="2">
-        <v>571</v>
+        <v>555</v>
       </c>
       <c r="C93" s="2"/>
       <c r="D93" t="s" s="2">
@@ -13580,13 +13529,13 @@
         <v>85</v>
       </c>
       <c r="K93" t="s" s="2">
-        <v>565</v>
+        <v>549</v>
       </c>
       <c r="L93" t="s" s="2">
-        <v>572</v>
+        <v>556</v>
       </c>
       <c r="M93" t="s" s="2">
-        <v>573</v>
+        <v>557</v>
       </c>
       <c r="N93" s="2"/>
       <c r="O93" s="2"/>
@@ -13637,7 +13586,7 @@
         <v>85</v>
       </c>
       <c r="AF93" t="s" s="2">
-        <v>571</v>
+        <v>555</v>
       </c>
       <c r="AG93" t="s" s="2">
         <v>83</v>
@@ -13646,7 +13595,7 @@
         <v>96</v>
       </c>
       <c r="AI93" t="s" s="2">
-        <v>568</v>
+        <v>552</v>
       </c>
       <c r="AJ93" t="s" s="2">
         <v>108</v>
@@ -13658,10 +13607,10 @@
         <v>85</v>
       </c>
       <c r="AM93" t="s" s="2">
-        <v>569</v>
+        <v>553</v>
       </c>
       <c r="AN93" t="s" s="2">
-        <v>574</v>
+        <v>558</v>
       </c>
       <c r="AO93" t="s" s="2">
         <v>85</v>
@@ -13672,10 +13621,10 @@
     </row>
     <row r="94">
       <c r="A94" t="s" s="2">
-        <v>575</v>
+        <v>559</v>
       </c>
       <c r="B94" t="s" s="2">
-        <v>575</v>
+        <v>559</v>
       </c>
       <c r="C94" s="2"/>
       <c r="D94" t="s" s="2">
@@ -13701,16 +13650,16 @@
         <v>285</v>
       </c>
       <c r="L94" t="s" s="2">
-        <v>576</v>
+        <v>560</v>
       </c>
       <c r="M94" t="s" s="2">
-        <v>577</v>
+        <v>561</v>
       </c>
       <c r="N94" t="s" s="2">
-        <v>578</v>
+        <v>562</v>
       </c>
       <c r="O94" t="s" s="2">
-        <v>579</v>
+        <v>563</v>
       </c>
       <c r="P94" t="s" s="2">
         <v>85</v>
@@ -13738,10 +13687,10 @@
         <v>120</v>
       </c>
       <c r="Y94" t="s" s="2">
-        <v>580</v>
+        <v>564</v>
       </c>
       <c r="Z94" t="s" s="2">
-        <v>581</v>
+        <v>565</v>
       </c>
       <c r="AA94" t="s" s="2">
         <v>85</v>
@@ -13759,7 +13708,7 @@
         <v>85</v>
       </c>
       <c r="AF94" t="s" s="2">
-        <v>575</v>
+        <v>559</v>
       </c>
       <c r="AG94" t="s" s="2">
         <v>83</v>
@@ -13777,13 +13726,13 @@
         <v>85</v>
       </c>
       <c r="AL94" t="s" s="2">
-        <v>582</v>
+        <v>566</v>
       </c>
       <c r="AM94" t="s" s="2">
-        <v>583</v>
+        <v>567</v>
       </c>
       <c r="AN94" t="s" s="2">
-        <v>500</v>
+        <v>484</v>
       </c>
       <c r="AO94" t="s" s="2">
         <v>85</v>
@@ -13794,10 +13743,10 @@
     </row>
     <row r="95">
       <c r="A95" t="s" s="2">
-        <v>584</v>
+        <v>568</v>
       </c>
       <c r="B95" t="s" s="2">
-        <v>584</v>
+        <v>568</v>
       </c>
       <c r="C95" s="2"/>
       <c r="D95" t="s" s="2">
@@ -13823,16 +13772,16 @@
         <v>285</v>
       </c>
       <c r="L95" t="s" s="2">
-        <v>585</v>
+        <v>569</v>
       </c>
       <c r="M95" t="s" s="2">
-        <v>586</v>
+        <v>570</v>
       </c>
       <c r="N95" t="s" s="2">
-        <v>587</v>
+        <v>571</v>
       </c>
       <c r="O95" t="s" s="2">
-        <v>588</v>
+        <v>572</v>
       </c>
       <c r="P95" t="s" s="2">
         <v>85</v>
@@ -13857,13 +13806,13 @@
         <v>85</v>
       </c>
       <c r="X95" t="s" s="2">
-        <v>514</v>
+        <v>498</v>
       </c>
       <c r="Y95" t="s" s="2">
-        <v>589</v>
+        <v>573</v>
       </c>
       <c r="Z95" t="s" s="2">
-        <v>590</v>
+        <v>574</v>
       </c>
       <c r="AA95" t="s" s="2">
         <v>85</v>
@@ -13881,7 +13830,7 @@
         <v>85</v>
       </c>
       <c r="AF95" t="s" s="2">
-        <v>584</v>
+        <v>568</v>
       </c>
       <c r="AG95" t="s" s="2">
         <v>83</v>
@@ -13899,13 +13848,13 @@
         <v>85</v>
       </c>
       <c r="AL95" t="s" s="2">
-        <v>582</v>
+        <v>566</v>
       </c>
       <c r="AM95" t="s" s="2">
-        <v>583</v>
+        <v>567</v>
       </c>
       <c r="AN95" t="s" s="2">
-        <v>500</v>
+        <v>484</v>
       </c>
       <c r="AO95" t="s" s="2">
         <v>85</v>
@@ -13916,10 +13865,10 @@
     </row>
     <row r="96">
       <c r="A96" t="s" s="2">
-        <v>591</v>
+        <v>575</v>
       </c>
       <c r="B96" t="s" s="2">
-        <v>591</v>
+        <v>575</v>
       </c>
       <c r="C96" s="2"/>
       <c r="D96" t="s" s="2">
@@ -13942,17 +13891,17 @@
         <v>85</v>
       </c>
       <c r="K96" t="s" s="2">
-        <v>592</v>
+        <v>576</v>
       </c>
       <c r="L96" t="s" s="2">
-        <v>593</v>
+        <v>577</v>
       </c>
       <c r="M96" t="s" s="2">
-        <v>594</v>
+        <v>578</v>
       </c>
       <c r="N96" s="2"/>
       <c r="O96" t="s" s="2">
-        <v>595</v>
+        <v>579</v>
       </c>
       <c r="P96" t="s" s="2">
         <v>85</v>
@@ -14001,7 +13950,7 @@
         <v>85</v>
       </c>
       <c r="AF96" t="s" s="2">
-        <v>591</v>
+        <v>575</v>
       </c>
       <c r="AG96" t="s" s="2">
         <v>83</v>
@@ -14025,7 +13974,7 @@
         <v>85</v>
       </c>
       <c r="AN96" t="s" s="2">
-        <v>596</v>
+        <v>580</v>
       </c>
       <c r="AO96" t="s" s="2">
         <v>85</v>
@@ -14036,10 +13985,10 @@
     </row>
     <row r="97">
       <c r="A97" t="s" s="2">
-        <v>597</v>
+        <v>581</v>
       </c>
       <c r="B97" t="s" s="2">
-        <v>597</v>
+        <v>581</v>
       </c>
       <c r="C97" s="2"/>
       <c r="D97" t="s" s="2">
@@ -14065,10 +14014,10 @@
         <v>161</v>
       </c>
       <c r="L97" t="s" s="2">
-        <v>598</v>
+        <v>582</v>
       </c>
       <c r="M97" t="s" s="2">
-        <v>599</v>
+        <v>583</v>
       </c>
       <c r="N97" s="2"/>
       <c r="O97" s="2"/>
@@ -14119,7 +14068,7 @@
         <v>85</v>
       </c>
       <c r="AF97" t="s" s="2">
-        <v>597</v>
+        <v>581</v>
       </c>
       <c r="AG97" t="s" s="2">
         <v>83</v>
@@ -14140,10 +14089,10 @@
         <v>85</v>
       </c>
       <c r="AM97" t="s" s="2">
-        <v>569</v>
+        <v>553</v>
       </c>
       <c r="AN97" t="s" s="2">
-        <v>600</v>
+        <v>584</v>
       </c>
       <c r="AO97" t="s" s="2">
         <v>85</v>
@@ -14154,10 +14103,10 @@
     </row>
     <row r="98">
       <c r="A98" t="s" s="2">
-        <v>601</v>
+        <v>585</v>
       </c>
       <c r="B98" t="s" s="2">
-        <v>601</v>
+        <v>585</v>
       </c>
       <c r="C98" s="2"/>
       <c r="D98" t="s" s="2">
@@ -14180,16 +14129,16 @@
         <v>97</v>
       </c>
       <c r="K98" t="s" s="2">
-        <v>602</v>
+        <v>586</v>
       </c>
       <c r="L98" t="s" s="2">
-        <v>603</v>
+        <v>587</v>
       </c>
       <c r="M98" t="s" s="2">
-        <v>604</v>
+        <v>588</v>
       </c>
       <c r="N98" t="s" s="2">
-        <v>605</v>
+        <v>589</v>
       </c>
       <c r="O98" s="2"/>
       <c r="P98" t="s" s="2">
@@ -14239,7 +14188,7 @@
         <v>85</v>
       </c>
       <c r="AF98" t="s" s="2">
-        <v>601</v>
+        <v>585</v>
       </c>
       <c r="AG98" t="s" s="2">
         <v>83</v>
@@ -14260,10 +14209,10 @@
         <v>85</v>
       </c>
       <c r="AM98" t="s" s="2">
-        <v>606</v>
+        <v>590</v>
       </c>
       <c r="AN98" t="s" s="2">
-        <v>607</v>
+        <v>591</v>
       </c>
       <c r="AO98" t="s" s="2">
         <v>85</v>
@@ -14274,10 +14223,10 @@
     </row>
     <row r="99">
       <c r="A99" t="s" s="2">
-        <v>608</v>
+        <v>592</v>
       </c>
       <c r="B99" t="s" s="2">
-        <v>608</v>
+        <v>592</v>
       </c>
       <c r="C99" s="2"/>
       <c r="D99" t="s" s="2">
@@ -14300,16 +14249,16 @@
         <v>97</v>
       </c>
       <c r="K99" t="s" s="2">
-        <v>609</v>
+        <v>593</v>
       </c>
       <c r="L99" t="s" s="2">
-        <v>610</v>
+        <v>594</v>
       </c>
       <c r="M99" t="s" s="2">
-        <v>611</v>
+        <v>595</v>
       </c>
       <c r="N99" t="s" s="2">
-        <v>612</v>
+        <v>596</v>
       </c>
       <c r="O99" s="2"/>
       <c r="P99" t="s" s="2">
@@ -14359,7 +14308,7 @@
         <v>85</v>
       </c>
       <c r="AF99" t="s" s="2">
-        <v>608</v>
+        <v>592</v>
       </c>
       <c r="AG99" t="s" s="2">
         <v>83</v>
@@ -14380,10 +14329,10 @@
         <v>85</v>
       </c>
       <c r="AM99" t="s" s="2">
-        <v>606</v>
+        <v>590</v>
       </c>
       <c r="AN99" t="s" s="2">
-        <v>613</v>
+        <v>597</v>
       </c>
       <c r="AO99" t="s" s="2">
         <v>85</v>
@@ -14394,10 +14343,10 @@
     </row>
     <row r="100">
       <c r="A100" t="s" s="2">
-        <v>614</v>
+        <v>598</v>
       </c>
       <c r="B100" t="s" s="2">
-        <v>614</v>
+        <v>598</v>
       </c>
       <c r="C100" s="2"/>
       <c r="D100" t="s" s="2">
@@ -14420,19 +14369,19 @@
         <v>97</v>
       </c>
       <c r="K100" t="s" s="2">
-        <v>549</v>
+        <v>533</v>
       </c>
       <c r="L100" t="s" s="2">
-        <v>615</v>
+        <v>599</v>
       </c>
       <c r="M100" t="s" s="2">
-        <v>616</v>
+        <v>600</v>
       </c>
       <c r="N100" t="s" s="2">
-        <v>617</v>
+        <v>601</v>
       </c>
       <c r="O100" t="s" s="2">
-        <v>618</v>
+        <v>602</v>
       </c>
       <c r="P100" t="s" s="2">
         <v>85</v>
@@ -14481,7 +14430,7 @@
         <v>85</v>
       </c>
       <c r="AF100" t="s" s="2">
-        <v>614</v>
+        <v>598</v>
       </c>
       <c r="AG100" t="s" s="2">
         <v>83</v>
@@ -14502,10 +14451,10 @@
         <v>85</v>
       </c>
       <c r="AM100" t="s" s="2">
-        <v>619</v>
+        <v>603</v>
       </c>
       <c r="AN100" t="s" s="2">
-        <v>620</v>
+        <v>604</v>
       </c>
       <c r="AO100" t="s" s="2">
         <v>85</v>
@@ -14516,10 +14465,10 @@
     </row>
     <row r="101">
       <c r="A101" t="s" s="2">
-        <v>621</v>
+        <v>605</v>
       </c>
       <c r="B101" t="s" s="2">
-        <v>621</v>
+        <v>605</v>
       </c>
       <c r="C101" s="2"/>
       <c r="D101" t="s" s="2">
@@ -14634,10 +14583,10 @@
     </row>
     <row r="102">
       <c r="A102" t="s" s="2">
-        <v>622</v>
+        <v>606</v>
       </c>
       <c r="B102" t="s" s="2">
-        <v>622</v>
+        <v>606</v>
       </c>
       <c r="C102" s="2"/>
       <c r="D102" t="s" s="2">
@@ -14750,10 +14699,10 @@
     </row>
     <row r="103">
       <c r="A103" t="s" s="2">
-        <v>623</v>
+        <v>607</v>
       </c>
       <c r="B103" t="s" s="2">
-        <v>622</v>
+        <v>606</v>
       </c>
       <c r="C103" t="s" s="2">
         <v>230</v>
@@ -14784,7 +14733,7 @@
         <v>232</v>
       </c>
       <c r="M103" t="s" s="2">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="N103" s="2"/>
       <c r="O103" s="2"/>
@@ -14844,7 +14793,7 @@
         <v>84</v>
       </c>
       <c r="AI103" t="s" s="2">
-        <v>158</v>
+        <v>153</v>
       </c>
       <c r="AJ103" t="s" s="2">
         <v>147</v>
@@ -14870,10 +14819,10 @@
     </row>
     <row r="104">
       <c r="A104" t="s" s="2">
-        <v>624</v>
+        <v>608</v>
       </c>
       <c r="B104" t="s" s="2">
-        <v>625</v>
+        <v>609</v>
       </c>
       <c r="C104" s="2"/>
       <c r="D104" t="s" s="2">
@@ -14988,10 +14937,10 @@
     </row>
     <row r="105">
       <c r="A105" t="s" s="2">
-        <v>626</v>
+        <v>610</v>
       </c>
       <c r="B105" t="s" s="2">
-        <v>627</v>
+        <v>611</v>
       </c>
       <c r="C105" s="2"/>
       <c r="D105" t="s" s="2">
@@ -15106,10 +15055,10 @@
     </row>
     <row r="106">
       <c r="A106" t="s" s="2">
-        <v>628</v>
+        <v>612</v>
       </c>
       <c r="B106" t="s" s="2">
-        <v>629</v>
+        <v>613</v>
       </c>
       <c r="C106" s="2"/>
       <c r="D106" t="s" s="2">
@@ -15226,10 +15175,10 @@
     </row>
     <row r="107">
       <c r="A107" t="s" s="2">
-        <v>630</v>
+        <v>614</v>
       </c>
       <c r="B107" t="s" s="2">
-        <v>631</v>
+        <v>615</v>
       </c>
       <c r="C107" s="2"/>
       <c r="D107" t="s" s="2">
@@ -15344,14 +15293,14 @@
     </row>
     <row r="108">
       <c r="A108" t="s" s="2">
-        <v>632</v>
+        <v>616</v>
       </c>
       <c r="B108" t="s" s="2">
-        <v>632</v>
+        <v>616</v>
       </c>
       <c r="C108" s="2"/>
       <c r="D108" t="s" s="2">
-        <v>560</v>
+        <v>544</v>
       </c>
       <c r="E108" s="2"/>
       <c r="F108" t="s" s="2">
@@ -15373,10 +15322,10 @@
         <v>141</v>
       </c>
       <c r="L108" t="s" s="2">
-        <v>561</v>
+        <v>545</v>
       </c>
       <c r="M108" t="s" s="2">
-        <v>562</v>
+        <v>546</v>
       </c>
       <c r="N108" t="s" s="2">
         <v>171</v>
@@ -15431,7 +15380,7 @@
         <v>85</v>
       </c>
       <c r="AF108" t="s" s="2">
-        <v>563</v>
+        <v>547</v>
       </c>
       <c r="AG108" t="s" s="2">
         <v>83</v>
@@ -15466,10 +15415,10 @@
     </row>
     <row r="109">
       <c r="A109" t="s" s="2">
-        <v>633</v>
+        <v>617</v>
       </c>
       <c r="B109" t="s" s="2">
-        <v>633</v>
+        <v>617</v>
       </c>
       <c r="C109" s="2"/>
       <c r="D109" t="s" s="2">
@@ -15495,13 +15444,13 @@
         <v>285</v>
       </c>
       <c r="L109" t="s" s="2">
-        <v>634</v>
+        <v>618</v>
       </c>
       <c r="M109" t="s" s="2">
-        <v>635</v>
+        <v>619</v>
       </c>
       <c r="N109" t="s" s="2">
-        <v>636</v>
+        <v>620</v>
       </c>
       <c r="O109" t="s" s="2">
         <v>315</v>
@@ -15529,13 +15478,13 @@
         <v>85</v>
       </c>
       <c r="X109" t="s" s="2">
-        <v>514</v>
+        <v>498</v>
       </c>
       <c r="Y109" t="s" s="2">
-        <v>637</v>
+        <v>621</v>
       </c>
       <c r="Z109" t="s" s="2">
-        <v>638</v>
+        <v>622</v>
       </c>
       <c r="AA109" t="s" s="2">
         <v>85</v>
@@ -15553,7 +15502,7 @@
         <v>85</v>
       </c>
       <c r="AF109" t="s" s="2">
-        <v>633</v>
+        <v>617</v>
       </c>
       <c r="AG109" t="s" s="2">
         <v>96</v>
@@ -15571,7 +15520,7 @@
         <v>85</v>
       </c>
       <c r="AL109" t="s" s="2">
-        <v>639</v>
+        <v>623</v>
       </c>
       <c r="AM109" t="s" s="2">
         <v>320</v>
@@ -15588,10 +15537,10 @@
     </row>
     <row r="110">
       <c r="A110" t="s" s="2">
-        <v>640</v>
+        <v>624</v>
       </c>
       <c r="B110" t="s" s="2">
-        <v>640</v>
+        <v>624</v>
       </c>
       <c r="C110" s="2"/>
       <c r="D110" t="s" s="2">
@@ -15617,13 +15566,13 @@
         <v>427</v>
       </c>
       <c r="L110" t="s" s="2">
-        <v>641</v>
+        <v>625</v>
       </c>
       <c r="M110" t="s" s="2">
         <v>429</v>
       </c>
       <c r="N110" t="s" s="2">
-        <v>642</v>
+        <v>626</v>
       </c>
       <c r="O110" t="s" s="2">
         <v>431</v>
@@ -15673,7 +15622,7 @@
         <v>145</v>
       </c>
       <c r="AF110" t="s" s="2">
-        <v>640</v>
+        <v>624</v>
       </c>
       <c r="AG110" t="s" s="2">
         <v>83</v>
@@ -15691,7 +15640,7 @@
         <v>85</v>
       </c>
       <c r="AL110" t="s" s="2">
-        <v>643</v>
+        <v>627</v>
       </c>
       <c r="AM110" t="s" s="2">
         <v>435</v>
@@ -15708,10 +15657,10 @@
     </row>
     <row r="111">
       <c r="A111" t="s" s="2">
-        <v>644</v>
+        <v>628</v>
       </c>
       <c r="B111" t="s" s="2">
-        <v>640</v>
+        <v>624</v>
       </c>
       <c r="C111" t="s" s="2">
         <v>439</v>
@@ -15739,13 +15688,13 @@
         <v>161</v>
       </c>
       <c r="L111" t="s" s="2">
-        <v>641</v>
+        <v>625</v>
       </c>
       <c r="M111" t="s" s="2">
         <v>429</v>
       </c>
       <c r="N111" t="s" s="2">
-        <v>642</v>
+        <v>626</v>
       </c>
       <c r="O111" t="s" s="2">
         <v>431</v>
@@ -15797,7 +15746,7 @@
         <v>85</v>
       </c>
       <c r="AF111" t="s" s="2">
-        <v>640</v>
+        <v>624</v>
       </c>
       <c r="AG111" t="s" s="2">
         <v>83</v>
@@ -15815,7 +15764,7 @@
         <v>85</v>
       </c>
       <c r="AL111" t="s" s="2">
-        <v>643</v>
+        <v>627</v>
       </c>
       <c r="AM111" t="s" s="2">
         <v>435</v>
@@ -15832,10 +15781,10 @@
     </row>
     <row r="112">
       <c r="A112" t="s" s="2">
-        <v>645</v>
+        <v>629</v>
       </c>
       <c r="B112" t="s" s="2">
-        <v>640</v>
+        <v>624</v>
       </c>
       <c r="C112" t="s" s="2">
         <v>441</v>
@@ -15863,13 +15812,13 @@
         <v>442</v>
       </c>
       <c r="L112" t="s" s="2">
-        <v>641</v>
+        <v>625</v>
       </c>
       <c r="M112" t="s" s="2">
         <v>429</v>
       </c>
       <c r="N112" t="s" s="2">
-        <v>642</v>
+        <v>626</v>
       </c>
       <c r="O112" t="s" s="2">
         <v>431</v>
@@ -15921,7 +15870,7 @@
         <v>85</v>
       </c>
       <c r="AF112" t="s" s="2">
-        <v>640</v>
+        <v>624</v>
       </c>
       <c r="AG112" t="s" s="2">
         <v>83</v>
@@ -15939,7 +15888,7 @@
         <v>85</v>
       </c>
       <c r="AL112" t="s" s="2">
-        <v>643</v>
+        <v>627</v>
       </c>
       <c r="AM112" t="s" s="2">
         <v>435</v>
@@ -15956,10 +15905,10 @@
     </row>
     <row r="113">
       <c r="A113" t="s" s="2">
-        <v>646</v>
+        <v>630</v>
       </c>
       <c r="B113" t="s" s="2">
-        <v>640</v>
+        <v>624</v>
       </c>
       <c r="C113" t="s" s="2">
         <v>444</v>
@@ -15981,19 +15930,19 @@
         <v>85</v>
       </c>
       <c r="J113" t="s" s="2">
-        <v>85</v>
+        <v>97</v>
       </c>
       <c r="K113" t="s" s="2">
         <v>445</v>
       </c>
       <c r="L113" t="s" s="2">
-        <v>446</v>
+        <v>625</v>
       </c>
       <c r="M113" t="s" s="2">
-        <v>447</v>
+        <v>429</v>
       </c>
       <c r="N113" t="s" s="2">
-        <v>448</v>
+        <v>626</v>
       </c>
       <c r="O113" t="s" s="2">
         <v>431</v>
@@ -16045,7 +15994,7 @@
         <v>85</v>
       </c>
       <c r="AF113" t="s" s="2">
-        <v>640</v>
+        <v>624</v>
       </c>
       <c r="AG113" t="s" s="2">
         <v>83</v>
@@ -16054,39 +16003,39 @@
         <v>96</v>
       </c>
       <c r="AI113" t="s" s="2">
-        <v>158</v>
+        <v>85</v>
       </c>
       <c r="AJ113" t="s" s="2">
-        <v>449</v>
+        <v>108</v>
       </c>
       <c r="AK113" t="s" s="2">
         <v>85</v>
       </c>
       <c r="AL113" t="s" s="2">
-        <v>85</v>
+        <v>627</v>
       </c>
       <c r="AM113" t="s" s="2">
-        <v>450</v>
+        <v>435</v>
       </c>
       <c r="AN113" t="s" s="2">
-        <v>451</v>
+        <v>436</v>
       </c>
       <c r="AO113" t="s" s="2">
         <v>85</v>
       </c>
       <c r="AP113" t="s" s="2">
-        <v>85</v>
+        <v>437</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="s" s="2">
-        <v>647</v>
+        <v>631</v>
       </c>
       <c r="B114" t="s" s="2">
-        <v>640</v>
+        <v>624</v>
       </c>
       <c r="C114" t="s" s="2">
-        <v>453</v>
+        <v>447</v>
       </c>
       <c r="D114" t="s" s="2">
         <v>85</v>
@@ -16105,19 +16054,19 @@
         <v>85</v>
       </c>
       <c r="J114" t="s" s="2">
-        <v>85</v>
+        <v>97</v>
       </c>
       <c r="K114" t="s" s="2">
-        <v>454</v>
+        <v>448</v>
       </c>
       <c r="L114" t="s" s="2">
-        <v>455</v>
+        <v>625</v>
       </c>
       <c r="M114" t="s" s="2">
-        <v>456</v>
+        <v>429</v>
       </c>
       <c r="N114" t="s" s="2">
-        <v>457</v>
+        <v>626</v>
       </c>
       <c r="O114" t="s" s="2">
         <v>431</v>
@@ -16169,7 +16118,7 @@
         <v>85</v>
       </c>
       <c r="AF114" t="s" s="2">
-        <v>640</v>
+        <v>624</v>
       </c>
       <c r="AG114" t="s" s="2">
         <v>83</v>
@@ -16178,39 +16127,39 @@
         <v>96</v>
       </c>
       <c r="AI114" t="s" s="2">
-        <v>158</v>
+        <v>85</v>
       </c>
       <c r="AJ114" t="s" s="2">
-        <v>458</v>
+        <v>108</v>
       </c>
       <c r="AK114" t="s" s="2">
         <v>85</v>
       </c>
       <c r="AL114" t="s" s="2">
-        <v>85</v>
+        <v>627</v>
       </c>
       <c r="AM114" t="s" s="2">
-        <v>139</v>
+        <v>435</v>
       </c>
       <c r="AN114" t="s" s="2">
-        <v>459</v>
+        <v>436</v>
       </c>
       <c r="AO114" t="s" s="2">
         <v>85</v>
       </c>
       <c r="AP114" t="s" s="2">
-        <v>85</v>
+        <v>437</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="s" s="2">
-        <v>648</v>
+        <v>632</v>
       </c>
       <c r="B115" t="s" s="2">
-        <v>640</v>
+        <v>624</v>
       </c>
       <c r="C115" t="s" s="2">
-        <v>461</v>
+        <v>450</v>
       </c>
       <c r="D115" t="s" s="2">
         <v>85</v>
@@ -16232,16 +16181,16 @@
         <v>97</v>
       </c>
       <c r="K115" t="s" s="2">
-        <v>462</v>
+        <v>451</v>
       </c>
       <c r="L115" t="s" s="2">
-        <v>641</v>
+        <v>625</v>
       </c>
       <c r="M115" t="s" s="2">
         <v>429</v>
       </c>
       <c r="N115" t="s" s="2">
-        <v>642</v>
+        <v>626</v>
       </c>
       <c r="O115" t="s" s="2">
         <v>431</v>
@@ -16293,7 +16242,7 @@
         <v>85</v>
       </c>
       <c r="AF115" t="s" s="2">
-        <v>640</v>
+        <v>624</v>
       </c>
       <c r="AG115" t="s" s="2">
         <v>83</v>
@@ -16311,7 +16260,7 @@
         <v>85</v>
       </c>
       <c r="AL115" t="s" s="2">
-        <v>643</v>
+        <v>627</v>
       </c>
       <c r="AM115" t="s" s="2">
         <v>435</v>
@@ -16328,13 +16277,13 @@
     </row>
     <row r="116">
       <c r="A116" t="s" s="2">
-        <v>649</v>
+        <v>633</v>
       </c>
       <c r="B116" t="s" s="2">
-        <v>640</v>
+        <v>624</v>
       </c>
       <c r="C116" t="s" s="2">
-        <v>464</v>
+        <v>453</v>
       </c>
       <c r="D116" t="s" s="2">
         <v>85</v>
@@ -16356,16 +16305,16 @@
         <v>97</v>
       </c>
       <c r="K116" t="s" s="2">
-        <v>465</v>
+        <v>454</v>
       </c>
       <c r="L116" t="s" s="2">
-        <v>641</v>
+        <v>625</v>
       </c>
       <c r="M116" t="s" s="2">
         <v>429</v>
       </c>
       <c r="N116" t="s" s="2">
-        <v>642</v>
+        <v>626</v>
       </c>
       <c r="O116" t="s" s="2">
         <v>431</v>
@@ -16417,7 +16366,7 @@
         <v>85</v>
       </c>
       <c r="AF116" t="s" s="2">
-        <v>640</v>
+        <v>624</v>
       </c>
       <c r="AG116" t="s" s="2">
         <v>83</v>
@@ -16435,7 +16384,7 @@
         <v>85</v>
       </c>
       <c r="AL116" t="s" s="2">
-        <v>643</v>
+        <v>627</v>
       </c>
       <c r="AM116" t="s" s="2">
         <v>435</v>
@@ -16452,13 +16401,13 @@
     </row>
     <row r="117">
       <c r="A117" t="s" s="2">
-        <v>650</v>
+        <v>634</v>
       </c>
       <c r="B117" t="s" s="2">
-        <v>640</v>
+        <v>624</v>
       </c>
       <c r="C117" t="s" s="2">
-        <v>467</v>
+        <v>456</v>
       </c>
       <c r="D117" t="s" s="2">
         <v>85</v>
@@ -16480,16 +16429,16 @@
         <v>97</v>
       </c>
       <c r="K117" t="s" s="2">
-        <v>468</v>
+        <v>457</v>
       </c>
       <c r="L117" t="s" s="2">
-        <v>641</v>
+        <v>625</v>
       </c>
       <c r="M117" t="s" s="2">
         <v>429</v>
       </c>
       <c r="N117" t="s" s="2">
-        <v>642</v>
+        <v>626</v>
       </c>
       <c r="O117" t="s" s="2">
         <v>431</v>
@@ -16541,7 +16490,7 @@
         <v>85</v>
       </c>
       <c r="AF117" t="s" s="2">
-        <v>640</v>
+        <v>624</v>
       </c>
       <c r="AG117" t="s" s="2">
         <v>83</v>
@@ -16559,7 +16508,7 @@
         <v>85</v>
       </c>
       <c r="AL117" t="s" s="2">
-        <v>643</v>
+        <v>627</v>
       </c>
       <c r="AM117" t="s" s="2">
         <v>435</v>
@@ -16576,13 +16525,13 @@
     </row>
     <row r="118">
       <c r="A118" t="s" s="2">
-        <v>651</v>
+        <v>635</v>
       </c>
       <c r="B118" t="s" s="2">
-        <v>640</v>
+        <v>624</v>
       </c>
       <c r="C118" t="s" s="2">
-        <v>470</v>
+        <v>459</v>
       </c>
       <c r="D118" t="s" s="2">
         <v>85</v>
@@ -16601,19 +16550,19 @@
         <v>85</v>
       </c>
       <c r="J118" t="s" s="2">
-        <v>85</v>
+        <v>97</v>
       </c>
       <c r="K118" t="s" s="2">
-        <v>471</v>
+        <v>460</v>
       </c>
       <c r="L118" t="s" s="2">
-        <v>472</v>
+        <v>625</v>
       </c>
       <c r="M118" t="s" s="2">
-        <v>473</v>
+        <v>429</v>
       </c>
       <c r="N118" t="s" s="2">
-        <v>474</v>
+        <v>626</v>
       </c>
       <c r="O118" t="s" s="2">
         <v>431</v>
@@ -16665,7 +16614,7 @@
         <v>85</v>
       </c>
       <c r="AF118" t="s" s="2">
-        <v>640</v>
+        <v>624</v>
       </c>
       <c r="AG118" t="s" s="2">
         <v>83</v>
@@ -16674,39 +16623,39 @@
         <v>96</v>
       </c>
       <c r="AI118" t="s" s="2">
-        <v>158</v>
+        <v>85</v>
       </c>
       <c r="AJ118" t="s" s="2">
-        <v>475</v>
+        <v>108</v>
       </c>
       <c r="AK118" t="s" s="2">
         <v>85</v>
       </c>
       <c r="AL118" t="s" s="2">
-        <v>85</v>
+        <v>627</v>
       </c>
       <c r="AM118" t="s" s="2">
-        <v>476</v>
+        <v>435</v>
       </c>
       <c r="AN118" t="s" s="2">
-        <v>477</v>
+        <v>436</v>
       </c>
       <c r="AO118" t="s" s="2">
         <v>85</v>
       </c>
       <c r="AP118" t="s" s="2">
-        <v>85</v>
+        <v>437</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="s" s="2">
-        <v>652</v>
+        <v>636</v>
       </c>
       <c r="B119" t="s" s="2">
-        <v>640</v>
+        <v>624</v>
       </c>
       <c r="C119" t="s" s="2">
-        <v>479</v>
+        <v>462</v>
       </c>
       <c r="D119" t="s" s="2">
         <v>85</v>
@@ -16728,16 +16677,16 @@
         <v>97</v>
       </c>
       <c r="K119" t="s" s="2">
-        <v>285</v>
+        <v>463</v>
       </c>
       <c r="L119" t="s" s="2">
-        <v>641</v>
+        <v>625</v>
       </c>
       <c r="M119" t="s" s="2">
         <v>429</v>
       </c>
       <c r="N119" t="s" s="2">
-        <v>642</v>
+        <v>626</v>
       </c>
       <c r="O119" t="s" s="2">
         <v>431</v>
@@ -16769,7 +16718,7 @@
       </c>
       <c r="Y119" s="2"/>
       <c r="Z119" t="s" s="2">
-        <v>480</v>
+        <v>464</v>
       </c>
       <c r="AA119" t="s" s="2">
         <v>85</v>
@@ -16787,7 +16736,7 @@
         <v>85</v>
       </c>
       <c r="AF119" t="s" s="2">
-        <v>640</v>
+        <v>624</v>
       </c>
       <c r="AG119" t="s" s="2">
         <v>83</v>
@@ -16805,7 +16754,7 @@
         <v>85</v>
       </c>
       <c r="AL119" t="s" s="2">
-        <v>643</v>
+        <v>627</v>
       </c>
       <c r="AM119" t="s" s="2">
         <v>435</v>
@@ -16822,10 +16771,10 @@
     </row>
     <row r="120">
       <c r="A120" t="s" s="2">
-        <v>653</v>
+        <v>637</v>
       </c>
       <c r="B120" t="s" s="2">
-        <v>653</v>
+        <v>637</v>
       </c>
       <c r="C120" s="2"/>
       <c r="D120" t="s" s="2">
@@ -16851,16 +16800,16 @@
         <v>285</v>
       </c>
       <c r="L120" t="s" s="2">
-        <v>654</v>
+        <v>638</v>
       </c>
       <c r="M120" t="s" s="2">
-        <v>655</v>
+        <v>639</v>
       </c>
       <c r="N120" t="s" s="2">
-        <v>656</v>
+        <v>640</v>
       </c>
       <c r="O120" t="s" s="2">
-        <v>485</v>
+        <v>469</v>
       </c>
       <c r="P120" t="s" s="2">
         <v>85</v>
@@ -16888,10 +16837,10 @@
         <v>346</v>
       </c>
       <c r="Y120" t="s" s="2">
-        <v>486</v>
+        <v>470</v>
       </c>
       <c r="Z120" t="s" s="2">
-        <v>487</v>
+        <v>471</v>
       </c>
       <c r="AA120" t="s" s="2">
         <v>85</v>
@@ -16909,7 +16858,7 @@
         <v>85</v>
       </c>
       <c r="AF120" t="s" s="2">
-        <v>653</v>
+        <v>637</v>
       </c>
       <c r="AG120" t="s" s="2">
         <v>83</v>
@@ -16918,7 +16867,7 @@
         <v>96</v>
       </c>
       <c r="AI120" t="s" s="2">
-        <v>488</v>
+        <v>472</v>
       </c>
       <c r="AJ120" t="s" s="2">
         <v>108</v>
@@ -16933,7 +16882,7 @@
         <v>139</v>
       </c>
       <c r="AN120" t="s" s="2">
-        <v>489</v>
+        <v>473</v>
       </c>
       <c r="AO120" t="s" s="2">
         <v>85</v>
@@ -16944,14 +16893,14 @@
     </row>
     <row r="121">
       <c r="A121" t="s" s="2">
-        <v>657</v>
+        <v>641</v>
       </c>
       <c r="B121" t="s" s="2">
-        <v>657</v>
+        <v>641</v>
       </c>
       <c r="C121" s="2"/>
       <c r="D121" t="s" s="2">
-        <v>491</v>
+        <v>475</v>
       </c>
       <c r="E121" s="2"/>
       <c r="F121" t="s" s="2">
@@ -16973,16 +16922,16 @@
         <v>285</v>
       </c>
       <c r="L121" t="s" s="2">
-        <v>492</v>
+        <v>476</v>
       </c>
       <c r="M121" t="s" s="2">
-        <v>493</v>
+        <v>477</v>
       </c>
       <c r="N121" t="s" s="2">
-        <v>494</v>
+        <v>478</v>
       </c>
       <c r="O121" t="s" s="2">
-        <v>495</v>
+        <v>479</v>
       </c>
       <c r="P121" t="s" s="2">
         <v>85</v>
@@ -17010,10 +16959,10 @@
         <v>346</v>
       </c>
       <c r="Y121" t="s" s="2">
-        <v>496</v>
+        <v>480</v>
       </c>
       <c r="Z121" t="s" s="2">
-        <v>497</v>
+        <v>481</v>
       </c>
       <c r="AA121" t="s" s="2">
         <v>85</v>
@@ -17031,7 +16980,7 @@
         <v>85</v>
       </c>
       <c r="AF121" t="s" s="2">
-        <v>657</v>
+        <v>641</v>
       </c>
       <c r="AG121" t="s" s="2">
         <v>83</v>
@@ -17049,27 +16998,27 @@
         <v>85</v>
       </c>
       <c r="AL121" t="s" s="2">
-        <v>498</v>
+        <v>482</v>
       </c>
       <c r="AM121" t="s" s="2">
-        <v>499</v>
+        <v>483</v>
       </c>
       <c r="AN121" t="s" s="2">
-        <v>500</v>
+        <v>484</v>
       </c>
       <c r="AO121" t="s" s="2">
         <v>85</v>
       </c>
       <c r="AP121" t="s" s="2">
-        <v>501</v>
+        <v>485</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="s" s="2">
-        <v>658</v>
+        <v>642</v>
       </c>
       <c r="B122" t="s" s="2">
-        <v>658</v>
+        <v>642</v>
       </c>
       <c r="C122" s="2"/>
       <c r="D122" t="s" s="2">
@@ -17092,19 +17041,19 @@
         <v>85</v>
       </c>
       <c r="K122" t="s" s="2">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="L122" t="s" s="2">
-        <v>659</v>
+        <v>643</v>
       </c>
       <c r="M122" t="s" s="2">
-        <v>660</v>
+        <v>644</v>
       </c>
       <c r="N122" t="s" s="2">
-        <v>552</v>
+        <v>536</v>
       </c>
       <c r="O122" t="s" s="2">
-        <v>553</v>
+        <v>537</v>
       </c>
       <c r="P122" t="s" s="2">
         <v>85</v>
@@ -17153,7 +17102,7 @@
         <v>85</v>
       </c>
       <c r="AF122" t="s" s="2">
-        <v>658</v>
+        <v>642</v>
       </c>
       <c r="AG122" t="s" s="2">
         <v>83</v>
@@ -17174,10 +17123,10 @@
         <v>85</v>
       </c>
       <c r="AM122" t="s" s="2">
-        <v>555</v>
+        <v>539</v>
       </c>
       <c r="AN122" t="s" s="2">
-        <v>556</v>
+        <v>540</v>
       </c>
       <c r="AO122" t="s" s="2">
         <v>85</v>

--- a/ig/ch-lab-report/StructureDefinition-ch-lab-observation-albumin-creatinine-urine-ratio.xlsx
+++ b/ig/ch-lab-report/StructureDefinition-ch-lab-observation-albumin-creatinine-urine-ratio.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>2.0.0-ballot</t>
+    <t>2.0.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-05-22T14:17:25+00:00</t>
+    <t>2025-12-16T10:40:10+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -389,7 +389,7 @@
     <t>A human language.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/languages</t>
+    <t>http://hl7.org/fhir/ValueSet/languages|4.0.1</t>
   </si>
   <si>
     <t>Resource.language</t>
@@ -815,7 +815,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(CarePlan|DeviceRequest|ImmunizationRecommendation|MedicationRequest|NutritionOrder|ServiceRequest)
+    <t xml:space="preserve">Reference(CarePlan|4.0.1|DeviceRequest|4.0.1|ImmunizationRecommendation|4.0.1|MedicationRequest|4.0.1|NutritionOrder|4.0.1|ServiceRequest|4.0.1)
 </t>
   </si>
   <si>
@@ -844,7 +844,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(MedicationAdministration|MedicationDispense|MedicationStatement|Procedure|Immunization|ImagingStudy)
+    <t xml:space="preserve">Reference(MedicationAdministration|4.0.1|MedicationDispense|4.0.1|MedicationStatement|4.0.1|Procedure|4.0.1|Immunization|4.0.1|ImagingStudy|4.0.1)
 </t>
   </si>
   <si>
@@ -927,7 +927,7 @@
     <t>Codes for high level observation categories.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/observation-category</t>
+    <t>http://hl7.org/fhir/ValueSet/observation-category|4.0.1</t>
   </si>
   <si>
     <t xml:space="preserve">value:$this}
@@ -1125,7 +1125,7 @@
     <t>Aa resource (or, for logical models, the URI of the logical model).</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/resource-types</t>
+    <t>http://hl7.org/fhir/ValueSet/resource-types|4.0.1</t>
   </si>
   <si>
     <t>Reference.type</t>
@@ -1170,7 +1170,7 @@
     <t>Observation.focus</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(Resource)
+    <t xml:space="preserve">Reference(Resource|4.0.1)
 </t>
   </si>
   <si>
@@ -1193,7 +1193,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(Encounter)
+    <t xml:space="preserve">Reference(Encounter|4.0.1)
 </t>
   </si>
   <si>
@@ -1518,7 +1518,7 @@
     <t>Codes specifying why the result (`Observation.value[x]`) is missing.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/data-absent-reason</t>
+    <t>http://hl7.org/fhir/ValueSet/data-absent-reason|4.0.1</t>
   </si>
   <si>
     <t xml:space="preserve">obs-6
@@ -1550,7 +1550,7 @@
     <t>Codes identifying interpretations of observations.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/observation-interpretation</t>
+    <t>http://hl7.org/fhir/ValueSet/observation-interpretation|4.0.1</t>
   </si>
   <si>
     <t>&lt; 260245000 |Findings values|</t>
@@ -1609,7 +1609,7 @@
     <t>Codes describing anatomical locations. May include laterality.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/body-site</t>
+    <t>http://hl7.org/fhir/ValueSet/body-site|4.0.1</t>
   </si>
   <si>
     <t>&lt; 123037004 |Body structure|</t>
@@ -1688,7 +1688,7 @@
     <t>Observation.device</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(Device|DeviceMetric)
+    <t xml:space="preserve">Reference(Device|4.0.1|DeviceMetric|4.0.1)
 </t>
   </si>
   <si>
@@ -1768,7 +1768,7 @@
     <t>Observation.referenceRange.low</t>
   </si>
   <si>
-    <t xml:space="preserve">Quantity {SimpleQuantity}
+    <t xml:space="preserve">Quantity {SimpleQuantity|4.0.1}
 </t>
   </si>
   <si>
@@ -1818,7 +1818,7 @@
     <t>Code for the meaning of a reference range.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/referencerange-meaning</t>
+    <t>http://hl7.org/fhir/ValueSet/referencerange-meaning|4.0.1</t>
   </si>
   <si>
     <t>&lt; 260245000 |Findings values| OR  @@ -1851,7 +1851,7 @@
     <t>Codes identifying the population the reference range applies to.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/referencerange-appliesto</t>
+    <t>http://hl7.org/fhir/ValueSet/referencerange-appliesto|4.0.1</t>
   </si>
   <si>
     <t>Observation.referenceRange.age</t>
@@ -1910,7 +1910,7 @@
     <t>Observation.derivedFrom</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(DocumentReference|ImagingStudy|Media|QuestionnaireResponse|Observation|MolecularSequence)
+    <t xml:space="preserve">Reference(DocumentReference|4.0.1|ImagingStudy|4.0.1|Media|4.0.1|QuestionnaireResponse|4.0.1|Observation|4.0.1|MolecularSequence|4.0.1)
 </t>
   </si>
   <si>
@@ -1998,7 +1998,7 @@
     <t>Codes identifying names of simple observations.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/observation-codes</t>
+    <t>http://hl7.org/fhir/ValueSet/observation-codes|4.0.1</t>
   </si>
   <si>
     <t>&lt; 363787002 |Observable entity| OR 